--- a/doc/画面設計書.xlsx
+++ b/doc/画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\git\10_2024年度勉強会\umayoryou\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28A4303-B3E7-44DE-A7FE-DE1B1BCC5778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3E31DA-D62A-41D0-8CED-F3E70690A36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA453226-3892-42D9-B5E7-AD5EB0FDDF4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="9" xr2:uid="{CA453226-3892-42D9-B5E7-AD5EB0FDDF4E}"/>
   </bookViews>
   <sheets>
     <sheet name="画面一覧表" sheetId="13" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="213">
   <si>
     <t>画面遷移図</t>
     <rPh sb="0" eb="2">
@@ -1868,6 +1868,33 @@
   </si>
   <si>
     <t>error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稼働状況</t>
+    <rPh sb="0" eb="2">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稼働中</t>
+    <rPh sb="0" eb="2">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2259,7 +2286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2353,8 +2380,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2443,6 +2470,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2499,12 +2529,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5731,7 +5755,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9855BC7-240A-4DAF-BAC6-2773C93404AF}">
   <dimension ref="B2:AS22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="Z34" sqref="Z34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5779,13 +5805,13 @@
       <c r="AL2" s="2"/>
     </row>
     <row r="4" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="31" t="s">
         <v>174</v>
       </c>
     </row>
@@ -6014,10 +6040,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3315FD0B-AA64-429E-A1B4-41206F204528}">
-  <dimension ref="B2:BG76"/>
+  <dimension ref="B2:BG40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AW17" sqref="AW17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -6152,7 +6178,7 @@
     <row r="12" spans="2:47" x14ac:dyDescent="0.4">
       <c r="K12" s="6"/>
       <c r="L12" s="1" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="AU12" s="7"/>
     </row>
@@ -6178,12 +6204,2389 @@
     </row>
     <row r="14" spans="2:47" x14ac:dyDescent="0.4">
       <c r="K14" s="6"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
       <c r="AU14" s="7"/>
     </row>
     <row r="15" spans="2:47" x14ac:dyDescent="0.4">
       <c r="K15" s="6"/>
       <c r="L15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU15" s="7"/>
+    </row>
+    <row r="16" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="K16" s="6"/>
+      <c r="M16" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="21"/>
+      <c r="T16" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="U16" s="55"/>
+      <c r="W16" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="21"/>
+      <c r="AU16" s="7"/>
+    </row>
+    <row r="17" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K17" s="6"/>
+      <c r="AU17" s="7"/>
+    </row>
+    <row r="18" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K18" s="6"/>
+      <c r="L18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU18" s="7"/>
+    </row>
+    <row r="19" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K19" s="6"/>
+      <c r="M19" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="76"/>
+      <c r="T19" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="U19" s="55"/>
+      <c r="W19" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="78"/>
+      <c r="AB19" s="79"/>
+      <c r="AU19" s="7"/>
+    </row>
+    <row r="20" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K20" s="6"/>
+      <c r="AU20" s="7"/>
+    </row>
+    <row r="21" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K21" s="6"/>
+      <c r="L21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU21" s="7"/>
+    </row>
+    <row r="22" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K22" s="6"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="21"/>
+      <c r="AB22" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU22" s="7"/>
+    </row>
+    <row r="23" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K23" s="6"/>
+      <c r="AU23" s="7"/>
+    </row>
+    <row r="24" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K24" s="6"/>
+      <c r="L24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU24" s="7"/>
+    </row>
+    <row r="25" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K25" s="6"/>
+      <c r="M25" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="80"/>
+      <c r="T25" s="80"/>
+      <c r="AU25" s="7"/>
+    </row>
+    <row r="26" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K26" s="6"/>
+      <c r="AU26" s="7"/>
+    </row>
+    <row r="27" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K27" s="6"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="21"/>
+      <c r="AD27" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE27" s="66"/>
+      <c r="AF27" s="66"/>
+      <c r="AG27" s="66"/>
+      <c r="AH27" s="67"/>
+      <c r="AU27" s="7"/>
+    </row>
+    <row r="28" spans="11:59" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K28" s="8"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
+      <c r="AJ28" s="9"/>
+      <c r="AK28" s="9"/>
+      <c r="AL28" s="9"/>
+      <c r="AM28" s="9"/>
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="9"/>
+      <c r="AP28" s="9"/>
+      <c r="AQ28" s="9"/>
+      <c r="AR28" s="9"/>
+      <c r="AS28" s="9"/>
+      <c r="AT28" s="9"/>
+      <c r="AU28" s="10"/>
+    </row>
+    <row r="30" spans="11:59" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K31" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="W31" s="60"/>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="60"/>
+      <c r="Z31" s="60"/>
+      <c r="AA31" s="60"/>
+      <c r="AB31" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC31" s="60"/>
+      <c r="AD31" s="60"/>
+      <c r="AE31" s="60"/>
+      <c r="AF31" s="60"/>
+      <c r="AG31" s="60"/>
+      <c r="AH31" s="60"/>
+      <c r="AI31" s="60"/>
+      <c r="AJ31" s="60"/>
+      <c r="AK31" s="60"/>
+      <c r="AL31" s="60"/>
+      <c r="AM31" s="60"/>
+      <c r="AN31" s="60"/>
+      <c r="AO31" s="60"/>
+      <c r="AP31" s="60"/>
+      <c r="AQ31" s="60"/>
+      <c r="AR31" s="60"/>
+      <c r="AS31" s="60"/>
+      <c r="AT31" s="60"/>
+      <c r="AU31" s="60"/>
+      <c r="AV31" s="60"/>
+      <c r="AW31" s="60"/>
+      <c r="AX31" s="60"/>
+      <c r="AY31" s="60"/>
+      <c r="AZ31" s="60"/>
+      <c r="BA31" s="60"/>
+      <c r="BB31" s="60"/>
+      <c r="BC31" s="60"/>
+      <c r="BD31" s="60"/>
+      <c r="BE31" s="60"/>
+      <c r="BF31" s="60"/>
+      <c r="BG31" s="60"/>
+    </row>
+    <row r="32" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K32" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="61"/>
+      <c r="U32" s="61"/>
+      <c r="V32" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="W32" s="61"/>
+      <c r="X32" s="61"/>
+      <c r="Y32" s="61"/>
+      <c r="Z32" s="61"/>
+      <c r="AA32" s="61"/>
+      <c r="AB32" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC32" s="61"/>
+      <c r="AD32" s="61"/>
+      <c r="AE32" s="61"/>
+      <c r="AF32" s="61"/>
+      <c r="AG32" s="61"/>
+      <c r="AH32" s="61"/>
+      <c r="AI32" s="61"/>
+      <c r="AJ32" s="61"/>
+      <c r="AK32" s="61"/>
+      <c r="AL32" s="61"/>
+      <c r="AM32" s="61"/>
+      <c r="AN32" s="61"/>
+      <c r="AO32" s="61"/>
+      <c r="AP32" s="61"/>
+      <c r="AQ32" s="61"/>
+      <c r="AR32" s="61"/>
+      <c r="AS32" s="61"/>
+      <c r="AT32" s="61"/>
+      <c r="AU32" s="61"/>
+      <c r="AV32" s="61"/>
+      <c r="AW32" s="61"/>
+      <c r="AX32" s="61"/>
+      <c r="AY32" s="61"/>
+      <c r="AZ32" s="61"/>
+      <c r="BA32" s="61"/>
+      <c r="BB32" s="61"/>
+      <c r="BC32" s="61"/>
+      <c r="BD32" s="61"/>
+      <c r="BE32" s="61"/>
+      <c r="BF32" s="61"/>
+      <c r="BG32" s="61"/>
+    </row>
+    <row r="33" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K33" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="61"/>
+      <c r="V33" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="W33" s="61"/>
+      <c r="X33" s="61"/>
+      <c r="Y33" s="61"/>
+      <c r="Z33" s="61"/>
+      <c r="AA33" s="61"/>
+      <c r="AB33" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC33" s="61"/>
+      <c r="AD33" s="61"/>
+      <c r="AE33" s="61"/>
+      <c r="AF33" s="61"/>
+      <c r="AG33" s="61"/>
+      <c r="AH33" s="61"/>
+      <c r="AI33" s="61"/>
+      <c r="AJ33" s="61"/>
+      <c r="AK33" s="61"/>
+      <c r="AL33" s="61"/>
+      <c r="AM33" s="61"/>
+      <c r="AN33" s="61"/>
+      <c r="AO33" s="61"/>
+      <c r="AP33" s="61"/>
+      <c r="AQ33" s="61"/>
+      <c r="AR33" s="61"/>
+      <c r="AS33" s="61"/>
+      <c r="AT33" s="61"/>
+      <c r="AU33" s="61"/>
+      <c r="AV33" s="61"/>
+      <c r="AW33" s="61"/>
+      <c r="AX33" s="61"/>
+      <c r="AY33" s="61"/>
+      <c r="AZ33" s="61"/>
+      <c r="BA33" s="61"/>
+      <c r="BB33" s="61"/>
+      <c r="BC33" s="61"/>
+      <c r="BD33" s="61"/>
+      <c r="BE33" s="61"/>
+      <c r="BF33" s="61"/>
+      <c r="BG33" s="61"/>
+    </row>
+    <row r="34" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K34" s="61" t="s">
         <v>122</v>
+      </c>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="61"/>
+      <c r="V34" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="W34" s="61"/>
+      <c r="X34" s="61"/>
+      <c r="Y34" s="61"/>
+      <c r="Z34" s="61"/>
+      <c r="AA34" s="61"/>
+      <c r="AB34" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC34" s="61"/>
+      <c r="AD34" s="61"/>
+      <c r="AE34" s="61"/>
+      <c r="AF34" s="61"/>
+      <c r="AG34" s="61"/>
+      <c r="AH34" s="61"/>
+      <c r="AI34" s="61"/>
+      <c r="AJ34" s="61"/>
+      <c r="AK34" s="61"/>
+      <c r="AL34" s="61"/>
+      <c r="AM34" s="61"/>
+      <c r="AN34" s="61"/>
+      <c r="AO34" s="61"/>
+      <c r="AP34" s="61"/>
+      <c r="AQ34" s="61"/>
+      <c r="AR34" s="61"/>
+      <c r="AS34" s="61"/>
+      <c r="AT34" s="61"/>
+      <c r="AU34" s="61"/>
+      <c r="AV34" s="61"/>
+      <c r="AW34" s="61"/>
+      <c r="AX34" s="61"/>
+      <c r="AY34" s="61"/>
+      <c r="AZ34" s="61"/>
+      <c r="BA34" s="61"/>
+      <c r="BB34" s="61"/>
+      <c r="BC34" s="61"/>
+      <c r="BD34" s="61"/>
+      <c r="BE34" s="61"/>
+      <c r="BF34" s="61"/>
+      <c r="BG34" s="61"/>
+    </row>
+    <row r="35" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K35" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="61"/>
+      <c r="U35" s="61"/>
+      <c r="V35" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="W35" s="61"/>
+      <c r="X35" s="61"/>
+      <c r="Y35" s="61"/>
+      <c r="Z35" s="61"/>
+      <c r="AA35" s="61"/>
+      <c r="AB35" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC35" s="61"/>
+      <c r="AD35" s="61"/>
+      <c r="AE35" s="61"/>
+      <c r="AF35" s="61"/>
+      <c r="AG35" s="61"/>
+      <c r="AH35" s="61"/>
+      <c r="AI35" s="61"/>
+      <c r="AJ35" s="61"/>
+      <c r="AK35" s="61"/>
+      <c r="AL35" s="61"/>
+      <c r="AM35" s="61"/>
+      <c r="AN35" s="61"/>
+      <c r="AO35" s="61"/>
+      <c r="AP35" s="61"/>
+      <c r="AQ35" s="61"/>
+      <c r="AR35" s="61"/>
+      <c r="AS35" s="61"/>
+      <c r="AT35" s="61"/>
+      <c r="AU35" s="61"/>
+      <c r="AV35" s="61"/>
+      <c r="AW35" s="61"/>
+      <c r="AX35" s="61"/>
+      <c r="AY35" s="61"/>
+      <c r="AZ35" s="61"/>
+      <c r="BA35" s="61"/>
+      <c r="BB35" s="61"/>
+      <c r="BC35" s="61"/>
+      <c r="BD35" s="61"/>
+      <c r="BE35" s="61"/>
+      <c r="BF35" s="61"/>
+      <c r="BG35" s="61"/>
+    </row>
+    <row r="36" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K36" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="61"/>
+      <c r="Z36" s="61"/>
+      <c r="AA36" s="61"/>
+      <c r="AB36" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC36" s="61"/>
+      <c r="AD36" s="61"/>
+      <c r="AE36" s="61"/>
+      <c r="AF36" s="61"/>
+      <c r="AG36" s="61"/>
+      <c r="AH36" s="61"/>
+      <c r="AI36" s="61"/>
+      <c r="AJ36" s="61"/>
+      <c r="AK36" s="61"/>
+      <c r="AL36" s="61"/>
+      <c r="AM36" s="61"/>
+      <c r="AN36" s="61"/>
+      <c r="AO36" s="61"/>
+      <c r="AP36" s="61"/>
+      <c r="AQ36" s="61"/>
+      <c r="AR36" s="61"/>
+      <c r="AS36" s="61"/>
+      <c r="AT36" s="61"/>
+      <c r="AU36" s="61"/>
+      <c r="AV36" s="61"/>
+      <c r="AW36" s="61"/>
+      <c r="AX36" s="61"/>
+      <c r="AY36" s="61"/>
+      <c r="AZ36" s="61"/>
+      <c r="BA36" s="61"/>
+      <c r="BB36" s="61"/>
+      <c r="BC36" s="61"/>
+      <c r="BD36" s="61"/>
+      <c r="BE36" s="61"/>
+      <c r="BF36" s="61"/>
+      <c r="BG36" s="61"/>
+    </row>
+    <row r="37" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K37" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="W37" s="61"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="61"/>
+      <c r="Z37" s="61"/>
+      <c r="AA37" s="61"/>
+      <c r="AB37" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC37" s="61"/>
+      <c r="AD37" s="61"/>
+      <c r="AE37" s="61"/>
+      <c r="AF37" s="61"/>
+      <c r="AG37" s="61"/>
+      <c r="AH37" s="61"/>
+      <c r="AI37" s="61"/>
+      <c r="AJ37" s="61"/>
+      <c r="AK37" s="61"/>
+      <c r="AL37" s="61"/>
+      <c r="AM37" s="61"/>
+      <c r="AN37" s="61"/>
+      <c r="AO37" s="61"/>
+      <c r="AP37" s="61"/>
+      <c r="AQ37" s="61"/>
+      <c r="AR37" s="61"/>
+      <c r="AS37" s="61"/>
+      <c r="AT37" s="61"/>
+      <c r="AU37" s="61"/>
+      <c r="AV37" s="61"/>
+      <c r="AW37" s="61"/>
+      <c r="AX37" s="61"/>
+      <c r="AY37" s="61"/>
+      <c r="AZ37" s="61"/>
+      <c r="BA37" s="61"/>
+      <c r="BB37" s="61"/>
+      <c r="BC37" s="61"/>
+      <c r="BD37" s="61"/>
+      <c r="BE37" s="61"/>
+      <c r="BF37" s="61"/>
+      <c r="BG37" s="61"/>
+    </row>
+    <row r="38" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K38" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="61"/>
+      <c r="U38" s="61"/>
+      <c r="V38" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="W38" s="61"/>
+      <c r="X38" s="61"/>
+      <c r="Y38" s="61"/>
+      <c r="Z38" s="61"/>
+      <c r="AA38" s="61"/>
+      <c r="AB38" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC38" s="61"/>
+      <c r="AD38" s="61"/>
+      <c r="AE38" s="61"/>
+      <c r="AF38" s="61"/>
+      <c r="AG38" s="61"/>
+      <c r="AH38" s="61"/>
+      <c r="AI38" s="61"/>
+      <c r="AJ38" s="61"/>
+      <c r="AK38" s="61"/>
+      <c r="AL38" s="61"/>
+      <c r="AM38" s="61"/>
+      <c r="AN38" s="61"/>
+      <c r="AO38" s="61"/>
+      <c r="AP38" s="61"/>
+      <c r="AQ38" s="61"/>
+      <c r="AR38" s="61"/>
+      <c r="AS38" s="61"/>
+      <c r="AT38" s="61"/>
+      <c r="AU38" s="61"/>
+      <c r="AV38" s="61"/>
+      <c r="AW38" s="61"/>
+      <c r="AX38" s="61"/>
+      <c r="AY38" s="61"/>
+      <c r="AZ38" s="61"/>
+      <c r="BA38" s="61"/>
+      <c r="BB38" s="61"/>
+      <c r="BC38" s="61"/>
+      <c r="BD38" s="61"/>
+      <c r="BE38" s="61"/>
+      <c r="BF38" s="61"/>
+      <c r="BG38" s="61"/>
+    </row>
+    <row r="39" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K39" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="61"/>
+      <c r="T39" s="61"/>
+      <c r="U39" s="61"/>
+      <c r="V39" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="W39" s="61"/>
+      <c r="X39" s="61"/>
+      <c r="Y39" s="61"/>
+      <c r="Z39" s="61"/>
+      <c r="AA39" s="61"/>
+      <c r="AB39" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC39" s="61"/>
+      <c r="AD39" s="61"/>
+      <c r="AE39" s="61"/>
+      <c r="AF39" s="61"/>
+      <c r="AG39" s="61"/>
+      <c r="AH39" s="61"/>
+      <c r="AI39" s="61"/>
+      <c r="AJ39" s="61"/>
+      <c r="AK39" s="61"/>
+      <c r="AL39" s="61"/>
+      <c r="AM39" s="61"/>
+      <c r="AN39" s="61"/>
+      <c r="AO39" s="61"/>
+      <c r="AP39" s="61"/>
+      <c r="AQ39" s="61"/>
+      <c r="AR39" s="61"/>
+      <c r="AS39" s="61"/>
+      <c r="AT39" s="61"/>
+      <c r="AU39" s="61"/>
+      <c r="AV39" s="61"/>
+      <c r="AW39" s="61"/>
+      <c r="AX39" s="61"/>
+      <c r="AY39" s="61"/>
+      <c r="AZ39" s="61"/>
+      <c r="BA39" s="61"/>
+      <c r="BB39" s="61"/>
+      <c r="BC39" s="61"/>
+      <c r="BD39" s="61"/>
+      <c r="BE39" s="61"/>
+      <c r="BF39" s="61"/>
+      <c r="BG39" s="61"/>
+    </row>
+    <row r="40" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K40" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="61"/>
+      <c r="U40" s="61"/>
+      <c r="V40" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="W40" s="61"/>
+      <c r="X40" s="61"/>
+      <c r="Y40" s="61"/>
+      <c r="Z40" s="61"/>
+      <c r="AA40" s="61"/>
+      <c r="AB40" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC40" s="61"/>
+      <c r="AD40" s="61"/>
+      <c r="AE40" s="61"/>
+      <c r="AF40" s="61"/>
+      <c r="AG40" s="61"/>
+      <c r="AH40" s="61"/>
+      <c r="AI40" s="61"/>
+      <c r="AJ40" s="61"/>
+      <c r="AK40" s="61"/>
+      <c r="AL40" s="61"/>
+      <c r="AM40" s="61"/>
+      <c r="AN40" s="61"/>
+      <c r="AO40" s="61"/>
+      <c r="AP40" s="61"/>
+      <c r="AQ40" s="61"/>
+      <c r="AR40" s="61"/>
+      <c r="AS40" s="61"/>
+      <c r="AT40" s="61"/>
+      <c r="AU40" s="61"/>
+      <c r="AV40" s="61"/>
+      <c r="AW40" s="61"/>
+      <c r="AX40" s="61"/>
+      <c r="AY40" s="61"/>
+      <c r="AZ40" s="61"/>
+      <c r="BA40" s="61"/>
+      <c r="BB40" s="61"/>
+      <c r="BC40" s="61"/>
+      <c r="BD40" s="61"/>
+      <c r="BE40" s="61"/>
+      <c r="BF40" s="61"/>
+      <c r="BG40" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="W19:AB19"/>
+    <mergeCell ref="AD27:AH27"/>
+    <mergeCell ref="K39:U39"/>
+    <mergeCell ref="V39:AA39"/>
+    <mergeCell ref="AB39:BG39"/>
+    <mergeCell ref="K40:U40"/>
+    <mergeCell ref="V40:AA40"/>
+    <mergeCell ref="AB40:BG40"/>
+    <mergeCell ref="K37:U37"/>
+    <mergeCell ref="V37:AA37"/>
+    <mergeCell ref="AB37:BG37"/>
+    <mergeCell ref="K38:U38"/>
+    <mergeCell ref="V38:AA38"/>
+    <mergeCell ref="AB38:BG38"/>
+    <mergeCell ref="K35:U35"/>
+    <mergeCell ref="V35:AA35"/>
+    <mergeCell ref="AB35:BG35"/>
+    <mergeCell ref="K36:U36"/>
+    <mergeCell ref="V36:AA36"/>
+    <mergeCell ref="AB36:BG36"/>
+    <mergeCell ref="K33:U33"/>
+    <mergeCell ref="V33:AA33"/>
+    <mergeCell ref="AB33:BG33"/>
+    <mergeCell ref="K34:U34"/>
+    <mergeCell ref="V34:AA34"/>
+    <mergeCell ref="AB34:BG34"/>
+    <mergeCell ref="K31:U31"/>
+    <mergeCell ref="V31:AA31"/>
+    <mergeCell ref="AB31:BG31"/>
+    <mergeCell ref="K32:U32"/>
+    <mergeCell ref="V32:AA32"/>
+    <mergeCell ref="AB32:BG32"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC4DEBB-D419-4BF2-A338-CC088E028D37}">
+  <dimension ref="B2:BG47"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27:AS30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="3.375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="C3" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="K7" s="4"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="17"/>
+    </row>
+    <row r="8" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="K8" s="6"/>
+      <c r="L8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="11"/>
+      <c r="AU8" s="18"/>
+    </row>
+    <row r="9" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="AS9" s="17"/>
+      <c r="AU9" s="18"/>
+    </row>
+    <row r="10" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="16"/>
+      <c r="Q10" s="26"/>
+      <c r="AC10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE10" s="26"/>
+      <c r="AS10" s="18"/>
+      <c r="AU10" s="18"/>
+    </row>
+    <row r="11" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="N11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="21"/>
+      <c r="AD11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE11" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="20"/>
+      <c r="AR11" s="21"/>
+      <c r="AS11" s="18"/>
+      <c r="AU11" s="18"/>
+    </row>
+    <row r="12" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="AS12" s="18"/>
+      <c r="AU12" s="18"/>
+    </row>
+    <row r="13" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS13" s="18"/>
+      <c r="AU13" s="18"/>
+    </row>
+    <row r="14" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="21"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="20"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="20"/>
+      <c r="AN14" s="20"/>
+      <c r="AO14" s="20"/>
+      <c r="AP14" s="20"/>
+      <c r="AQ14" s="20"/>
+      <c r="AR14" s="21"/>
+      <c r="AS14" s="18"/>
+      <c r="AU14" s="18"/>
+    </row>
+    <row r="15" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AS15" s="18"/>
+      <c r="AU15" s="18"/>
+    </row>
+    <row r="16" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="N16" s="16"/>
+      <c r="AC16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF16" s="16"/>
+      <c r="AS16" s="18"/>
+      <c r="AU16" s="18"/>
+    </row>
+    <row r="17" spans="11:47" x14ac:dyDescent="0.4">
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="21"/>
+      <c r="AD17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE17" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="20"/>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="29"/>
+      <c r="AN17" s="20"/>
+      <c r="AO17" s="20"/>
+      <c r="AP17" s="20"/>
+      <c r="AQ17" s="20"/>
+      <c r="AR17" s="21"/>
+      <c r="AS17" s="18"/>
+      <c r="AU17" s="18"/>
+    </row>
+    <row r="18" spans="11:47" x14ac:dyDescent="0.4">
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="AF18" s="16"/>
+      <c r="AS18" s="18"/>
+      <c r="AU18" s="18"/>
+    </row>
+    <row r="19" spans="11:47" x14ac:dyDescent="0.4">
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="N19" s="16"/>
+      <c r="AC19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF19" s="16"/>
+      <c r="AS19" s="18"/>
+      <c r="AU19" s="18"/>
+    </row>
+    <row r="20" spans="11:47" x14ac:dyDescent="0.4">
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="21"/>
+      <c r="AD20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE20" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="20"/>
+      <c r="AO20" s="20"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="20"/>
+      <c r="AR20" s="21"/>
+      <c r="AS20" s="18"/>
+      <c r="AU20" s="18"/>
+    </row>
+    <row r="21" spans="11:47" x14ac:dyDescent="0.4">
+      <c r="K21" s="6"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="11"/>
+      <c r="AP21" s="11"/>
+      <c r="AQ21" s="11"/>
+      <c r="AR21" s="11"/>
+      <c r="AS21" s="12"/>
+      <c r="AU21" s="18"/>
+    </row>
+    <row r="22" spans="11:47" x14ac:dyDescent="0.4">
+      <c r="K22" s="6"/>
+      <c r="AU22" s="18"/>
+    </row>
+    <row r="23" spans="11:47" x14ac:dyDescent="0.4">
+      <c r="K23" s="6"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ23" s="20"/>
+      <c r="AR23" s="21"/>
+      <c r="AU23" s="18"/>
+    </row>
+    <row r="24" spans="11:47" x14ac:dyDescent="0.4">
+      <c r="K24" s="6"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="AU24" s="18"/>
+    </row>
+    <row r="25" spans="11:47" x14ac:dyDescent="0.4">
+      <c r="K25" s="6"/>
+      <c r="L25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU25" s="18"/>
+    </row>
+    <row r="26" spans="11:47" x14ac:dyDescent="0.4">
+      <c r="K26" s="6"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AU26" s="18"/>
+    </row>
+    <row r="27" spans="11:47" x14ac:dyDescent="0.4">
+      <c r="K27" s="6"/>
+      <c r="L27" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="M27" s="66"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="66"/>
+      <c r="AB27" s="66"/>
+      <c r="AC27" s="67"/>
+      <c r="AD27" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE27" s="66"/>
+      <c r="AF27" s="66"/>
+      <c r="AG27" s="66"/>
+      <c r="AH27" s="66"/>
+      <c r="AI27" s="66"/>
+      <c r="AJ27" s="67"/>
+      <c r="AK27" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL27" s="66"/>
+      <c r="AM27" s="66"/>
+      <c r="AN27" s="66"/>
+      <c r="AO27" s="66"/>
+      <c r="AP27" s="66"/>
+      <c r="AQ27" s="66"/>
+      <c r="AR27" s="66"/>
+      <c r="AS27" s="67"/>
+      <c r="AU27" s="18"/>
+    </row>
+    <row r="28" spans="11:47" x14ac:dyDescent="0.4">
+      <c r="K28" s="6"/>
+      <c r="L28" s="68">
+        <v>1</v>
+      </c>
+      <c r="M28" s="69"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="X28" s="72"/>
+      <c r="Y28" s="72"/>
+      <c r="Z28" s="72"/>
+      <c r="AA28" s="72"/>
+      <c r="AB28" s="72"/>
+      <c r="AC28" s="73"/>
+      <c r="AD28" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE28" s="72"/>
+      <c r="AF28" s="72"/>
+      <c r="AG28" s="72"/>
+      <c r="AH28" s="72"/>
+      <c r="AI28" s="72"/>
+      <c r="AJ28" s="73"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="20"/>
+      <c r="AM28" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="20"/>
+      <c r="AP28" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ28" s="20"/>
+      <c r="AR28" s="20"/>
+      <c r="AS28" s="21"/>
+      <c r="AU28" s="18"/>
+    </row>
+    <row r="29" spans="11:47" x14ac:dyDescent="0.4">
+      <c r="K29" s="6"/>
+      <c r="L29" s="68">
+        <v>2</v>
+      </c>
+      <c r="M29" s="69"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="73"/>
+      <c r="AD29" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="72"/>
+      <c r="AG29" s="72"/>
+      <c r="AH29" s="72"/>
+      <c r="AI29" s="72"/>
+      <c r="AJ29" s="73"/>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="20"/>
+      <c r="AM29" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN29" s="20"/>
+      <c r="AO29" s="20"/>
+      <c r="AP29" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ29" s="20"/>
+      <c r="AR29" s="20"/>
+      <c r="AS29" s="21"/>
+      <c r="AU29" s="18"/>
+    </row>
+    <row r="30" spans="11:47" x14ac:dyDescent="0.4">
+      <c r="K30" s="6"/>
+      <c r="L30" s="68">
+        <v>3</v>
+      </c>
+      <c r="M30" s="69"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="73"/>
+      <c r="W30" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="X30" s="72"/>
+      <c r="Y30" s="72"/>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="72"/>
+      <c r="AB30" s="72"/>
+      <c r="AC30" s="73"/>
+      <c r="AD30" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE30" s="72"/>
+      <c r="AF30" s="72"/>
+      <c r="AG30" s="72"/>
+      <c r="AH30" s="72"/>
+      <c r="AI30" s="72"/>
+      <c r="AJ30" s="73"/>
+      <c r="AK30" s="19"/>
+      <c r="AL30" s="20"/>
+      <c r="AM30" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN30" s="20"/>
+      <c r="AO30" s="20"/>
+      <c r="AP30" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ30" s="20"/>
+      <c r="AR30" s="20"/>
+      <c r="AS30" s="21"/>
+      <c r="AU30" s="18"/>
+    </row>
+    <row r="31" spans="11:47" x14ac:dyDescent="0.4">
+      <c r="K31" s="6"/>
+      <c r="AU31" s="18"/>
+    </row>
+    <row r="32" spans="11:47" x14ac:dyDescent="0.4">
+      <c r="K32" s="6"/>
+      <c r="AO32" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP32" s="66"/>
+      <c r="AQ32" s="66"/>
+      <c r="AR32" s="67"/>
+      <c r="AU32" s="18"/>
+    </row>
+    <row r="33" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K33" s="6"/>
+      <c r="AU33" s="18"/>
+    </row>
+    <row r="34" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K34" s="13"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="11"/>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="11"/>
+      <c r="AP34" s="11"/>
+      <c r="AQ34" s="11"/>
+      <c r="AR34" s="11"/>
+      <c r="AS34" s="11"/>
+      <c r="AT34" s="11"/>
+      <c r="AU34" s="12"/>
+    </row>
+    <row r="36" spans="11:59" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K37" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="60"/>
+      <c r="V37" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="W37" s="60"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="60"/>
+      <c r="AA37" s="60"/>
+      <c r="AB37" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC37" s="60"/>
+      <c r="AD37" s="60"/>
+      <c r="AE37" s="60"/>
+      <c r="AF37" s="60"/>
+      <c r="AG37" s="60"/>
+      <c r="AH37" s="60"/>
+      <c r="AI37" s="60"/>
+      <c r="AJ37" s="60"/>
+      <c r="AK37" s="60"/>
+      <c r="AL37" s="60"/>
+      <c r="AM37" s="60"/>
+      <c r="AN37" s="60"/>
+      <c r="AO37" s="60"/>
+      <c r="AP37" s="60"/>
+      <c r="AQ37" s="60"/>
+      <c r="AR37" s="60"/>
+      <c r="AS37" s="60"/>
+      <c r="AT37" s="60"/>
+      <c r="AU37" s="60"/>
+      <c r="AV37" s="60"/>
+      <c r="AW37" s="60"/>
+      <c r="AX37" s="60"/>
+      <c r="AY37" s="60"/>
+      <c r="AZ37" s="60"/>
+      <c r="BA37" s="60"/>
+      <c r="BB37" s="60"/>
+      <c r="BC37" s="60"/>
+      <c r="BD37" s="60"/>
+      <c r="BE37" s="60"/>
+      <c r="BF37" s="60"/>
+      <c r="BG37" s="60"/>
+    </row>
+    <row r="38" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K38" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="61"/>
+      <c r="U38" s="61"/>
+      <c r="V38" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="W38" s="61"/>
+      <c r="X38" s="61"/>
+      <c r="Y38" s="61"/>
+      <c r="Z38" s="61"/>
+      <c r="AA38" s="61"/>
+      <c r="AB38" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC38" s="61"/>
+      <c r="AD38" s="61"/>
+      <c r="AE38" s="61"/>
+      <c r="AF38" s="61"/>
+      <c r="AG38" s="61"/>
+      <c r="AH38" s="61"/>
+      <c r="AI38" s="61"/>
+      <c r="AJ38" s="61"/>
+      <c r="AK38" s="61"/>
+      <c r="AL38" s="61"/>
+      <c r="AM38" s="61"/>
+      <c r="AN38" s="61"/>
+      <c r="AO38" s="61"/>
+      <c r="AP38" s="61"/>
+      <c r="AQ38" s="61"/>
+      <c r="AR38" s="61"/>
+      <c r="AS38" s="61"/>
+      <c r="AT38" s="61"/>
+      <c r="AU38" s="61"/>
+      <c r="AV38" s="61"/>
+      <c r="AW38" s="61"/>
+      <c r="AX38" s="61"/>
+      <c r="AY38" s="61"/>
+      <c r="AZ38" s="61"/>
+      <c r="BA38" s="61"/>
+      <c r="BB38" s="61"/>
+      <c r="BC38" s="61"/>
+      <c r="BD38" s="61"/>
+      <c r="BE38" s="61"/>
+      <c r="BF38" s="61"/>
+      <c r="BG38" s="61"/>
+    </row>
+    <row r="39" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K39" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="61"/>
+      <c r="T39" s="61"/>
+      <c r="U39" s="61"/>
+      <c r="V39" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="W39" s="61"/>
+      <c r="X39" s="61"/>
+      <c r="Y39" s="61"/>
+      <c r="Z39" s="61"/>
+      <c r="AA39" s="61"/>
+      <c r="AB39" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC39" s="61"/>
+      <c r="AD39" s="61"/>
+      <c r="AE39" s="61"/>
+      <c r="AF39" s="61"/>
+      <c r="AG39" s="61"/>
+      <c r="AH39" s="61"/>
+      <c r="AI39" s="61"/>
+      <c r="AJ39" s="61"/>
+      <c r="AK39" s="61"/>
+      <c r="AL39" s="61"/>
+      <c r="AM39" s="61"/>
+      <c r="AN39" s="61"/>
+      <c r="AO39" s="61"/>
+      <c r="AP39" s="61"/>
+      <c r="AQ39" s="61"/>
+      <c r="AR39" s="61"/>
+      <c r="AS39" s="61"/>
+      <c r="AT39" s="61"/>
+      <c r="AU39" s="61"/>
+      <c r="AV39" s="61"/>
+      <c r="AW39" s="61"/>
+      <c r="AX39" s="61"/>
+      <c r="AY39" s="61"/>
+      <c r="AZ39" s="61"/>
+      <c r="BA39" s="61"/>
+      <c r="BB39" s="61"/>
+      <c r="BC39" s="61"/>
+      <c r="BD39" s="61"/>
+      <c r="BE39" s="61"/>
+      <c r="BF39" s="61"/>
+      <c r="BG39" s="61"/>
+    </row>
+    <row r="40" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K40" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="61"/>
+      <c r="U40" s="61"/>
+      <c r="V40" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="W40" s="61"/>
+      <c r="X40" s="61"/>
+      <c r="Y40" s="61"/>
+      <c r="Z40" s="61"/>
+      <c r="AA40" s="61"/>
+      <c r="AB40" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC40" s="61"/>
+      <c r="AD40" s="61"/>
+      <c r="AE40" s="61"/>
+      <c r="AF40" s="61"/>
+      <c r="AG40" s="61"/>
+      <c r="AH40" s="61"/>
+      <c r="AI40" s="61"/>
+      <c r="AJ40" s="61"/>
+      <c r="AK40" s="61"/>
+      <c r="AL40" s="61"/>
+      <c r="AM40" s="61"/>
+      <c r="AN40" s="61"/>
+      <c r="AO40" s="61"/>
+      <c r="AP40" s="61"/>
+      <c r="AQ40" s="61"/>
+      <c r="AR40" s="61"/>
+      <c r="AS40" s="61"/>
+      <c r="AT40" s="61"/>
+      <c r="AU40" s="61"/>
+      <c r="AV40" s="61"/>
+      <c r="AW40" s="61"/>
+      <c r="AX40" s="61"/>
+      <c r="AY40" s="61"/>
+      <c r="AZ40" s="61"/>
+      <c r="BA40" s="61"/>
+      <c r="BB40" s="61"/>
+      <c r="BC40" s="61"/>
+      <c r="BD40" s="61"/>
+      <c r="BE40" s="61"/>
+      <c r="BF40" s="61"/>
+      <c r="BG40" s="61"/>
+    </row>
+    <row r="41" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K41" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="61"/>
+      <c r="R41" s="61"/>
+      <c r="S41" s="61"/>
+      <c r="T41" s="61"/>
+      <c r="U41" s="61"/>
+      <c r="V41" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="W41" s="61"/>
+      <c r="X41" s="61"/>
+      <c r="Y41" s="61"/>
+      <c r="Z41" s="61"/>
+      <c r="AA41" s="61"/>
+      <c r="AB41" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC41" s="61"/>
+      <c r="AD41" s="61"/>
+      <c r="AE41" s="61"/>
+      <c r="AF41" s="61"/>
+      <c r="AG41" s="61"/>
+      <c r="AH41" s="61"/>
+      <c r="AI41" s="61"/>
+      <c r="AJ41" s="61"/>
+      <c r="AK41" s="61"/>
+      <c r="AL41" s="61"/>
+      <c r="AM41" s="61"/>
+      <c r="AN41" s="61"/>
+      <c r="AO41" s="61"/>
+      <c r="AP41" s="61"/>
+      <c r="AQ41" s="61"/>
+      <c r="AR41" s="61"/>
+      <c r="AS41" s="61"/>
+      <c r="AT41" s="61"/>
+      <c r="AU41" s="61"/>
+      <c r="AV41" s="61"/>
+      <c r="AW41" s="61"/>
+      <c r="AX41" s="61"/>
+      <c r="AY41" s="61"/>
+      <c r="AZ41" s="61"/>
+      <c r="BA41" s="61"/>
+      <c r="BB41" s="61"/>
+      <c r="BC41" s="61"/>
+      <c r="BD41" s="61"/>
+      <c r="BE41" s="61"/>
+      <c r="BF41" s="61"/>
+      <c r="BG41" s="61"/>
+    </row>
+    <row r="42" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K42" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="61"/>
+      <c r="S42" s="61"/>
+      <c r="T42" s="61"/>
+      <c r="U42" s="61"/>
+      <c r="V42" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="W42" s="61"/>
+      <c r="X42" s="61"/>
+      <c r="Y42" s="61"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="61"/>
+      <c r="AB42" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC42" s="61"/>
+      <c r="AD42" s="61"/>
+      <c r="AE42" s="61"/>
+      <c r="AF42" s="61"/>
+      <c r="AG42" s="61"/>
+      <c r="AH42" s="61"/>
+      <c r="AI42" s="61"/>
+      <c r="AJ42" s="61"/>
+      <c r="AK42" s="61"/>
+      <c r="AL42" s="61"/>
+      <c r="AM42" s="61"/>
+      <c r="AN42" s="61"/>
+      <c r="AO42" s="61"/>
+      <c r="AP42" s="61"/>
+      <c r="AQ42" s="61"/>
+      <c r="AR42" s="61"/>
+      <c r="AS42" s="61"/>
+      <c r="AT42" s="61"/>
+      <c r="AU42" s="61"/>
+      <c r="AV42" s="61"/>
+      <c r="AW42" s="61"/>
+      <c r="AX42" s="61"/>
+      <c r="AY42" s="61"/>
+      <c r="AZ42" s="61"/>
+      <c r="BA42" s="61"/>
+      <c r="BB42" s="61"/>
+      <c r="BC42" s="61"/>
+      <c r="BD42" s="61"/>
+      <c r="BE42" s="61"/>
+      <c r="BF42" s="61"/>
+      <c r="BG42" s="61"/>
+    </row>
+    <row r="43" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K43" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="61"/>
+      <c r="R43" s="61"/>
+      <c r="S43" s="61"/>
+      <c r="T43" s="61"/>
+      <c r="U43" s="61"/>
+      <c r="V43" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="W43" s="61"/>
+      <c r="X43" s="61"/>
+      <c r="Y43" s="61"/>
+      <c r="Z43" s="61"/>
+      <c r="AA43" s="61"/>
+      <c r="AB43" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC43" s="61"/>
+      <c r="AD43" s="61"/>
+      <c r="AE43" s="61"/>
+      <c r="AF43" s="61"/>
+      <c r="AG43" s="61"/>
+      <c r="AH43" s="61"/>
+      <c r="AI43" s="61"/>
+      <c r="AJ43" s="61"/>
+      <c r="AK43" s="61"/>
+      <c r="AL43" s="61"/>
+      <c r="AM43" s="61"/>
+      <c r="AN43" s="61"/>
+      <c r="AO43" s="61"/>
+      <c r="AP43" s="61"/>
+      <c r="AQ43" s="61"/>
+      <c r="AR43" s="61"/>
+      <c r="AS43" s="61"/>
+      <c r="AT43" s="61"/>
+      <c r="AU43" s="61"/>
+      <c r="AV43" s="61"/>
+      <c r="AW43" s="61"/>
+      <c r="AX43" s="61"/>
+      <c r="AY43" s="61"/>
+      <c r="AZ43" s="61"/>
+      <c r="BA43" s="61"/>
+      <c r="BB43" s="61"/>
+      <c r="BC43" s="61"/>
+      <c r="BD43" s="61"/>
+      <c r="BE43" s="61"/>
+      <c r="BF43" s="61"/>
+      <c r="BG43" s="61"/>
+    </row>
+    <row r="44" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K44" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="61"/>
+      <c r="S44" s="61"/>
+      <c r="T44" s="61"/>
+      <c r="U44" s="61"/>
+      <c r="V44" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="W44" s="61"/>
+      <c r="X44" s="61"/>
+      <c r="Y44" s="61"/>
+      <c r="Z44" s="61"/>
+      <c r="AA44" s="61"/>
+      <c r="AB44" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC44" s="61"/>
+      <c r="AD44" s="61"/>
+      <c r="AE44" s="61"/>
+      <c r="AF44" s="61"/>
+      <c r="AG44" s="61"/>
+      <c r="AH44" s="61"/>
+      <c r="AI44" s="61"/>
+      <c r="AJ44" s="61"/>
+      <c r="AK44" s="61"/>
+      <c r="AL44" s="61"/>
+      <c r="AM44" s="61"/>
+      <c r="AN44" s="61"/>
+      <c r="AO44" s="61"/>
+      <c r="AP44" s="61"/>
+      <c r="AQ44" s="61"/>
+      <c r="AR44" s="61"/>
+      <c r="AS44" s="61"/>
+      <c r="AT44" s="61"/>
+      <c r="AU44" s="61"/>
+      <c r="AV44" s="61"/>
+      <c r="AW44" s="61"/>
+      <c r="AX44" s="61"/>
+      <c r="AY44" s="61"/>
+      <c r="AZ44" s="61"/>
+      <c r="BA44" s="61"/>
+      <c r="BB44" s="61"/>
+      <c r="BC44" s="61"/>
+      <c r="BD44" s="61"/>
+      <c r="BE44" s="61"/>
+      <c r="BF44" s="61"/>
+      <c r="BG44" s="61"/>
+    </row>
+    <row r="45" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K45" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="61"/>
+      <c r="S45" s="61"/>
+      <c r="T45" s="61"/>
+      <c r="U45" s="61"/>
+      <c r="V45" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="W45" s="61"/>
+      <c r="X45" s="61"/>
+      <c r="Y45" s="61"/>
+      <c r="Z45" s="61"/>
+      <c r="AA45" s="61"/>
+      <c r="AB45" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC45" s="61"/>
+      <c r="AD45" s="61"/>
+      <c r="AE45" s="61"/>
+      <c r="AF45" s="61"/>
+      <c r="AG45" s="61"/>
+      <c r="AH45" s="61"/>
+      <c r="AI45" s="61"/>
+      <c r="AJ45" s="61"/>
+      <c r="AK45" s="61"/>
+      <c r="AL45" s="61"/>
+      <c r="AM45" s="61"/>
+      <c r="AN45" s="61"/>
+      <c r="AO45" s="61"/>
+      <c r="AP45" s="61"/>
+      <c r="AQ45" s="61"/>
+      <c r="AR45" s="61"/>
+      <c r="AS45" s="61"/>
+      <c r="AT45" s="61"/>
+      <c r="AU45" s="61"/>
+      <c r="AV45" s="61"/>
+      <c r="AW45" s="61"/>
+      <c r="AX45" s="61"/>
+      <c r="AY45" s="61"/>
+      <c r="AZ45" s="61"/>
+      <c r="BA45" s="61"/>
+      <c r="BB45" s="61"/>
+      <c r="BC45" s="61"/>
+      <c r="BD45" s="61"/>
+      <c r="BE45" s="61"/>
+      <c r="BF45" s="61"/>
+      <c r="BG45" s="61"/>
+    </row>
+    <row r="46" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K46" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="61"/>
+      <c r="S46" s="61"/>
+      <c r="T46" s="61"/>
+      <c r="U46" s="61"/>
+      <c r="V46" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="W46" s="61"/>
+      <c r="X46" s="61"/>
+      <c r="Y46" s="61"/>
+      <c r="Z46" s="61"/>
+      <c r="AA46" s="61"/>
+      <c r="AB46" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC46" s="61"/>
+      <c r="AD46" s="61"/>
+      <c r="AE46" s="61"/>
+      <c r="AF46" s="61"/>
+      <c r="AG46" s="61"/>
+      <c r="AH46" s="61"/>
+      <c r="AI46" s="61"/>
+      <c r="AJ46" s="61"/>
+      <c r="AK46" s="61"/>
+      <c r="AL46" s="61"/>
+      <c r="AM46" s="61"/>
+      <c r="AN46" s="61"/>
+      <c r="AO46" s="61"/>
+      <c r="AP46" s="61"/>
+      <c r="AQ46" s="61"/>
+      <c r="AR46" s="61"/>
+      <c r="AS46" s="61"/>
+      <c r="AT46" s="61"/>
+      <c r="AU46" s="61"/>
+      <c r="AV46" s="61"/>
+      <c r="AW46" s="61"/>
+      <c r="AX46" s="61"/>
+      <c r="AY46" s="61"/>
+      <c r="AZ46" s="61"/>
+      <c r="BA46" s="61"/>
+      <c r="BB46" s="61"/>
+      <c r="BC46" s="61"/>
+      <c r="BD46" s="61"/>
+      <c r="BE46" s="61"/>
+      <c r="BF46" s="61"/>
+      <c r="BG46" s="61"/>
+    </row>
+    <row r="47" spans="11:59" x14ac:dyDescent="0.4">
+      <c r="K47" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="61"/>
+      <c r="R47" s="61"/>
+      <c r="S47" s="61"/>
+      <c r="T47" s="61"/>
+      <c r="U47" s="61"/>
+      <c r="V47" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="W47" s="61"/>
+      <c r="X47" s="61"/>
+      <c r="Y47" s="61"/>
+      <c r="Z47" s="61"/>
+      <c r="AA47" s="61"/>
+      <c r="AB47" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC47" s="61"/>
+      <c r="AD47" s="61"/>
+      <c r="AE47" s="61"/>
+      <c r="AF47" s="61"/>
+      <c r="AG47" s="61"/>
+      <c r="AH47" s="61"/>
+      <c r="AI47" s="61"/>
+      <c r="AJ47" s="61"/>
+      <c r="AK47" s="61"/>
+      <c r="AL47" s="61"/>
+      <c r="AM47" s="61"/>
+      <c r="AN47" s="61"/>
+      <c r="AO47" s="61"/>
+      <c r="AP47" s="61"/>
+      <c r="AQ47" s="61"/>
+      <c r="AR47" s="61"/>
+      <c r="AS47" s="61"/>
+      <c r="AT47" s="61"/>
+      <c r="AU47" s="61"/>
+      <c r="AV47" s="61"/>
+      <c r="AW47" s="61"/>
+      <c r="AX47" s="61"/>
+      <c r="AY47" s="61"/>
+      <c r="AZ47" s="61"/>
+      <c r="BA47" s="61"/>
+      <c r="BB47" s="61"/>
+      <c r="BC47" s="61"/>
+      <c r="BD47" s="61"/>
+      <c r="BE47" s="61"/>
+      <c r="BF47" s="61"/>
+      <c r="BG47" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:V28"/>
+    <mergeCell ref="W28:AC28"/>
+    <mergeCell ref="AD28:AJ28"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:V27"/>
+    <mergeCell ref="W27:AC27"/>
+    <mergeCell ref="AD27:AJ27"/>
+    <mergeCell ref="AK27:AS27"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O29:V29"/>
+    <mergeCell ref="W29:AC29"/>
+    <mergeCell ref="AD29:AJ29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:V30"/>
+    <mergeCell ref="W30:AC30"/>
+    <mergeCell ref="AD30:AJ30"/>
+    <mergeCell ref="AO32:AR32"/>
+    <mergeCell ref="K37:U37"/>
+    <mergeCell ref="V37:AA37"/>
+    <mergeCell ref="AB37:BG37"/>
+    <mergeCell ref="K38:U38"/>
+    <mergeCell ref="V38:AA38"/>
+    <mergeCell ref="AB38:BG38"/>
+    <mergeCell ref="K39:U39"/>
+    <mergeCell ref="V39:AA39"/>
+    <mergeCell ref="AB39:BG39"/>
+    <mergeCell ref="K40:U40"/>
+    <mergeCell ref="V40:AA40"/>
+    <mergeCell ref="AB40:BG40"/>
+    <mergeCell ref="K41:U41"/>
+    <mergeCell ref="V41:AA41"/>
+    <mergeCell ref="AB41:BG41"/>
+    <mergeCell ref="K42:U42"/>
+    <mergeCell ref="V42:AA42"/>
+    <mergeCell ref="AB42:BG42"/>
+    <mergeCell ref="K46:U46"/>
+    <mergeCell ref="V46:AA46"/>
+    <mergeCell ref="AB46:BG46"/>
+    <mergeCell ref="K47:U47"/>
+    <mergeCell ref="V47:AA47"/>
+    <mergeCell ref="AB47:BG47"/>
+    <mergeCell ref="K45:U45"/>
+    <mergeCell ref="V45:AA45"/>
+    <mergeCell ref="AB45:BG45"/>
+    <mergeCell ref="K43:U43"/>
+    <mergeCell ref="V43:AA43"/>
+    <mergeCell ref="AB43:BG43"/>
+    <mergeCell ref="K44:U44"/>
+    <mergeCell ref="V44:AA44"/>
+    <mergeCell ref="AB44:BG44"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC044CB-6464-49BD-A201-F4E8BD3B0087}">
+  <dimension ref="B2:BG41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB42" sqref="AB42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="3.375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="C3" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="K7" s="4"/>
+      <c r="L7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="5"/>
+    </row>
+    <row r="8" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="K8" s="4"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="5"/>
+    </row>
+    <row r="9" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="K9" s="6"/>
+      <c r="L9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU9" s="7"/>
+    </row>
+    <row r="10" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="K10" s="6"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="21"/>
+      <c r="AU10" s="7"/>
+    </row>
+    <row r="11" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="K11" s="6"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="AU11" s="7"/>
+    </row>
+    <row r="12" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="K12" s="6"/>
+      <c r="L12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU12" s="7"/>
+    </row>
+    <row r="13" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="K13" s="6"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="21"/>
+      <c r="AU13" s="7"/>
+    </row>
+    <row r="14" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="K14" s="6"/>
+      <c r="AU14" s="7"/>
+    </row>
+    <row r="15" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="K15" s="6"/>
+      <c r="L15" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="AU15" s="7"/>
     </row>
@@ -6213,77 +8616,22 @@
     </row>
     <row r="18" spans="11:47" x14ac:dyDescent="0.4">
       <c r="K18" s="6"/>
-      <c r="L18" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="AU18" s="7"/>
     </row>
     <row r="19" spans="11:47" x14ac:dyDescent="0.4">
       <c r="K19" s="6"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="21"/>
       <c r="AU19" s="7"/>
     </row>
     <row r="20" spans="11:47" x14ac:dyDescent="0.4">
       <c r="K20" s="6"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
       <c r="AU20" s="7"/>
     </row>
     <row r="21" spans="11:47" x14ac:dyDescent="0.4">
       <c r="K21" s="6"/>
-      <c r="L21" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="AU21" s="7"/>
     </row>
     <row r="22" spans="11:47" x14ac:dyDescent="0.4">
       <c r="K22" s="6"/>
-      <c r="M22" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="21"/>
-      <c r="T22" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="U22" s="55"/>
-      <c r="W22" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="21"/>
       <c r="AU22" s="7"/>
     </row>
     <row r="23" spans="11:47" x14ac:dyDescent="0.4">
@@ -6292,30 +8640,10 @@
     </row>
     <row r="24" spans="11:47" x14ac:dyDescent="0.4">
       <c r="K24" s="6"/>
-      <c r="L24" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="AU24" s="7"/>
     </row>
     <row r="25" spans="11:47" x14ac:dyDescent="0.4">
       <c r="K25" s="6"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="21"/>
-      <c r="AB25" s="30" t="s">
-        <v>126</v>
-      </c>
       <c r="AU25" s="7"/>
     </row>
     <row r="26" spans="11:47" x14ac:dyDescent="0.4">
@@ -6324,33 +8652,10 @@
     </row>
     <row r="27" spans="11:47" x14ac:dyDescent="0.4">
       <c r="K27" s="6"/>
-      <c r="L27" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="AU27" s="7"/>
     </row>
     <row r="28" spans="11:47" x14ac:dyDescent="0.4">
       <c r="K28" s="6"/>
-      <c r="M28" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="N28" s="74"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="75"/>
-      <c r="T28" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="U28" s="55"/>
-      <c r="W28" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="X28" s="77"/>
-      <c r="Y28" s="77"/>
-      <c r="Z28" s="77"/>
-      <c r="AA28" s="77"/>
-      <c r="AB28" s="78"/>
       <c r="AU28" s="7"/>
     </row>
     <row r="29" spans="11:47" x14ac:dyDescent="0.4">
@@ -6374,13 +8679,13 @@
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
       <c r="AB32" s="21"/>
-      <c r="AD32" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE32" s="65"/>
-      <c r="AF32" s="65"/>
-      <c r="AG32" s="65"/>
-      <c r="AH32" s="66"/>
+      <c r="AD32" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE32" s="66"/>
+      <c r="AF32" s="66"/>
+      <c r="AG32" s="66"/>
+      <c r="AH32" s="67"/>
       <c r="AU32" s="7"/>
     </row>
     <row r="33" spans="11:59" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -6481,2745 +8786,296 @@
       <c r="BG36" s="60"/>
     </row>
     <row r="37" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K37" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31" t="s">
+      <c r="K37" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="31"/>
-      <c r="AB37" s="31" t="s">
+      <c r="W37" s="61"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="61"/>
+      <c r="Z37" s="61"/>
+      <c r="AA37" s="61"/>
+      <c r="AB37" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="AC37" s="31"/>
-      <c r="AD37" s="31"/>
-      <c r="AE37" s="31"/>
-      <c r="AF37" s="31"/>
-      <c r="AG37" s="31"/>
-      <c r="AH37" s="31"/>
-      <c r="AI37" s="31"/>
-      <c r="AJ37" s="31"/>
-      <c r="AK37" s="31"/>
-      <c r="AL37" s="31"/>
-      <c r="AM37" s="31"/>
-      <c r="AN37" s="31"/>
-      <c r="AO37" s="31"/>
-      <c r="AP37" s="31"/>
-      <c r="AQ37" s="31"/>
-      <c r="AR37" s="31"/>
-      <c r="AS37" s="31"/>
-      <c r="AT37" s="31"/>
-      <c r="AU37" s="31"/>
-      <c r="AV37" s="31"/>
-      <c r="AW37" s="31"/>
-      <c r="AX37" s="31"/>
-      <c r="AY37" s="31"/>
-      <c r="AZ37" s="31"/>
-      <c r="BA37" s="31"/>
-      <c r="BB37" s="31"/>
-      <c r="BC37" s="31"/>
-      <c r="BD37" s="31"/>
-      <c r="BE37" s="31"/>
-      <c r="BF37" s="31"/>
-      <c r="BG37" s="31"/>
+      <c r="AC37" s="61"/>
+      <c r="AD37" s="61"/>
+      <c r="AE37" s="61"/>
+      <c r="AF37" s="61"/>
+      <c r="AG37" s="61"/>
+      <c r="AH37" s="61"/>
+      <c r="AI37" s="61"/>
+      <c r="AJ37" s="61"/>
+      <c r="AK37" s="61"/>
+      <c r="AL37" s="61"/>
+      <c r="AM37" s="61"/>
+      <c r="AN37" s="61"/>
+      <c r="AO37" s="61"/>
+      <c r="AP37" s="61"/>
+      <c r="AQ37" s="61"/>
+      <c r="AR37" s="61"/>
+      <c r="AS37" s="61"/>
+      <c r="AT37" s="61"/>
+      <c r="AU37" s="61"/>
+      <c r="AV37" s="61"/>
+      <c r="AW37" s="61"/>
+      <c r="AX37" s="61"/>
+      <c r="AY37" s="61"/>
+      <c r="AZ37" s="61"/>
+      <c r="BA37" s="61"/>
+      <c r="BB37" s="61"/>
+      <c r="BC37" s="61"/>
+      <c r="BD37" s="61"/>
+      <c r="BE37" s="61"/>
+      <c r="BF37" s="61"/>
+      <c r="BG37" s="61"/>
     </row>
     <row r="38" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K38" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31" t="s">
+      <c r="K38" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="61"/>
+      <c r="U38" s="61"/>
+      <c r="V38" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31" t="s">
+      <c r="W38" s="61"/>
+      <c r="X38" s="61"/>
+      <c r="Y38" s="61"/>
+      <c r="Z38" s="61"/>
+      <c r="AA38" s="61"/>
+      <c r="AB38" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="AC38" s="31"/>
-      <c r="AD38" s="31"/>
-      <c r="AE38" s="31"/>
-      <c r="AF38" s="31"/>
-      <c r="AG38" s="31"/>
-      <c r="AH38" s="31"/>
-      <c r="AI38" s="31"/>
-      <c r="AJ38" s="31"/>
-      <c r="AK38" s="31"/>
-      <c r="AL38" s="31"/>
-      <c r="AM38" s="31"/>
-      <c r="AN38" s="31"/>
-      <c r="AO38" s="31"/>
-      <c r="AP38" s="31"/>
-      <c r="AQ38" s="31"/>
-      <c r="AR38" s="31"/>
-      <c r="AS38" s="31"/>
-      <c r="AT38" s="31"/>
-      <c r="AU38" s="31"/>
-      <c r="AV38" s="31"/>
-      <c r="AW38" s="31"/>
-      <c r="AX38" s="31"/>
-      <c r="AY38" s="31"/>
-      <c r="AZ38" s="31"/>
-      <c r="BA38" s="31"/>
-      <c r="BB38" s="31"/>
-      <c r="BC38" s="31"/>
-      <c r="BD38" s="31"/>
-      <c r="BE38" s="31"/>
-      <c r="BF38" s="31"/>
-      <c r="BG38" s="31"/>
+      <c r="AC38" s="61"/>
+      <c r="AD38" s="61"/>
+      <c r="AE38" s="61"/>
+      <c r="AF38" s="61"/>
+      <c r="AG38" s="61"/>
+      <c r="AH38" s="61"/>
+      <c r="AI38" s="61"/>
+      <c r="AJ38" s="61"/>
+      <c r="AK38" s="61"/>
+      <c r="AL38" s="61"/>
+      <c r="AM38" s="61"/>
+      <c r="AN38" s="61"/>
+      <c r="AO38" s="61"/>
+      <c r="AP38" s="61"/>
+      <c r="AQ38" s="61"/>
+      <c r="AR38" s="61"/>
+      <c r="AS38" s="61"/>
+      <c r="AT38" s="61"/>
+      <c r="AU38" s="61"/>
+      <c r="AV38" s="61"/>
+      <c r="AW38" s="61"/>
+      <c r="AX38" s="61"/>
+      <c r="AY38" s="61"/>
+      <c r="AZ38" s="61"/>
+      <c r="BA38" s="61"/>
+      <c r="BB38" s="61"/>
+      <c r="BC38" s="61"/>
+      <c r="BD38" s="61"/>
+      <c r="BE38" s="61"/>
+      <c r="BF38" s="61"/>
+      <c r="BG38" s="61"/>
     </row>
     <row r="39" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K39" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31" t="s">
+      <c r="K39" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="61"/>
+      <c r="T39" s="61"/>
+      <c r="U39" s="61"/>
+      <c r="V39" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="31" t="s">
+      <c r="W39" s="61"/>
+      <c r="X39" s="61"/>
+      <c r="Y39" s="61"/>
+      <c r="Z39" s="61"/>
+      <c r="AA39" s="61"/>
+      <c r="AB39" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="AC39" s="31"/>
-      <c r="AD39" s="31"/>
-      <c r="AE39" s="31"/>
-      <c r="AF39" s="31"/>
-      <c r="AG39" s="31"/>
-      <c r="AH39" s="31"/>
-      <c r="AI39" s="31"/>
-      <c r="AJ39" s="31"/>
-      <c r="AK39" s="31"/>
-      <c r="AL39" s="31"/>
-      <c r="AM39" s="31"/>
-      <c r="AN39" s="31"/>
-      <c r="AO39" s="31"/>
-      <c r="AP39" s="31"/>
-      <c r="AQ39" s="31"/>
-      <c r="AR39" s="31"/>
-      <c r="AS39" s="31"/>
-      <c r="AT39" s="31"/>
-      <c r="AU39" s="31"/>
-      <c r="AV39" s="31"/>
-      <c r="AW39" s="31"/>
-      <c r="AX39" s="31"/>
-      <c r="AY39" s="31"/>
-      <c r="AZ39" s="31"/>
-      <c r="BA39" s="31"/>
-      <c r="BB39" s="31"/>
-      <c r="BC39" s="31"/>
-      <c r="BD39" s="31"/>
-      <c r="BE39" s="31"/>
-      <c r="BF39" s="31"/>
-      <c r="BG39" s="31"/>
+      <c r="AC39" s="61"/>
+      <c r="AD39" s="61"/>
+      <c r="AE39" s="61"/>
+      <c r="AF39" s="61"/>
+      <c r="AG39" s="61"/>
+      <c r="AH39" s="61"/>
+      <c r="AI39" s="61"/>
+      <c r="AJ39" s="61"/>
+      <c r="AK39" s="61"/>
+      <c r="AL39" s="61"/>
+      <c r="AM39" s="61"/>
+      <c r="AN39" s="61"/>
+      <c r="AO39" s="61"/>
+      <c r="AP39" s="61"/>
+      <c r="AQ39" s="61"/>
+      <c r="AR39" s="61"/>
+      <c r="AS39" s="61"/>
+      <c r="AT39" s="61"/>
+      <c r="AU39" s="61"/>
+      <c r="AV39" s="61"/>
+      <c r="AW39" s="61"/>
+      <c r="AX39" s="61"/>
+      <c r="AY39" s="61"/>
+      <c r="AZ39" s="61"/>
+      <c r="BA39" s="61"/>
+      <c r="BB39" s="61"/>
+      <c r="BC39" s="61"/>
+      <c r="BD39" s="61"/>
+      <c r="BE39" s="61"/>
+      <c r="BF39" s="61"/>
+      <c r="BG39" s="61"/>
     </row>
     <row r="40" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K40" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="W40" s="31"/>
-      <c r="X40" s="31"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="31"/>
-      <c r="AB40" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC40" s="31"/>
-      <c r="AD40" s="31"/>
-      <c r="AE40" s="31"/>
-      <c r="AF40" s="31"/>
-      <c r="AG40" s="31"/>
-      <c r="AH40" s="31"/>
-      <c r="AI40" s="31"/>
-      <c r="AJ40" s="31"/>
-      <c r="AK40" s="31"/>
-      <c r="AL40" s="31"/>
-      <c r="AM40" s="31"/>
-      <c r="AN40" s="31"/>
-      <c r="AO40" s="31"/>
-      <c r="AP40" s="31"/>
-      <c r="AQ40" s="31"/>
-      <c r="AR40" s="31"/>
-      <c r="AS40" s="31"/>
-      <c r="AT40" s="31"/>
-      <c r="AU40" s="31"/>
-      <c r="AV40" s="31"/>
-      <c r="AW40" s="31"/>
-      <c r="AX40" s="31"/>
-      <c r="AY40" s="31"/>
-      <c r="AZ40" s="31"/>
-      <c r="BA40" s="31"/>
-      <c r="BB40" s="31"/>
-      <c r="BC40" s="31"/>
-      <c r="BD40" s="31"/>
-      <c r="BE40" s="31"/>
-      <c r="BF40" s="31"/>
-      <c r="BG40" s="31"/>
+      <c r="K40" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="61"/>
+      <c r="U40" s="61"/>
+      <c r="V40" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="W40" s="61"/>
+      <c r="X40" s="61"/>
+      <c r="Y40" s="61"/>
+      <c r="Z40" s="61"/>
+      <c r="AA40" s="61"/>
+      <c r="AB40" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC40" s="61"/>
+      <c r="AD40" s="61"/>
+      <c r="AE40" s="61"/>
+      <c r="AF40" s="61"/>
+      <c r="AG40" s="61"/>
+      <c r="AH40" s="61"/>
+      <c r="AI40" s="61"/>
+      <c r="AJ40" s="61"/>
+      <c r="AK40" s="61"/>
+      <c r="AL40" s="61"/>
+      <c r="AM40" s="61"/>
+      <c r="AN40" s="61"/>
+      <c r="AO40" s="61"/>
+      <c r="AP40" s="61"/>
+      <c r="AQ40" s="61"/>
+      <c r="AR40" s="61"/>
+      <c r="AS40" s="61"/>
+      <c r="AT40" s="61"/>
+      <c r="AU40" s="61"/>
+      <c r="AV40" s="61"/>
+      <c r="AW40" s="61"/>
+      <c r="AX40" s="61"/>
+      <c r="AY40" s="61"/>
+      <c r="AZ40" s="61"/>
+      <c r="BA40" s="61"/>
+      <c r="BB40" s="61"/>
+      <c r="BC40" s="61"/>
+      <c r="BD40" s="61"/>
+      <c r="BE40" s="61"/>
+      <c r="BF40" s="61"/>
+      <c r="BG40" s="61"/>
     </row>
     <row r="41" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K41" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="31"/>
-      <c r="U41" s="31"/>
-      <c r="V41" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="W41" s="31"/>
-      <c r="X41" s="31"/>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC41" s="31"/>
-      <c r="AD41" s="31"/>
-      <c r="AE41" s="31"/>
-      <c r="AF41" s="31"/>
-      <c r="AG41" s="31"/>
-      <c r="AH41" s="31"/>
-      <c r="AI41" s="31"/>
-      <c r="AJ41" s="31"/>
-      <c r="AK41" s="31"/>
-      <c r="AL41" s="31"/>
-      <c r="AM41" s="31"/>
-      <c r="AN41" s="31"/>
-      <c r="AO41" s="31"/>
-      <c r="AP41" s="31"/>
-      <c r="AQ41" s="31"/>
-      <c r="AR41" s="31"/>
-      <c r="AS41" s="31"/>
-      <c r="AT41" s="31"/>
-      <c r="AU41" s="31"/>
-      <c r="AV41" s="31"/>
-      <c r="AW41" s="31"/>
-      <c r="AX41" s="31"/>
-      <c r="AY41" s="31"/>
-      <c r="AZ41" s="31"/>
-      <c r="BA41" s="31"/>
-      <c r="BB41" s="31"/>
-      <c r="BC41" s="31"/>
-      <c r="BD41" s="31"/>
-      <c r="BE41" s="31"/>
-      <c r="BF41" s="31"/>
-      <c r="BG41" s="31"/>
-    </row>
-    <row r="42" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K42" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="31"/>
-      <c r="U42" s="31"/>
-      <c r="V42" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="W42" s="31"/>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC42" s="31"/>
-      <c r="AD42" s="31"/>
-      <c r="AE42" s="31"/>
-      <c r="AF42" s="31"/>
-      <c r="AG42" s="31"/>
-      <c r="AH42" s="31"/>
-      <c r="AI42" s="31"/>
-      <c r="AJ42" s="31"/>
-      <c r="AK42" s="31"/>
-      <c r="AL42" s="31"/>
-      <c r="AM42" s="31"/>
-      <c r="AN42" s="31"/>
-      <c r="AO42" s="31"/>
-      <c r="AP42" s="31"/>
-      <c r="AQ42" s="31"/>
-      <c r="AR42" s="31"/>
-      <c r="AS42" s="31"/>
-      <c r="AT42" s="31"/>
-      <c r="AU42" s="31"/>
-      <c r="AV42" s="31"/>
-      <c r="AW42" s="31"/>
-      <c r="AX42" s="31"/>
-      <c r="AY42" s="31"/>
-      <c r="AZ42" s="31"/>
-      <c r="BA42" s="31"/>
-      <c r="BB42" s="31"/>
-      <c r="BC42" s="31"/>
-      <c r="BD42" s="31"/>
-      <c r="BE42" s="31"/>
-      <c r="BF42" s="31"/>
-      <c r="BG42" s="31"/>
-    </row>
-    <row r="43" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K43" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="W43" s="31"/>
-      <c r="X43" s="31"/>
-      <c r="Y43" s="31"/>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC43" s="31"/>
-      <c r="AD43" s="31"/>
-      <c r="AE43" s="31"/>
-      <c r="AF43" s="31"/>
-      <c r="AG43" s="31"/>
-      <c r="AH43" s="31"/>
-      <c r="AI43" s="31"/>
-      <c r="AJ43" s="31"/>
-      <c r="AK43" s="31"/>
-      <c r="AL43" s="31"/>
-      <c r="AM43" s="31"/>
-      <c r="AN43" s="31"/>
-      <c r="AO43" s="31"/>
-      <c r="AP43" s="31"/>
-      <c r="AQ43" s="31"/>
-      <c r="AR43" s="31"/>
-      <c r="AS43" s="31"/>
-      <c r="AT43" s="31"/>
-      <c r="AU43" s="31"/>
-      <c r="AV43" s="31"/>
-      <c r="AW43" s="31"/>
-      <c r="AX43" s="31"/>
-      <c r="AY43" s="31"/>
-      <c r="AZ43" s="31"/>
-      <c r="BA43" s="31"/>
-      <c r="BB43" s="31"/>
-      <c r="BC43" s="31"/>
-      <c r="BD43" s="31"/>
-      <c r="BE43" s="31"/>
-      <c r="BF43" s="31"/>
-      <c r="BG43" s="31"/>
-    </row>
-    <row r="44" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K44" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="31"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="31" t="s">
+      <c r="K41" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="61"/>
+      <c r="R41" s="61"/>
+      <c r="S41" s="61"/>
+      <c r="T41" s="61"/>
+      <c r="U41" s="61"/>
+      <c r="V41" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="W44" s="31"/>
-      <c r="X44" s="31"/>
-      <c r="Y44" s="31"/>
-      <c r="Z44" s="31"/>
-      <c r="AA44" s="31"/>
-      <c r="AB44" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC44" s="31"/>
-      <c r="AD44" s="31"/>
-      <c r="AE44" s="31"/>
-      <c r="AF44" s="31"/>
-      <c r="AG44" s="31"/>
-      <c r="AH44" s="31"/>
-      <c r="AI44" s="31"/>
-      <c r="AJ44" s="31"/>
-      <c r="AK44" s="31"/>
-      <c r="AL44" s="31"/>
-      <c r="AM44" s="31"/>
-      <c r="AN44" s="31"/>
-      <c r="AO44" s="31"/>
-      <c r="AP44" s="31"/>
-      <c r="AQ44" s="31"/>
-      <c r="AR44" s="31"/>
-      <c r="AS44" s="31"/>
-      <c r="AT44" s="31"/>
-      <c r="AU44" s="31"/>
-      <c r="AV44" s="31"/>
-      <c r="AW44" s="31"/>
-      <c r="AX44" s="31"/>
-      <c r="AY44" s="31"/>
-      <c r="AZ44" s="31"/>
-      <c r="BA44" s="31"/>
-      <c r="BB44" s="31"/>
-      <c r="BC44" s="31"/>
-      <c r="BD44" s="31"/>
-      <c r="BE44" s="31"/>
-      <c r="BF44" s="31"/>
-      <c r="BG44" s="31"/>
-    </row>
-    <row r="45" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K45" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="31"/>
-      <c r="V45" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="W45" s="31"/>
-      <c r="X45" s="31"/>
-      <c r="Y45" s="31"/>
-      <c r="Z45" s="31"/>
-      <c r="AA45" s="31"/>
-      <c r="AB45" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC45" s="31"/>
-      <c r="AD45" s="31"/>
-      <c r="AE45" s="31"/>
-      <c r="AF45" s="31"/>
-      <c r="AG45" s="31"/>
-      <c r="AH45" s="31"/>
-      <c r="AI45" s="31"/>
-      <c r="AJ45" s="31"/>
-      <c r="AK45" s="31"/>
-      <c r="AL45" s="31"/>
-      <c r="AM45" s="31"/>
-      <c r="AN45" s="31"/>
-      <c r="AO45" s="31"/>
-      <c r="AP45" s="31"/>
-      <c r="AQ45" s="31"/>
-      <c r="AR45" s="31"/>
-      <c r="AS45" s="31"/>
-      <c r="AT45" s="31"/>
-      <c r="AU45" s="31"/>
-      <c r="AV45" s="31"/>
-      <c r="AW45" s="31"/>
-      <c r="AX45" s="31"/>
-      <c r="AY45" s="31"/>
-      <c r="AZ45" s="31"/>
-      <c r="BA45" s="31"/>
-      <c r="BB45" s="31"/>
-      <c r="BC45" s="31"/>
-      <c r="BD45" s="31"/>
-      <c r="BE45" s="31"/>
-      <c r="BF45" s="31"/>
-      <c r="BG45" s="31"/>
-    </row>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+      <c r="W41" s="61"/>
+      <c r="X41" s="61"/>
+      <c r="Y41" s="61"/>
+      <c r="Z41" s="61"/>
+      <c r="AA41" s="61"/>
+      <c r="AB41" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC41" s="61"/>
+      <c r="AD41" s="61"/>
+      <c r="AE41" s="61"/>
+      <c r="AF41" s="61"/>
+      <c r="AG41" s="61"/>
+      <c r="AH41" s="61"/>
+      <c r="AI41" s="61"/>
+      <c r="AJ41" s="61"/>
+      <c r="AK41" s="61"/>
+      <c r="AL41" s="61"/>
+      <c r="AM41" s="61"/>
+      <c r="AN41" s="61"/>
+      <c r="AO41" s="61"/>
+      <c r="AP41" s="61"/>
+      <c r="AQ41" s="61"/>
+      <c r="AR41" s="61"/>
+      <c r="AS41" s="61"/>
+      <c r="AT41" s="61"/>
+      <c r="AU41" s="61"/>
+      <c r="AV41" s="61"/>
+      <c r="AW41" s="61"/>
+      <c r="AX41" s="61"/>
+      <c r="AY41" s="61"/>
+      <c r="AZ41" s="61"/>
+      <c r="BA41" s="61"/>
+      <c r="BB41" s="61"/>
+      <c r="BC41" s="61"/>
+      <c r="BD41" s="61"/>
+      <c r="BE41" s="61"/>
+      <c r="BF41" s="61"/>
+      <c r="BG41" s="61"/>
+    </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="19">
+    <mergeCell ref="AD32:AH32"/>
     <mergeCell ref="K36:U36"/>
     <mergeCell ref="V36:AA36"/>
     <mergeCell ref="AB36:BG36"/>
-    <mergeCell ref="K37:U37"/>
-    <mergeCell ref="V37:AA37"/>
-    <mergeCell ref="AB37:BG37"/>
-    <mergeCell ref="K38:U38"/>
-    <mergeCell ref="V38:AA38"/>
-    <mergeCell ref="AB38:BG38"/>
-    <mergeCell ref="K39:U39"/>
-    <mergeCell ref="V39:AA39"/>
-    <mergeCell ref="AB39:BG39"/>
-    <mergeCell ref="K40:U40"/>
-    <mergeCell ref="V40:AA40"/>
-    <mergeCell ref="AB40:BG40"/>
-    <mergeCell ref="K41:U41"/>
-    <mergeCell ref="V41:AA41"/>
-    <mergeCell ref="AB41:BG41"/>
-    <mergeCell ref="K42:U42"/>
-    <mergeCell ref="V42:AA42"/>
-    <mergeCell ref="AB42:BG42"/>
-    <mergeCell ref="K43:U43"/>
-    <mergeCell ref="V43:AA43"/>
-    <mergeCell ref="AB43:BG43"/>
-    <mergeCell ref="K44:U44"/>
-    <mergeCell ref="V44:AA44"/>
-    <mergeCell ref="AB44:BG44"/>
-    <mergeCell ref="K45:U45"/>
-    <mergeCell ref="V45:AA45"/>
-    <mergeCell ref="AB45:BG45"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="W28:AB28"/>
-    <mergeCell ref="AD32:AH32"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC4DEBB-D419-4BF2-A338-CC088E028D37}">
-  <dimension ref="B2:BG47"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27:AS30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="3.375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="C3" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="K7" s="4"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="17"/>
-    </row>
-    <row r="8" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="K8" s="6"/>
-      <c r="L8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="11"/>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AU8" s="18"/>
-    </row>
-    <row r="9" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="AS9" s="17"/>
-      <c r="AU9" s="18"/>
-    </row>
-    <row r="10" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10" s="16"/>
-      <c r="Q10" s="26"/>
-      <c r="AC10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE10" s="26"/>
-      <c r="AS10" s="18"/>
-      <c r="AU10" s="18"/>
-    </row>
-    <row r="11" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="N11" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="21"/>
-      <c r="AD11" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE11" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="20"/>
-      <c r="AJ11" s="20"/>
-      <c r="AK11" s="20"/>
-      <c r="AL11" s="20"/>
-      <c r="AM11" s="29"/>
-      <c r="AN11" s="20"/>
-      <c r="AO11" s="20"/>
-      <c r="AP11" s="20"/>
-      <c r="AQ11" s="20"/>
-      <c r="AR11" s="21"/>
-      <c r="AS11" s="18"/>
-      <c r="AU11" s="18"/>
-    </row>
-    <row r="12" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="AS12" s="18"/>
-      <c r="AU12" s="18"/>
-    </row>
-    <row r="13" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS13" s="18"/>
-      <c r="AU13" s="18"/>
-    </row>
-    <row r="14" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="21"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="20"/>
-      <c r="AH14" s="20"/>
-      <c r="AI14" s="20"/>
-      <c r="AJ14" s="20"/>
-      <c r="AK14" s="20"/>
-      <c r="AL14" s="20"/>
-      <c r="AM14" s="20"/>
-      <c r="AN14" s="20"/>
-      <c r="AO14" s="20"/>
-      <c r="AP14" s="20"/>
-      <c r="AQ14" s="20"/>
-      <c r="AR14" s="21"/>
-      <c r="AS14" s="18"/>
-      <c r="AU14" s="18"/>
-    </row>
-    <row r="15" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="79"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="79"/>
-      <c r="X15" s="79"/>
-      <c r="Y15" s="79"/>
-      <c r="Z15" s="79"/>
-      <c r="AA15" s="79"/>
-      <c r="AD15" s="79"/>
-      <c r="AE15" s="79"/>
-      <c r="AF15" s="80"/>
-      <c r="AG15" s="79"/>
-      <c r="AH15" s="79"/>
-      <c r="AI15" s="79"/>
-      <c r="AJ15" s="79"/>
-      <c r="AK15" s="79"/>
-      <c r="AL15" s="79"/>
-      <c r="AM15" s="79"/>
-      <c r="AN15" s="79"/>
-      <c r="AO15" s="79"/>
-      <c r="AP15" s="79"/>
-      <c r="AQ15" s="79"/>
-      <c r="AR15" s="79"/>
-      <c r="AS15" s="18"/>
-      <c r="AU15" s="18"/>
-    </row>
-    <row r="16" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="N16" s="80"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="79"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="79"/>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="79"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="79" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD16" s="79"/>
-      <c r="AE16" s="79"/>
-      <c r="AF16" s="80"/>
-      <c r="AG16" s="79"/>
-      <c r="AH16" s="79"/>
-      <c r="AI16" s="79"/>
-      <c r="AJ16" s="79"/>
-      <c r="AK16" s="79"/>
-      <c r="AL16" s="79"/>
-      <c r="AM16" s="79"/>
-      <c r="AN16" s="79"/>
-      <c r="AO16" s="79"/>
-      <c r="AP16" s="79"/>
-      <c r="AQ16" s="79"/>
-      <c r="AR16" s="79"/>
-      <c r="AS16" s="18"/>
-      <c r="AU16" s="18"/>
-    </row>
-    <row r="17" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="21"/>
-      <c r="AD17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE17" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
-      <c r="AH17" s="20"/>
-      <c r="AI17" s="20"/>
-      <c r="AJ17" s="20"/>
-      <c r="AK17" s="20"/>
-      <c r="AL17" s="20"/>
-      <c r="AM17" s="29"/>
-      <c r="AN17" s="20"/>
-      <c r="AO17" s="20"/>
-      <c r="AP17" s="20"/>
-      <c r="AQ17" s="20"/>
-      <c r="AR17" s="21"/>
-      <c r="AS17" s="18"/>
-      <c r="AU17" s="18"/>
-    </row>
-    <row r="18" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="AD18" s="79"/>
-      <c r="AE18" s="79"/>
-      <c r="AF18" s="80"/>
-      <c r="AG18" s="79"/>
-      <c r="AH18" s="79"/>
-      <c r="AI18" s="79"/>
-      <c r="AJ18" s="79"/>
-      <c r="AK18" s="79"/>
-      <c r="AL18" s="79"/>
-      <c r="AM18" s="79"/>
-      <c r="AN18" s="79"/>
-      <c r="AO18" s="79"/>
-      <c r="AP18" s="79"/>
-      <c r="AQ18" s="79"/>
-      <c r="AR18" s="79"/>
-      <c r="AS18" s="18"/>
-      <c r="AU18" s="18"/>
-    </row>
-    <row r="19" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="N19" s="80"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="79"/>
-      <c r="Z19" s="79"/>
-      <c r="AA19" s="79"/>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD19" s="79"/>
-      <c r="AE19" s="79"/>
-      <c r="AF19" s="80"/>
-      <c r="AG19" s="79"/>
-      <c r="AH19" s="79"/>
-      <c r="AI19" s="79"/>
-      <c r="AJ19" s="79"/>
-      <c r="AK19" s="79"/>
-      <c r="AL19" s="79"/>
-      <c r="AM19" s="79"/>
-      <c r="AN19" s="79"/>
-      <c r="AO19" s="79"/>
-      <c r="AP19" s="79"/>
-      <c r="AQ19" s="79"/>
-      <c r="AR19" s="79"/>
-      <c r="AS19" s="18"/>
-      <c r="AU19" s="18"/>
-    </row>
-    <row r="20" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="21"/>
-      <c r="AD20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE20" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF20" s="20"/>
-      <c r="AG20" s="20"/>
-      <c r="AH20" s="20"/>
-      <c r="AI20" s="20"/>
-      <c r="AJ20" s="20"/>
-      <c r="AK20" s="20"/>
-      <c r="AL20" s="20"/>
-      <c r="AM20" s="29"/>
-      <c r="AN20" s="20"/>
-      <c r="AO20" s="20"/>
-      <c r="AP20" s="20"/>
-      <c r="AQ20" s="20"/>
-      <c r="AR20" s="21"/>
-      <c r="AS20" s="18"/>
-      <c r="AU20" s="18"/>
-    </row>
-    <row r="21" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K21" s="6"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="11"/>
-      <c r="AK21" s="11"/>
-      <c r="AL21" s="11"/>
-      <c r="AM21" s="11"/>
-      <c r="AN21" s="11"/>
-      <c r="AO21" s="11"/>
-      <c r="AP21" s="11"/>
-      <c r="AQ21" s="11"/>
-      <c r="AR21" s="11"/>
-      <c r="AS21" s="12"/>
-      <c r="AU21" s="18"/>
-    </row>
-    <row r="22" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K22" s="6"/>
-      <c r="AU22" s="18"/>
-    </row>
-    <row r="23" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K23" s="6"/>
-      <c r="AO23" s="19"/>
-      <c r="AP23" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ23" s="20"/>
-      <c r="AR23" s="21"/>
-      <c r="AU23" s="18"/>
-    </row>
-    <row r="24" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K24" s="6"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="AU24" s="18"/>
-    </row>
-    <row r="25" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K25" s="6"/>
-      <c r="L25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU25" s="18"/>
-    </row>
-    <row r="26" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K26" s="6"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="3"/>
-      <c r="AR26" s="3"/>
-      <c r="AS26" s="3"/>
-      <c r="AU26" s="18"/>
-    </row>
-    <row r="27" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K27" s="6"/>
-      <c r="L27" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="M27" s="65"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="65"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="64" t="s">
-        <v>147</v>
-      </c>
-      <c r="X27" s="65"/>
-      <c r="Y27" s="65"/>
-      <c r="Z27" s="65"/>
-      <c r="AA27" s="65"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="66"/>
-      <c r="AD27" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE27" s="65"/>
-      <c r="AF27" s="65"/>
-      <c r="AG27" s="65"/>
-      <c r="AH27" s="65"/>
-      <c r="AI27" s="65"/>
-      <c r="AJ27" s="66"/>
-      <c r="AK27" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL27" s="65"/>
-      <c r="AM27" s="65"/>
-      <c r="AN27" s="65"/>
-      <c r="AO27" s="65"/>
-      <c r="AP27" s="65"/>
-      <c r="AQ27" s="65"/>
-      <c r="AR27" s="65"/>
-      <c r="AS27" s="66"/>
-      <c r="AU27" s="18"/>
-    </row>
-    <row r="28" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K28" s="6"/>
-      <c r="L28" s="67">
-        <v>1</v>
-      </c>
-      <c r="M28" s="68"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="70" t="s">
-        <v>154</v>
-      </c>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="71"/>
-      <c r="V28" s="72"/>
-      <c r="W28" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="X28" s="71"/>
-      <c r="Y28" s="71"/>
-      <c r="Z28" s="71"/>
-      <c r="AA28" s="71"/>
-      <c r="AB28" s="71"/>
-      <c r="AC28" s="72"/>
-      <c r="AD28" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE28" s="71"/>
-      <c r="AF28" s="71"/>
-      <c r="AG28" s="71"/>
-      <c r="AH28" s="71"/>
-      <c r="AI28" s="71"/>
-      <c r="AJ28" s="72"/>
-      <c r="AK28" s="19"/>
-      <c r="AL28" s="20"/>
-      <c r="AM28" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN28" s="20"/>
-      <c r="AO28" s="20"/>
-      <c r="AP28" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ28" s="20"/>
-      <c r="AR28" s="20"/>
-      <c r="AS28" s="21"/>
-      <c r="AU28" s="18"/>
-    </row>
-    <row r="29" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K29" s="6"/>
-      <c r="L29" s="67">
-        <v>2</v>
-      </c>
-      <c r="M29" s="68"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="70" t="s">
-        <v>155</v>
-      </c>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="72"/>
-      <c r="W29" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="X29" s="71"/>
-      <c r="Y29" s="71"/>
-      <c r="Z29" s="71"/>
-      <c r="AA29" s="71"/>
-      <c r="AB29" s="71"/>
-      <c r="AC29" s="72"/>
-      <c r="AD29" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE29" s="71"/>
-      <c r="AF29" s="71"/>
-      <c r="AG29" s="71"/>
-      <c r="AH29" s="71"/>
-      <c r="AI29" s="71"/>
-      <c r="AJ29" s="72"/>
-      <c r="AK29" s="19"/>
-      <c r="AL29" s="20"/>
-      <c r="AM29" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN29" s="20"/>
-      <c r="AO29" s="20"/>
-      <c r="AP29" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ29" s="20"/>
-      <c r="AR29" s="20"/>
-      <c r="AS29" s="21"/>
-      <c r="AU29" s="18"/>
-    </row>
-    <row r="30" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K30" s="6"/>
-      <c r="L30" s="67">
-        <v>3</v>
-      </c>
-      <c r="M30" s="68"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="72"/>
-      <c r="W30" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="71"/>
-      <c r="AC30" s="72"/>
-      <c r="AD30" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE30" s="71"/>
-      <c r="AF30" s="71"/>
-      <c r="AG30" s="71"/>
-      <c r="AH30" s="71"/>
-      <c r="AI30" s="71"/>
-      <c r="AJ30" s="72"/>
-      <c r="AK30" s="19"/>
-      <c r="AL30" s="20"/>
-      <c r="AM30" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN30" s="20"/>
-      <c r="AO30" s="20"/>
-      <c r="AP30" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ30" s="20"/>
-      <c r="AR30" s="20"/>
-      <c r="AS30" s="21"/>
-      <c r="AU30" s="18"/>
-    </row>
-    <row r="31" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K31" s="6"/>
-      <c r="AU31" s="18"/>
-    </row>
-    <row r="32" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K32" s="6"/>
-      <c r="AO32" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP32" s="65"/>
-      <c r="AQ32" s="65"/>
-      <c r="AR32" s="66"/>
-      <c r="AU32" s="18"/>
-    </row>
-    <row r="33" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K33" s="6"/>
-      <c r="AU33" s="18"/>
-    </row>
-    <row r="34" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K34" s="13"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="11"/>
-      <c r="AF34" s="11"/>
-      <c r="AG34" s="11"/>
-      <c r="AH34" s="11"/>
-      <c r="AI34" s="11"/>
-      <c r="AJ34" s="11"/>
-      <c r="AK34" s="11"/>
-      <c r="AL34" s="11"/>
-      <c r="AM34" s="11"/>
-      <c r="AN34" s="11"/>
-      <c r="AO34" s="11"/>
-      <c r="AP34" s="11"/>
-      <c r="AQ34" s="11"/>
-      <c r="AR34" s="11"/>
-      <c r="AS34" s="11"/>
-      <c r="AT34" s="11"/>
-      <c r="AU34" s="12"/>
-    </row>
-    <row r="36" spans="11:59" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="37" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K37" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="60"/>
-      <c r="U37" s="60"/>
-      <c r="V37" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="W37" s="60"/>
-      <c r="X37" s="60"/>
-      <c r="Y37" s="60"/>
-      <c r="Z37" s="60"/>
-      <c r="AA37" s="60"/>
-      <c r="AB37" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC37" s="60"/>
-      <c r="AD37" s="60"/>
-      <c r="AE37" s="60"/>
-      <c r="AF37" s="60"/>
-      <c r="AG37" s="60"/>
-      <c r="AH37" s="60"/>
-      <c r="AI37" s="60"/>
-      <c r="AJ37" s="60"/>
-      <c r="AK37" s="60"/>
-      <c r="AL37" s="60"/>
-      <c r="AM37" s="60"/>
-      <c r="AN37" s="60"/>
-      <c r="AO37" s="60"/>
-      <c r="AP37" s="60"/>
-      <c r="AQ37" s="60"/>
-      <c r="AR37" s="60"/>
-      <c r="AS37" s="60"/>
-      <c r="AT37" s="60"/>
-      <c r="AU37" s="60"/>
-      <c r="AV37" s="60"/>
-      <c r="AW37" s="60"/>
-      <c r="AX37" s="60"/>
-      <c r="AY37" s="60"/>
-      <c r="AZ37" s="60"/>
-      <c r="BA37" s="60"/>
-      <c r="BB37" s="60"/>
-      <c r="BC37" s="60"/>
-      <c r="BD37" s="60"/>
-      <c r="BE37" s="60"/>
-      <c r="BF37" s="60"/>
-      <c r="BG37" s="60"/>
-    </row>
-    <row r="38" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K38" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC38" s="31"/>
-      <c r="AD38" s="31"/>
-      <c r="AE38" s="31"/>
-      <c r="AF38" s="31"/>
-      <c r="AG38" s="31"/>
-      <c r="AH38" s="31"/>
-      <c r="AI38" s="31"/>
-      <c r="AJ38" s="31"/>
-      <c r="AK38" s="31"/>
-      <c r="AL38" s="31"/>
-      <c r="AM38" s="31"/>
-      <c r="AN38" s="31"/>
-      <c r="AO38" s="31"/>
-      <c r="AP38" s="31"/>
-      <c r="AQ38" s="31"/>
-      <c r="AR38" s="31"/>
-      <c r="AS38" s="31"/>
-      <c r="AT38" s="31"/>
-      <c r="AU38" s="31"/>
-      <c r="AV38" s="31"/>
-      <c r="AW38" s="31"/>
-      <c r="AX38" s="31"/>
-      <c r="AY38" s="31"/>
-      <c r="AZ38" s="31"/>
-      <c r="BA38" s="31"/>
-      <c r="BB38" s="31"/>
-      <c r="BC38" s="31"/>
-      <c r="BD38" s="31"/>
-      <c r="BE38" s="31"/>
-      <c r="BF38" s="31"/>
-      <c r="BG38" s="31"/>
-    </row>
-    <row r="39" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K39" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC39" s="31"/>
-      <c r="AD39" s="31"/>
-      <c r="AE39" s="31"/>
-      <c r="AF39" s="31"/>
-      <c r="AG39" s="31"/>
-      <c r="AH39" s="31"/>
-      <c r="AI39" s="31"/>
-      <c r="AJ39" s="31"/>
-      <c r="AK39" s="31"/>
-      <c r="AL39" s="31"/>
-      <c r="AM39" s="31"/>
-      <c r="AN39" s="31"/>
-      <c r="AO39" s="31"/>
-      <c r="AP39" s="31"/>
-      <c r="AQ39" s="31"/>
-      <c r="AR39" s="31"/>
-      <c r="AS39" s="31"/>
-      <c r="AT39" s="31"/>
-      <c r="AU39" s="31"/>
-      <c r="AV39" s="31"/>
-      <c r="AW39" s="31"/>
-      <c r="AX39" s="31"/>
-      <c r="AY39" s="31"/>
-      <c r="AZ39" s="31"/>
-      <c r="BA39" s="31"/>
-      <c r="BB39" s="31"/>
-      <c r="BC39" s="31"/>
-      <c r="BD39" s="31"/>
-      <c r="BE39" s="31"/>
-      <c r="BF39" s="31"/>
-      <c r="BG39" s="31"/>
-    </row>
-    <row r="40" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K40" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="W40" s="31"/>
-      <c r="X40" s="31"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="31"/>
-      <c r="AB40" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC40" s="31"/>
-      <c r="AD40" s="31"/>
-      <c r="AE40" s="31"/>
-      <c r="AF40" s="31"/>
-      <c r="AG40" s="31"/>
-      <c r="AH40" s="31"/>
-      <c r="AI40" s="31"/>
-      <c r="AJ40" s="31"/>
-      <c r="AK40" s="31"/>
-      <c r="AL40" s="31"/>
-      <c r="AM40" s="31"/>
-      <c r="AN40" s="31"/>
-      <c r="AO40" s="31"/>
-      <c r="AP40" s="31"/>
-      <c r="AQ40" s="31"/>
-      <c r="AR40" s="31"/>
-      <c r="AS40" s="31"/>
-      <c r="AT40" s="31"/>
-      <c r="AU40" s="31"/>
-      <c r="AV40" s="31"/>
-      <c r="AW40" s="31"/>
-      <c r="AX40" s="31"/>
-      <c r="AY40" s="31"/>
-      <c r="AZ40" s="31"/>
-      <c r="BA40" s="31"/>
-      <c r="BB40" s="31"/>
-      <c r="BC40" s="31"/>
-      <c r="BD40" s="31"/>
-      <c r="BE40" s="31"/>
-      <c r="BF40" s="31"/>
-      <c r="BG40" s="31"/>
-    </row>
-    <row r="41" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K41" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="31"/>
-      <c r="U41" s="31"/>
-      <c r="V41" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="W41" s="31"/>
-      <c r="X41" s="31"/>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC41" s="31"/>
-      <c r="AD41" s="31"/>
-      <c r="AE41" s="31"/>
-      <c r="AF41" s="31"/>
-      <c r="AG41" s="31"/>
-      <c r="AH41" s="31"/>
-      <c r="AI41" s="31"/>
-      <c r="AJ41" s="31"/>
-      <c r="AK41" s="31"/>
-      <c r="AL41" s="31"/>
-      <c r="AM41" s="31"/>
-      <c r="AN41" s="31"/>
-      <c r="AO41" s="31"/>
-      <c r="AP41" s="31"/>
-      <c r="AQ41" s="31"/>
-      <c r="AR41" s="31"/>
-      <c r="AS41" s="31"/>
-      <c r="AT41" s="31"/>
-      <c r="AU41" s="31"/>
-      <c r="AV41" s="31"/>
-      <c r="AW41" s="31"/>
-      <c r="AX41" s="31"/>
-      <c r="AY41" s="31"/>
-      <c r="AZ41" s="31"/>
-      <c r="BA41" s="31"/>
-      <c r="BB41" s="31"/>
-      <c r="BC41" s="31"/>
-      <c r="BD41" s="31"/>
-      <c r="BE41" s="31"/>
-      <c r="BF41" s="31"/>
-      <c r="BG41" s="31"/>
-    </row>
-    <row r="42" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K42" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="31"/>
-      <c r="U42" s="31"/>
-      <c r="V42" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="W42" s="31"/>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC42" s="31"/>
-      <c r="AD42" s="31"/>
-      <c r="AE42" s="31"/>
-      <c r="AF42" s="31"/>
-      <c r="AG42" s="31"/>
-      <c r="AH42" s="31"/>
-      <c r="AI42" s="31"/>
-      <c r="AJ42" s="31"/>
-      <c r="AK42" s="31"/>
-      <c r="AL42" s="31"/>
-      <c r="AM42" s="31"/>
-      <c r="AN42" s="31"/>
-      <c r="AO42" s="31"/>
-      <c r="AP42" s="31"/>
-      <c r="AQ42" s="31"/>
-      <c r="AR42" s="31"/>
-      <c r="AS42" s="31"/>
-      <c r="AT42" s="31"/>
-      <c r="AU42" s="31"/>
-      <c r="AV42" s="31"/>
-      <c r="AW42" s="31"/>
-      <c r="AX42" s="31"/>
-      <c r="AY42" s="31"/>
-      <c r="AZ42" s="31"/>
-      <c r="BA42" s="31"/>
-      <c r="BB42" s="31"/>
-      <c r="BC42" s="31"/>
-      <c r="BD42" s="31"/>
-      <c r="BE42" s="31"/>
-      <c r="BF42" s="31"/>
-      <c r="BG42" s="31"/>
-    </row>
-    <row r="43" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K43" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="W43" s="31"/>
-      <c r="X43" s="31"/>
-      <c r="Y43" s="31"/>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="AC43" s="31"/>
-      <c r="AD43" s="31"/>
-      <c r="AE43" s="31"/>
-      <c r="AF43" s="31"/>
-      <c r="AG43" s="31"/>
-      <c r="AH43" s="31"/>
-      <c r="AI43" s="31"/>
-      <c r="AJ43" s="31"/>
-      <c r="AK43" s="31"/>
-      <c r="AL43" s="31"/>
-      <c r="AM43" s="31"/>
-      <c r="AN43" s="31"/>
-      <c r="AO43" s="31"/>
-      <c r="AP43" s="31"/>
-      <c r="AQ43" s="31"/>
-      <c r="AR43" s="31"/>
-      <c r="AS43" s="31"/>
-      <c r="AT43" s="31"/>
-      <c r="AU43" s="31"/>
-      <c r="AV43" s="31"/>
-      <c r="AW43" s="31"/>
-      <c r="AX43" s="31"/>
-      <c r="AY43" s="31"/>
-      <c r="AZ43" s="31"/>
-      <c r="BA43" s="31"/>
-      <c r="BB43" s="31"/>
-      <c r="BC43" s="31"/>
-      <c r="BD43" s="31"/>
-      <c r="BE43" s="31"/>
-      <c r="BF43" s="31"/>
-      <c r="BG43" s="31"/>
-    </row>
-    <row r="44" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K44" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="31"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="W44" s="31"/>
-      <c r="X44" s="31"/>
-      <c r="Y44" s="31"/>
-      <c r="Z44" s="31"/>
-      <c r="AA44" s="31"/>
-      <c r="AB44" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC44" s="31"/>
-      <c r="AD44" s="31"/>
-      <c r="AE44" s="31"/>
-      <c r="AF44" s="31"/>
-      <c r="AG44" s="31"/>
-      <c r="AH44" s="31"/>
-      <c r="AI44" s="31"/>
-      <c r="AJ44" s="31"/>
-      <c r="AK44" s="31"/>
-      <c r="AL44" s="31"/>
-      <c r="AM44" s="31"/>
-      <c r="AN44" s="31"/>
-      <c r="AO44" s="31"/>
-      <c r="AP44" s="31"/>
-      <c r="AQ44" s="31"/>
-      <c r="AR44" s="31"/>
-      <c r="AS44" s="31"/>
-      <c r="AT44" s="31"/>
-      <c r="AU44" s="31"/>
-      <c r="AV44" s="31"/>
-      <c r="AW44" s="31"/>
-      <c r="AX44" s="31"/>
-      <c r="AY44" s="31"/>
-      <c r="AZ44" s="31"/>
-      <c r="BA44" s="31"/>
-      <c r="BB44" s="31"/>
-      <c r="BC44" s="31"/>
-      <c r="BD44" s="31"/>
-      <c r="BE44" s="31"/>
-      <c r="BF44" s="31"/>
-      <c r="BG44" s="31"/>
-    </row>
-    <row r="45" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K45" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="31"/>
-      <c r="V45" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="W45" s="31"/>
-      <c r="X45" s="31"/>
-      <c r="Y45" s="31"/>
-      <c r="Z45" s="31"/>
-      <c r="AA45" s="31"/>
-      <c r="AB45" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC45" s="31"/>
-      <c r="AD45" s="31"/>
-      <c r="AE45" s="31"/>
-      <c r="AF45" s="31"/>
-      <c r="AG45" s="31"/>
-      <c r="AH45" s="31"/>
-      <c r="AI45" s="31"/>
-      <c r="AJ45" s="31"/>
-      <c r="AK45" s="31"/>
-      <c r="AL45" s="31"/>
-      <c r="AM45" s="31"/>
-      <c r="AN45" s="31"/>
-      <c r="AO45" s="31"/>
-      <c r="AP45" s="31"/>
-      <c r="AQ45" s="31"/>
-      <c r="AR45" s="31"/>
-      <c r="AS45" s="31"/>
-      <c r="AT45" s="31"/>
-      <c r="AU45" s="31"/>
-      <c r="AV45" s="31"/>
-      <c r="AW45" s="31"/>
-      <c r="AX45" s="31"/>
-      <c r="AY45" s="31"/>
-      <c r="AZ45" s="31"/>
-      <c r="BA45" s="31"/>
-      <c r="BB45" s="31"/>
-      <c r="BC45" s="31"/>
-      <c r="BD45" s="31"/>
-      <c r="BE45" s="31"/>
-      <c r="BF45" s="31"/>
-      <c r="BG45" s="31"/>
-    </row>
-    <row r="46" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K46" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="31"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="31"/>
-      <c r="V46" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="W46" s="31"/>
-      <c r="X46" s="31"/>
-      <c r="Y46" s="31"/>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="31"/>
-      <c r="AB46" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC46" s="31"/>
-      <c r="AD46" s="31"/>
-      <c r="AE46" s="31"/>
-      <c r="AF46" s="31"/>
-      <c r="AG46" s="31"/>
-      <c r="AH46" s="31"/>
-      <c r="AI46" s="31"/>
-      <c r="AJ46" s="31"/>
-      <c r="AK46" s="31"/>
-      <c r="AL46" s="31"/>
-      <c r="AM46" s="31"/>
-      <c r="AN46" s="31"/>
-      <c r="AO46" s="31"/>
-      <c r="AP46" s="31"/>
-      <c r="AQ46" s="31"/>
-      <c r="AR46" s="31"/>
-      <c r="AS46" s="31"/>
-      <c r="AT46" s="31"/>
-      <c r="AU46" s="31"/>
-      <c r="AV46" s="31"/>
-      <c r="AW46" s="31"/>
-      <c r="AX46" s="31"/>
-      <c r="AY46" s="31"/>
-      <c r="AZ46" s="31"/>
-      <c r="BA46" s="31"/>
-      <c r="BB46" s="31"/>
-      <c r="BC46" s="31"/>
-      <c r="BD46" s="31"/>
-      <c r="BE46" s="31"/>
-      <c r="BF46" s="31"/>
-      <c r="BG46" s="31"/>
-    </row>
-    <row r="47" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K47" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="31"/>
-      <c r="V47" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="W47" s="31"/>
-      <c r="X47" s="31"/>
-      <c r="Y47" s="31"/>
-      <c r="Z47" s="31"/>
-      <c r="AA47" s="31"/>
-      <c r="AB47" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC47" s="31"/>
-      <c r="AD47" s="31"/>
-      <c r="AE47" s="31"/>
-      <c r="AF47" s="31"/>
-      <c r="AG47" s="31"/>
-      <c r="AH47" s="31"/>
-      <c r="AI47" s="31"/>
-      <c r="AJ47" s="31"/>
-      <c r="AK47" s="31"/>
-      <c r="AL47" s="31"/>
-      <c r="AM47" s="31"/>
-      <c r="AN47" s="31"/>
-      <c r="AO47" s="31"/>
-      <c r="AP47" s="31"/>
-      <c r="AQ47" s="31"/>
-      <c r="AR47" s="31"/>
-      <c r="AS47" s="31"/>
-      <c r="AT47" s="31"/>
-      <c r="AU47" s="31"/>
-      <c r="AV47" s="31"/>
-      <c r="AW47" s="31"/>
-      <c r="AX47" s="31"/>
-      <c r="AY47" s="31"/>
-      <c r="AZ47" s="31"/>
-      <c r="BA47" s="31"/>
-      <c r="BB47" s="31"/>
-      <c r="BC47" s="31"/>
-      <c r="BD47" s="31"/>
-      <c r="BE47" s="31"/>
-      <c r="BF47" s="31"/>
-      <c r="BG47" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="K45:U45"/>
-    <mergeCell ref="V45:AA45"/>
-    <mergeCell ref="AB45:BG45"/>
-    <mergeCell ref="K43:U43"/>
-    <mergeCell ref="V43:AA43"/>
-    <mergeCell ref="AB43:BG43"/>
-    <mergeCell ref="K44:U44"/>
-    <mergeCell ref="V44:AA44"/>
-    <mergeCell ref="AB44:BG44"/>
-    <mergeCell ref="K46:U46"/>
-    <mergeCell ref="V46:AA46"/>
-    <mergeCell ref="AB46:BG46"/>
-    <mergeCell ref="K47:U47"/>
-    <mergeCell ref="V47:AA47"/>
-    <mergeCell ref="AB47:BG47"/>
-    <mergeCell ref="K41:U41"/>
-    <mergeCell ref="V41:AA41"/>
-    <mergeCell ref="AB41:BG41"/>
-    <mergeCell ref="K42:U42"/>
-    <mergeCell ref="V42:AA42"/>
-    <mergeCell ref="AB42:BG42"/>
-    <mergeCell ref="K39:U39"/>
-    <mergeCell ref="V39:AA39"/>
-    <mergeCell ref="AB39:BG39"/>
-    <mergeCell ref="K40:U40"/>
-    <mergeCell ref="V40:AA40"/>
-    <mergeCell ref="AB40:BG40"/>
-    <mergeCell ref="AO32:AR32"/>
-    <mergeCell ref="K37:U37"/>
-    <mergeCell ref="V37:AA37"/>
-    <mergeCell ref="AB37:BG37"/>
-    <mergeCell ref="K38:U38"/>
-    <mergeCell ref="V38:AA38"/>
-    <mergeCell ref="AB38:BG38"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="O29:V29"/>
-    <mergeCell ref="W29:AC29"/>
-    <mergeCell ref="AD29:AJ29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O30:V30"/>
-    <mergeCell ref="W30:AC30"/>
-    <mergeCell ref="AD30:AJ30"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:V27"/>
-    <mergeCell ref="W27:AC27"/>
-    <mergeCell ref="AD27:AJ27"/>
-    <mergeCell ref="AK27:AS27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:V28"/>
-    <mergeCell ref="W28:AC28"/>
-    <mergeCell ref="AD28:AJ28"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC044CB-6464-49BD-A201-F4E8BD3B0087}">
-  <dimension ref="B2:BG41"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB42" sqref="AB42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="3.375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="C3" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="K7" s="4"/>
-      <c r="L7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="5"/>
-    </row>
-    <row r="8" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="K8" s="4"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="5"/>
-    </row>
-    <row r="9" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="K9" s="6"/>
-      <c r="L9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AU9" s="7"/>
-    </row>
-    <row r="10" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="K10" s="6"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="21"/>
-      <c r="AU10" s="7"/>
-    </row>
-    <row r="11" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="K11" s="6"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="AU11" s="7"/>
-    </row>
-    <row r="12" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="K12" s="6"/>
-      <c r="L12" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU12" s="7"/>
-    </row>
-    <row r="13" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="K13" s="6"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="21"/>
-      <c r="AU13" s="7"/>
-    </row>
-    <row r="14" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="K14" s="6"/>
-      <c r="AU14" s="7"/>
-    </row>
-    <row r="15" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="K15" s="6"/>
-      <c r="L15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU15" s="7"/>
-    </row>
-    <row r="16" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="K16" s="6"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="21"/>
-      <c r="AU16" s="7"/>
-    </row>
-    <row r="17" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K17" s="6"/>
-      <c r="AU17" s="7"/>
-    </row>
-    <row r="18" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K18" s="6"/>
-      <c r="AU18" s="7"/>
-    </row>
-    <row r="19" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K19" s="6"/>
-      <c r="AU19" s="7"/>
-    </row>
-    <row r="20" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K20" s="6"/>
-      <c r="AU20" s="7"/>
-    </row>
-    <row r="21" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K21" s="6"/>
-      <c r="AU21" s="7"/>
-    </row>
-    <row r="22" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K22" s="6"/>
-      <c r="AU22" s="7"/>
-    </row>
-    <row r="23" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K23" s="6"/>
-      <c r="AU23" s="7"/>
-    </row>
-    <row r="24" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K24" s="6"/>
-      <c r="AU24" s="7"/>
-    </row>
-    <row r="25" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K25" s="6"/>
-      <c r="AU25" s="7"/>
-    </row>
-    <row r="26" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K26" s="6"/>
-      <c r="AU26" s="7"/>
-    </row>
-    <row r="27" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K27" s="6"/>
-      <c r="AU27" s="7"/>
-    </row>
-    <row r="28" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K28" s="6"/>
-      <c r="AU28" s="7"/>
-    </row>
-    <row r="29" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K29" s="6"/>
-      <c r="AU29" s="7"/>
-    </row>
-    <row r="30" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K30" s="6"/>
-      <c r="AU30" s="7"/>
-    </row>
-    <row r="31" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K31" s="6"/>
-      <c r="AU31" s="7"/>
-    </row>
-    <row r="32" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K32" s="6"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="21"/>
-      <c r="AD32" s="64" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE32" s="65"/>
-      <c r="AF32" s="65"/>
-      <c r="AG32" s="65"/>
-      <c r="AH32" s="66"/>
-      <c r="AU32" s="7"/>
-    </row>
-    <row r="33" spans="11:59" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K33" s="8"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="9"/>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="9"/>
-      <c r="AL33" s="9"/>
-      <c r="AM33" s="9"/>
-      <c r="AN33" s="9"/>
-      <c r="AO33" s="9"/>
-      <c r="AP33" s="9"/>
-      <c r="AQ33" s="9"/>
-      <c r="AR33" s="9"/>
-      <c r="AS33" s="9"/>
-      <c r="AT33" s="9"/>
-      <c r="AU33" s="10"/>
-    </row>
-    <row r="35" spans="11:59" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="36" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K36" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="60"/>
-      <c r="U36" s="60"/>
-      <c r="V36" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="60"/>
-      <c r="Z36" s="60"/>
-      <c r="AA36" s="60"/>
-      <c r="AB36" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC36" s="60"/>
-      <c r="AD36" s="60"/>
-      <c r="AE36" s="60"/>
-      <c r="AF36" s="60"/>
-      <c r="AG36" s="60"/>
-      <c r="AH36" s="60"/>
-      <c r="AI36" s="60"/>
-      <c r="AJ36" s="60"/>
-      <c r="AK36" s="60"/>
-      <c r="AL36" s="60"/>
-      <c r="AM36" s="60"/>
-      <c r="AN36" s="60"/>
-      <c r="AO36" s="60"/>
-      <c r="AP36" s="60"/>
-      <c r="AQ36" s="60"/>
-      <c r="AR36" s="60"/>
-      <c r="AS36" s="60"/>
-      <c r="AT36" s="60"/>
-      <c r="AU36" s="60"/>
-      <c r="AV36" s="60"/>
-      <c r="AW36" s="60"/>
-      <c r="AX36" s="60"/>
-      <c r="AY36" s="60"/>
-      <c r="AZ36" s="60"/>
-      <c r="BA36" s="60"/>
-      <c r="BB36" s="60"/>
-      <c r="BC36" s="60"/>
-      <c r="BD36" s="60"/>
-      <c r="BE36" s="60"/>
-      <c r="BF36" s="60"/>
-      <c r="BG36" s="60"/>
-    </row>
-    <row r="37" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K37" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="31"/>
-      <c r="AB37" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC37" s="31"/>
-      <c r="AD37" s="31"/>
-      <c r="AE37" s="31"/>
-      <c r="AF37" s="31"/>
-      <c r="AG37" s="31"/>
-      <c r="AH37" s="31"/>
-      <c r="AI37" s="31"/>
-      <c r="AJ37" s="31"/>
-      <c r="AK37" s="31"/>
-      <c r="AL37" s="31"/>
-      <c r="AM37" s="31"/>
-      <c r="AN37" s="31"/>
-      <c r="AO37" s="31"/>
-      <c r="AP37" s="31"/>
-      <c r="AQ37" s="31"/>
-      <c r="AR37" s="31"/>
-      <c r="AS37" s="31"/>
-      <c r="AT37" s="31"/>
-      <c r="AU37" s="31"/>
-      <c r="AV37" s="31"/>
-      <c r="AW37" s="31"/>
-      <c r="AX37" s="31"/>
-      <c r="AY37" s="31"/>
-      <c r="AZ37" s="31"/>
-      <c r="BA37" s="31"/>
-      <c r="BB37" s="31"/>
-      <c r="BC37" s="31"/>
-      <c r="BD37" s="31"/>
-      <c r="BE37" s="31"/>
-      <c r="BF37" s="31"/>
-      <c r="BG37" s="31"/>
-    </row>
-    <row r="38" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K38" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC38" s="31"/>
-      <c r="AD38" s="31"/>
-      <c r="AE38" s="31"/>
-      <c r="AF38" s="31"/>
-      <c r="AG38" s="31"/>
-      <c r="AH38" s="31"/>
-      <c r="AI38" s="31"/>
-      <c r="AJ38" s="31"/>
-      <c r="AK38" s="31"/>
-      <c r="AL38" s="31"/>
-      <c r="AM38" s="31"/>
-      <c r="AN38" s="31"/>
-      <c r="AO38" s="31"/>
-      <c r="AP38" s="31"/>
-      <c r="AQ38" s="31"/>
-      <c r="AR38" s="31"/>
-      <c r="AS38" s="31"/>
-      <c r="AT38" s="31"/>
-      <c r="AU38" s="31"/>
-      <c r="AV38" s="31"/>
-      <c r="AW38" s="31"/>
-      <c r="AX38" s="31"/>
-      <c r="AY38" s="31"/>
-      <c r="AZ38" s="31"/>
-      <c r="BA38" s="31"/>
-      <c r="BB38" s="31"/>
-      <c r="BC38" s="31"/>
-      <c r="BD38" s="31"/>
-      <c r="BE38" s="31"/>
-      <c r="BF38" s="31"/>
-      <c r="BG38" s="31"/>
-    </row>
-    <row r="39" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K39" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC39" s="31"/>
-      <c r="AD39" s="31"/>
-      <c r="AE39" s="31"/>
-      <c r="AF39" s="31"/>
-      <c r="AG39" s="31"/>
-      <c r="AH39" s="31"/>
-      <c r="AI39" s="31"/>
-      <c r="AJ39" s="31"/>
-      <c r="AK39" s="31"/>
-      <c r="AL39" s="31"/>
-      <c r="AM39" s="31"/>
-      <c r="AN39" s="31"/>
-      <c r="AO39" s="31"/>
-      <c r="AP39" s="31"/>
-      <c r="AQ39" s="31"/>
-      <c r="AR39" s="31"/>
-      <c r="AS39" s="31"/>
-      <c r="AT39" s="31"/>
-      <c r="AU39" s="31"/>
-      <c r="AV39" s="31"/>
-      <c r="AW39" s="31"/>
-      <c r="AX39" s="31"/>
-      <c r="AY39" s="31"/>
-      <c r="AZ39" s="31"/>
-      <c r="BA39" s="31"/>
-      <c r="BB39" s="31"/>
-      <c r="BC39" s="31"/>
-      <c r="BD39" s="31"/>
-      <c r="BE39" s="31"/>
-      <c r="BF39" s="31"/>
-      <c r="BG39" s="31"/>
-    </row>
-    <row r="40" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K40" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="W40" s="31"/>
-      <c r="X40" s="31"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="31"/>
-      <c r="AB40" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC40" s="31"/>
-      <c r="AD40" s="31"/>
-      <c r="AE40" s="31"/>
-      <c r="AF40" s="31"/>
-      <c r="AG40" s="31"/>
-      <c r="AH40" s="31"/>
-      <c r="AI40" s="31"/>
-      <c r="AJ40" s="31"/>
-      <c r="AK40" s="31"/>
-      <c r="AL40" s="31"/>
-      <c r="AM40" s="31"/>
-      <c r="AN40" s="31"/>
-      <c r="AO40" s="31"/>
-      <c r="AP40" s="31"/>
-      <c r="AQ40" s="31"/>
-      <c r="AR40" s="31"/>
-      <c r="AS40" s="31"/>
-      <c r="AT40" s="31"/>
-      <c r="AU40" s="31"/>
-      <c r="AV40" s="31"/>
-      <c r="AW40" s="31"/>
-      <c r="AX40" s="31"/>
-      <c r="AY40" s="31"/>
-      <c r="AZ40" s="31"/>
-      <c r="BA40" s="31"/>
-      <c r="BB40" s="31"/>
-      <c r="BC40" s="31"/>
-      <c r="BD40" s="31"/>
-      <c r="BE40" s="31"/>
-      <c r="BF40" s="31"/>
-      <c r="BG40" s="31"/>
-    </row>
-    <row r="41" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K41" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="31"/>
-      <c r="U41" s="31"/>
-      <c r="V41" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="W41" s="31"/>
-      <c r="X41" s="31"/>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC41" s="31"/>
-      <c r="AD41" s="31"/>
-      <c r="AE41" s="31"/>
-      <c r="AF41" s="31"/>
-      <c r="AG41" s="31"/>
-      <c r="AH41" s="31"/>
-      <c r="AI41" s="31"/>
-      <c r="AJ41" s="31"/>
-      <c r="AK41" s="31"/>
-      <c r="AL41" s="31"/>
-      <c r="AM41" s="31"/>
-      <c r="AN41" s="31"/>
-      <c r="AO41" s="31"/>
-      <c r="AP41" s="31"/>
-      <c r="AQ41" s="31"/>
-      <c r="AR41" s="31"/>
-      <c r="AS41" s="31"/>
-      <c r="AT41" s="31"/>
-      <c r="AU41" s="31"/>
-      <c r="AV41" s="31"/>
-      <c r="AW41" s="31"/>
-      <c r="AX41" s="31"/>
-      <c r="AY41" s="31"/>
-      <c r="AZ41" s="31"/>
-      <c r="BA41" s="31"/>
-      <c r="BB41" s="31"/>
-      <c r="BC41" s="31"/>
-      <c r="BD41" s="31"/>
-      <c r="BE41" s="31"/>
-      <c r="BF41" s="31"/>
-      <c r="BG41" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="K41:U41"/>
-    <mergeCell ref="V41:AA41"/>
-    <mergeCell ref="AB41:BG41"/>
-    <mergeCell ref="K40:U40"/>
-    <mergeCell ref="V40:AA40"/>
-    <mergeCell ref="AB40:BG40"/>
     <mergeCell ref="K39:U39"/>
     <mergeCell ref="V39:AA39"/>
     <mergeCell ref="AB39:BG39"/>
@@ -9229,10 +9085,12 @@
     <mergeCell ref="K38:U38"/>
     <mergeCell ref="V38:AA38"/>
     <mergeCell ref="AB38:BG38"/>
-    <mergeCell ref="AD32:AH32"/>
-    <mergeCell ref="K36:U36"/>
-    <mergeCell ref="V36:AA36"/>
-    <mergeCell ref="AB36:BG36"/>
+    <mergeCell ref="K41:U41"/>
+    <mergeCell ref="V41:AA41"/>
+    <mergeCell ref="AB41:BG41"/>
+    <mergeCell ref="K40:U40"/>
+    <mergeCell ref="V40:AA40"/>
+    <mergeCell ref="AB40:BG40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10253,197 +10111,191 @@
       <c r="AX27" s="60"/>
     </row>
     <row r="28" spans="11:50" x14ac:dyDescent="0.4">
-      <c r="K28" s="31" t="s">
+      <c r="K28" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31" t="s">
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="31"/>
-      <c r="AE28" s="31"/>
-      <c r="AF28" s="31"/>
-      <c r="AG28" s="31"/>
-      <c r="AH28" s="31"/>
-      <c r="AI28" s="31"/>
-      <c r="AJ28" s="31"/>
-      <c r="AK28" s="31"/>
-      <c r="AL28" s="31"/>
-      <c r="AM28" s="31"/>
-      <c r="AN28" s="31"/>
-      <c r="AO28" s="31"/>
-      <c r="AP28" s="31"/>
-      <c r="AQ28" s="31"/>
-      <c r="AR28" s="31"/>
-      <c r="AS28" s="31"/>
-      <c r="AT28" s="31"/>
-      <c r="AU28" s="31"/>
-      <c r="AV28" s="31"/>
-      <c r="AW28" s="31"/>
-      <c r="AX28" s="31"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="61"/>
+      <c r="AH28" s="61"/>
+      <c r="AI28" s="61"/>
+      <c r="AJ28" s="61"/>
+      <c r="AK28" s="61"/>
+      <c r="AL28" s="61"/>
+      <c r="AM28" s="61"/>
+      <c r="AN28" s="61"/>
+      <c r="AO28" s="61"/>
+      <c r="AP28" s="61"/>
+      <c r="AQ28" s="61"/>
+      <c r="AR28" s="61"/>
+      <c r="AS28" s="61"/>
+      <c r="AT28" s="61"/>
+      <c r="AU28" s="61"/>
+      <c r="AV28" s="61"/>
+      <c r="AW28" s="61"/>
+      <c r="AX28" s="61"/>
     </row>
     <row r="29" spans="11:50" x14ac:dyDescent="0.4">
-      <c r="K29" s="31" t="s">
+      <c r="K29" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31" t="s">
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
-      <c r="AD29" s="31"/>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="31"/>
-      <c r="AG29" s="31"/>
-      <c r="AH29" s="31"/>
-      <c r="AI29" s="31"/>
-      <c r="AJ29" s="31"/>
-      <c r="AK29" s="31"/>
-      <c r="AL29" s="31"/>
-      <c r="AM29" s="31"/>
-      <c r="AN29" s="31"/>
-      <c r="AO29" s="31"/>
-      <c r="AP29" s="31"/>
-      <c r="AQ29" s="31"/>
-      <c r="AR29" s="31"/>
-      <c r="AS29" s="31"/>
-      <c r="AT29" s="31"/>
-      <c r="AU29" s="31"/>
-      <c r="AV29" s="31"/>
-      <c r="AW29" s="31"/>
-      <c r="AX29" s="31"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="61"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="61"/>
+      <c r="Y29" s="61"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="61"/>
+      <c r="AB29" s="61"/>
+      <c r="AC29" s="61"/>
+      <c r="AD29" s="61"/>
+      <c r="AE29" s="61"/>
+      <c r="AF29" s="61"/>
+      <c r="AG29" s="61"/>
+      <c r="AH29" s="61"/>
+      <c r="AI29" s="61"/>
+      <c r="AJ29" s="61"/>
+      <c r="AK29" s="61"/>
+      <c r="AL29" s="61"/>
+      <c r="AM29" s="61"/>
+      <c r="AN29" s="61"/>
+      <c r="AO29" s="61"/>
+      <c r="AP29" s="61"/>
+      <c r="AQ29" s="61"/>
+      <c r="AR29" s="61"/>
+      <c r="AS29" s="61"/>
+      <c r="AT29" s="61"/>
+      <c r="AU29" s="61"/>
+      <c r="AV29" s="61"/>
+      <c r="AW29" s="61"/>
+      <c r="AX29" s="61"/>
     </row>
     <row r="30" spans="11:50" x14ac:dyDescent="0.4">
-      <c r="K30" s="31" t="s">
+      <c r="K30" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="s">
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="31"/>
-      <c r="AG30" s="31"/>
-      <c r="AH30" s="31"/>
-      <c r="AI30" s="31"/>
-      <c r="AJ30" s="31"/>
-      <c r="AK30" s="31"/>
-      <c r="AL30" s="31"/>
-      <c r="AM30" s="31"/>
-      <c r="AN30" s="31"/>
-      <c r="AO30" s="31"/>
-      <c r="AP30" s="31"/>
-      <c r="AQ30" s="31"/>
-      <c r="AR30" s="31"/>
-      <c r="AS30" s="31"/>
-      <c r="AT30" s="31"/>
-      <c r="AU30" s="31"/>
-      <c r="AV30" s="31"/>
-      <c r="AW30" s="31"/>
-      <c r="AX30" s="31"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="61"/>
+      <c r="V30" s="61"/>
+      <c r="W30" s="61"/>
+      <c r="X30" s="61"/>
+      <c r="Y30" s="61"/>
+      <c r="Z30" s="61"/>
+      <c r="AA30" s="61"/>
+      <c r="AB30" s="61"/>
+      <c r="AC30" s="61"/>
+      <c r="AD30" s="61"/>
+      <c r="AE30" s="61"/>
+      <c r="AF30" s="61"/>
+      <c r="AG30" s="61"/>
+      <c r="AH30" s="61"/>
+      <c r="AI30" s="61"/>
+      <c r="AJ30" s="61"/>
+      <c r="AK30" s="61"/>
+      <c r="AL30" s="61"/>
+      <c r="AM30" s="61"/>
+      <c r="AN30" s="61"/>
+      <c r="AO30" s="61"/>
+      <c r="AP30" s="61"/>
+      <c r="AQ30" s="61"/>
+      <c r="AR30" s="61"/>
+      <c r="AS30" s="61"/>
+      <c r="AT30" s="61"/>
+      <c r="AU30" s="61"/>
+      <c r="AV30" s="61"/>
+      <c r="AW30" s="61"/>
+      <c r="AX30" s="61"/>
     </row>
     <row r="31" spans="11:50" x14ac:dyDescent="0.4">
-      <c r="K31" s="31" t="s">
+      <c r="K31" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31" t="s">
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="31"/>
-      <c r="AD31" s="31"/>
-      <c r="AE31" s="31"/>
-      <c r="AF31" s="31"/>
-      <c r="AG31" s="31"/>
-      <c r="AH31" s="31"/>
-      <c r="AI31" s="31"/>
-      <c r="AJ31" s="31"/>
-      <c r="AK31" s="31"/>
-      <c r="AL31" s="31"/>
-      <c r="AM31" s="31"/>
-      <c r="AN31" s="31"/>
-      <c r="AO31" s="31"/>
-      <c r="AP31" s="31"/>
-      <c r="AQ31" s="31"/>
-      <c r="AR31" s="31"/>
-      <c r="AS31" s="31"/>
-      <c r="AT31" s="31"/>
-      <c r="AU31" s="31"/>
-      <c r="AV31" s="31"/>
-      <c r="AW31" s="31"/>
-      <c r="AX31" s="31"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="61"/>
+      <c r="V31" s="61"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="61"/>
+      <c r="Z31" s="61"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="61"/>
+      <c r="AC31" s="61"/>
+      <c r="AD31" s="61"/>
+      <c r="AE31" s="61"/>
+      <c r="AF31" s="61"/>
+      <c r="AG31" s="61"/>
+      <c r="AH31" s="61"/>
+      <c r="AI31" s="61"/>
+      <c r="AJ31" s="61"/>
+      <c r="AK31" s="61"/>
+      <c r="AL31" s="61"/>
+      <c r="AM31" s="61"/>
+      <c r="AN31" s="61"/>
+      <c r="AO31" s="61"/>
+      <c r="AP31" s="61"/>
+      <c r="AQ31" s="61"/>
+      <c r="AR31" s="61"/>
+      <c r="AS31" s="61"/>
+      <c r="AT31" s="61"/>
+      <c r="AU31" s="61"/>
+      <c r="AV31" s="61"/>
+      <c r="AW31" s="61"/>
+      <c r="AX31" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="K5:M6"/>
-    <mergeCell ref="K7:M24"/>
-    <mergeCell ref="N5:AX6"/>
-    <mergeCell ref="N7:AX24"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="O27:AX27"/>
     <mergeCell ref="K28:N28"/>
     <mergeCell ref="K29:N29"/>
     <mergeCell ref="K30:N30"/>
@@ -10452,6 +10304,12 @@
     <mergeCell ref="O29:AX29"/>
     <mergeCell ref="O30:AX30"/>
     <mergeCell ref="O31:AX31"/>
+    <mergeCell ref="K5:M6"/>
+    <mergeCell ref="K7:M24"/>
+    <mergeCell ref="N5:AX6"/>
+    <mergeCell ref="N7:AX24"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="O27:AX27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10650,84 +10508,84 @@
       <c r="L27" s="60"/>
       <c r="M27" s="60"/>
       <c r="N27" s="60"/>
-      <c r="O27" s="61" t="s">
+      <c r="O27" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="62"/>
-      <c r="AA27" s="62"/>
-      <c r="AB27" s="62"/>
-      <c r="AC27" s="62"/>
-      <c r="AD27" s="62"/>
-      <c r="AE27" s="62"/>
-      <c r="AF27" s="62"/>
-      <c r="AG27" s="62"/>
-      <c r="AH27" s="62"/>
-      <c r="AI27" s="62"/>
-      <c r="AJ27" s="62"/>
-      <c r="AK27" s="62"/>
-      <c r="AL27" s="62"/>
-      <c r="AM27" s="62"/>
-      <c r="AN27" s="62"/>
-      <c r="AO27" s="62"/>
-      <c r="AP27" s="62"/>
-      <c r="AQ27" s="62"/>
-      <c r="AR27" s="62"/>
-      <c r="AS27" s="62"/>
-      <c r="AT27" s="62"/>
-      <c r="AU27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="63"/>
+      <c r="AA27" s="63"/>
+      <c r="AB27" s="63"/>
+      <c r="AC27" s="63"/>
+      <c r="AD27" s="63"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
+      <c r="AG27" s="63"/>
+      <c r="AH27" s="63"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="63"/>
+      <c r="AK27" s="63"/>
+      <c r="AL27" s="63"/>
+      <c r="AM27" s="63"/>
+      <c r="AN27" s="63"/>
+      <c r="AO27" s="63"/>
+      <c r="AP27" s="63"/>
+      <c r="AQ27" s="63"/>
+      <c r="AR27" s="63"/>
+      <c r="AS27" s="63"/>
+      <c r="AT27" s="63"/>
+      <c r="AU27" s="64"/>
     </row>
     <row r="28" spans="11:47" x14ac:dyDescent="0.4">
-      <c r="K28" s="31" t="s">
+      <c r="K28" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="64" t="s">
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="65"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="65"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="65"/>
-      <c r="X28" s="65"/>
-      <c r="Y28" s="65"/>
-      <c r="Z28" s="65"/>
-      <c r="AA28" s="65"/>
-      <c r="AB28" s="65"/>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="65"/>
-      <c r="AE28" s="65"/>
-      <c r="AF28" s="65"/>
-      <c r="AG28" s="65"/>
-      <c r="AH28" s="65"/>
-      <c r="AI28" s="65"/>
-      <c r="AJ28" s="65"/>
-      <c r="AK28" s="65"/>
-      <c r="AL28" s="65"/>
-      <c r="AM28" s="65"/>
-      <c r="AN28" s="65"/>
-      <c r="AO28" s="65"/>
-      <c r="AP28" s="65"/>
-      <c r="AQ28" s="65"/>
-      <c r="AR28" s="65"/>
-      <c r="AS28" s="65"/>
-      <c r="AT28" s="65"/>
-      <c r="AU28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="66"/>
+      <c r="Y28" s="66"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="66"/>
+      <c r="AB28" s="66"/>
+      <c r="AC28" s="66"/>
+      <c r="AD28" s="66"/>
+      <c r="AE28" s="66"/>
+      <c r="AF28" s="66"/>
+      <c r="AG28" s="66"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="66"/>
+      <c r="AJ28" s="66"/>
+      <c r="AK28" s="66"/>
+      <c r="AL28" s="66"/>
+      <c r="AM28" s="66"/>
+      <c r="AN28" s="66"/>
+      <c r="AO28" s="66"/>
+      <c r="AP28" s="66"/>
+      <c r="AQ28" s="66"/>
+      <c r="AR28" s="66"/>
+      <c r="AS28" s="66"/>
+      <c r="AT28" s="66"/>
+      <c r="AU28" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11773,721 +11631,691 @@
       <c r="BG44" s="60"/>
     </row>
     <row r="45" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K45" s="31" t="s">
+      <c r="K45" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="31"/>
-      <c r="V45" s="31" t="s">
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="61"/>
+      <c r="S45" s="61"/>
+      <c r="T45" s="61"/>
+      <c r="U45" s="61"/>
+      <c r="V45" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="W45" s="31"/>
-      <c r="X45" s="31"/>
-      <c r="Y45" s="31"/>
-      <c r="Z45" s="31"/>
-      <c r="AA45" s="31"/>
-      <c r="AB45" s="31" t="s">
+      <c r="W45" s="61"/>
+      <c r="X45" s="61"/>
+      <c r="Y45" s="61"/>
+      <c r="Z45" s="61"/>
+      <c r="AA45" s="61"/>
+      <c r="AB45" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="AC45" s="31"/>
-      <c r="AD45" s="31"/>
-      <c r="AE45" s="31"/>
-      <c r="AF45" s="31"/>
-      <c r="AG45" s="31"/>
-      <c r="AH45" s="31"/>
-      <c r="AI45" s="31"/>
-      <c r="AJ45" s="31"/>
-      <c r="AK45" s="31"/>
-      <c r="AL45" s="31"/>
-      <c r="AM45" s="31"/>
-      <c r="AN45" s="31"/>
-      <c r="AO45" s="31"/>
-      <c r="AP45" s="31"/>
-      <c r="AQ45" s="31"/>
-      <c r="AR45" s="31"/>
-      <c r="AS45" s="31"/>
-      <c r="AT45" s="31"/>
-      <c r="AU45" s="31"/>
-      <c r="AV45" s="31"/>
-      <c r="AW45" s="31"/>
-      <c r="AX45" s="31"/>
-      <c r="AY45" s="31"/>
-      <c r="AZ45" s="31"/>
-      <c r="BA45" s="31"/>
-      <c r="BB45" s="31"/>
-      <c r="BC45" s="31"/>
-      <c r="BD45" s="31"/>
-      <c r="BE45" s="31"/>
-      <c r="BF45" s="31"/>
-      <c r="BG45" s="31"/>
+      <c r="AC45" s="61"/>
+      <c r="AD45" s="61"/>
+      <c r="AE45" s="61"/>
+      <c r="AF45" s="61"/>
+      <c r="AG45" s="61"/>
+      <c r="AH45" s="61"/>
+      <c r="AI45" s="61"/>
+      <c r="AJ45" s="61"/>
+      <c r="AK45" s="61"/>
+      <c r="AL45" s="61"/>
+      <c r="AM45" s="61"/>
+      <c r="AN45" s="61"/>
+      <c r="AO45" s="61"/>
+      <c r="AP45" s="61"/>
+      <c r="AQ45" s="61"/>
+      <c r="AR45" s="61"/>
+      <c r="AS45" s="61"/>
+      <c r="AT45" s="61"/>
+      <c r="AU45" s="61"/>
+      <c r="AV45" s="61"/>
+      <c r="AW45" s="61"/>
+      <c r="AX45" s="61"/>
+      <c r="AY45" s="61"/>
+      <c r="AZ45" s="61"/>
+      <c r="BA45" s="61"/>
+      <c r="BB45" s="61"/>
+      <c r="BC45" s="61"/>
+      <c r="BD45" s="61"/>
+      <c r="BE45" s="61"/>
+      <c r="BF45" s="61"/>
+      <c r="BG45" s="61"/>
     </row>
     <row r="46" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K46" s="31" t="s">
+      <c r="K46" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="31"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="31"/>
-      <c r="V46" s="31" t="s">
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="61"/>
+      <c r="S46" s="61"/>
+      <c r="T46" s="61"/>
+      <c r="U46" s="61"/>
+      <c r="V46" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="W46" s="31"/>
-      <c r="X46" s="31"/>
-      <c r="Y46" s="31"/>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="31"/>
-      <c r="AB46" s="31" t="s">
+      <c r="W46" s="61"/>
+      <c r="X46" s="61"/>
+      <c r="Y46" s="61"/>
+      <c r="Z46" s="61"/>
+      <c r="AA46" s="61"/>
+      <c r="AB46" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="AC46" s="31"/>
-      <c r="AD46" s="31"/>
-      <c r="AE46" s="31"/>
-      <c r="AF46" s="31"/>
-      <c r="AG46" s="31"/>
-      <c r="AH46" s="31"/>
-      <c r="AI46" s="31"/>
-      <c r="AJ46" s="31"/>
-      <c r="AK46" s="31"/>
-      <c r="AL46" s="31"/>
-      <c r="AM46" s="31"/>
-      <c r="AN46" s="31"/>
-      <c r="AO46" s="31"/>
-      <c r="AP46" s="31"/>
-      <c r="AQ46" s="31"/>
-      <c r="AR46" s="31"/>
-      <c r="AS46" s="31"/>
-      <c r="AT46" s="31"/>
-      <c r="AU46" s="31"/>
-      <c r="AV46" s="31"/>
-      <c r="AW46" s="31"/>
-      <c r="AX46" s="31"/>
-      <c r="AY46" s="31"/>
-      <c r="AZ46" s="31"/>
-      <c r="BA46" s="31"/>
-      <c r="BB46" s="31"/>
-      <c r="BC46" s="31"/>
-      <c r="BD46" s="31"/>
-      <c r="BE46" s="31"/>
-      <c r="BF46" s="31"/>
-      <c r="BG46" s="31"/>
+      <c r="AC46" s="61"/>
+      <c r="AD46" s="61"/>
+      <c r="AE46" s="61"/>
+      <c r="AF46" s="61"/>
+      <c r="AG46" s="61"/>
+      <c r="AH46" s="61"/>
+      <c r="AI46" s="61"/>
+      <c r="AJ46" s="61"/>
+      <c r="AK46" s="61"/>
+      <c r="AL46" s="61"/>
+      <c r="AM46" s="61"/>
+      <c r="AN46" s="61"/>
+      <c r="AO46" s="61"/>
+      <c r="AP46" s="61"/>
+      <c r="AQ46" s="61"/>
+      <c r="AR46" s="61"/>
+      <c r="AS46" s="61"/>
+      <c r="AT46" s="61"/>
+      <c r="AU46" s="61"/>
+      <c r="AV46" s="61"/>
+      <c r="AW46" s="61"/>
+      <c r="AX46" s="61"/>
+      <c r="AY46" s="61"/>
+      <c r="AZ46" s="61"/>
+      <c r="BA46" s="61"/>
+      <c r="BB46" s="61"/>
+      <c r="BC46" s="61"/>
+      <c r="BD46" s="61"/>
+      <c r="BE46" s="61"/>
+      <c r="BF46" s="61"/>
+      <c r="BG46" s="61"/>
     </row>
     <row r="47" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K47" s="31" t="s">
+      <c r="K47" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="31"/>
-      <c r="V47" s="31" t="s">
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="61"/>
+      <c r="R47" s="61"/>
+      <c r="S47" s="61"/>
+      <c r="T47" s="61"/>
+      <c r="U47" s="61"/>
+      <c r="V47" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="W47" s="31"/>
-      <c r="X47" s="31"/>
-      <c r="Y47" s="31"/>
-      <c r="Z47" s="31"/>
-      <c r="AA47" s="31"/>
-      <c r="AB47" s="31" t="s">
+      <c r="W47" s="61"/>
+      <c r="X47" s="61"/>
+      <c r="Y47" s="61"/>
+      <c r="Z47" s="61"/>
+      <c r="AA47" s="61"/>
+      <c r="AB47" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="AC47" s="31"/>
-      <c r="AD47" s="31"/>
-      <c r="AE47" s="31"/>
-      <c r="AF47" s="31"/>
-      <c r="AG47" s="31"/>
-      <c r="AH47" s="31"/>
-      <c r="AI47" s="31"/>
-      <c r="AJ47" s="31"/>
-      <c r="AK47" s="31"/>
-      <c r="AL47" s="31"/>
-      <c r="AM47" s="31"/>
-      <c r="AN47" s="31"/>
-      <c r="AO47" s="31"/>
-      <c r="AP47" s="31"/>
-      <c r="AQ47" s="31"/>
-      <c r="AR47" s="31"/>
-      <c r="AS47" s="31"/>
-      <c r="AT47" s="31"/>
-      <c r="AU47" s="31"/>
-      <c r="AV47" s="31"/>
-      <c r="AW47" s="31"/>
-      <c r="AX47" s="31"/>
-      <c r="AY47" s="31"/>
-      <c r="AZ47" s="31"/>
-      <c r="BA47" s="31"/>
-      <c r="BB47" s="31"/>
-      <c r="BC47" s="31"/>
-      <c r="BD47" s="31"/>
-      <c r="BE47" s="31"/>
-      <c r="BF47" s="31"/>
-      <c r="BG47" s="31"/>
+      <c r="AC47" s="61"/>
+      <c r="AD47" s="61"/>
+      <c r="AE47" s="61"/>
+      <c r="AF47" s="61"/>
+      <c r="AG47" s="61"/>
+      <c r="AH47" s="61"/>
+      <c r="AI47" s="61"/>
+      <c r="AJ47" s="61"/>
+      <c r="AK47" s="61"/>
+      <c r="AL47" s="61"/>
+      <c r="AM47" s="61"/>
+      <c r="AN47" s="61"/>
+      <c r="AO47" s="61"/>
+      <c r="AP47" s="61"/>
+      <c r="AQ47" s="61"/>
+      <c r="AR47" s="61"/>
+      <c r="AS47" s="61"/>
+      <c r="AT47" s="61"/>
+      <c r="AU47" s="61"/>
+      <c r="AV47" s="61"/>
+      <c r="AW47" s="61"/>
+      <c r="AX47" s="61"/>
+      <c r="AY47" s="61"/>
+      <c r="AZ47" s="61"/>
+      <c r="BA47" s="61"/>
+      <c r="BB47" s="61"/>
+      <c r="BC47" s="61"/>
+      <c r="BD47" s="61"/>
+      <c r="BE47" s="61"/>
+      <c r="BF47" s="61"/>
+      <c r="BG47" s="61"/>
     </row>
     <row r="48" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K48" s="31" t="s">
+      <c r="K48" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="31"/>
-      <c r="T48" s="31"/>
-      <c r="U48" s="31"/>
-      <c r="V48" s="31" t="s">
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="61"/>
+      <c r="T48" s="61"/>
+      <c r="U48" s="61"/>
+      <c r="V48" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="W48" s="31"/>
-      <c r="X48" s="31"/>
-      <c r="Y48" s="31"/>
-      <c r="Z48" s="31"/>
-      <c r="AA48" s="31"/>
-      <c r="AB48" s="31" t="s">
+      <c r="W48" s="61"/>
+      <c r="X48" s="61"/>
+      <c r="Y48" s="61"/>
+      <c r="Z48" s="61"/>
+      <c r="AA48" s="61"/>
+      <c r="AB48" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="AC48" s="31"/>
-      <c r="AD48" s="31"/>
-      <c r="AE48" s="31"/>
-      <c r="AF48" s="31"/>
-      <c r="AG48" s="31"/>
-      <c r="AH48" s="31"/>
-      <c r="AI48" s="31"/>
-      <c r="AJ48" s="31"/>
-      <c r="AK48" s="31"/>
-      <c r="AL48" s="31"/>
-      <c r="AM48" s="31"/>
-      <c r="AN48" s="31"/>
-      <c r="AO48" s="31"/>
-      <c r="AP48" s="31"/>
-      <c r="AQ48" s="31"/>
-      <c r="AR48" s="31"/>
-      <c r="AS48" s="31"/>
-      <c r="AT48" s="31"/>
-      <c r="AU48" s="31"/>
-      <c r="AV48" s="31"/>
-      <c r="AW48" s="31"/>
-      <c r="AX48" s="31"/>
-      <c r="AY48" s="31"/>
-      <c r="AZ48" s="31"/>
-      <c r="BA48" s="31"/>
-      <c r="BB48" s="31"/>
-      <c r="BC48" s="31"/>
-      <c r="BD48" s="31"/>
-      <c r="BE48" s="31"/>
-      <c r="BF48" s="31"/>
-      <c r="BG48" s="31"/>
+      <c r="AC48" s="61"/>
+      <c r="AD48" s="61"/>
+      <c r="AE48" s="61"/>
+      <c r="AF48" s="61"/>
+      <c r="AG48" s="61"/>
+      <c r="AH48" s="61"/>
+      <c r="AI48" s="61"/>
+      <c r="AJ48" s="61"/>
+      <c r="AK48" s="61"/>
+      <c r="AL48" s="61"/>
+      <c r="AM48" s="61"/>
+      <c r="AN48" s="61"/>
+      <c r="AO48" s="61"/>
+      <c r="AP48" s="61"/>
+      <c r="AQ48" s="61"/>
+      <c r="AR48" s="61"/>
+      <c r="AS48" s="61"/>
+      <c r="AT48" s="61"/>
+      <c r="AU48" s="61"/>
+      <c r="AV48" s="61"/>
+      <c r="AW48" s="61"/>
+      <c r="AX48" s="61"/>
+      <c r="AY48" s="61"/>
+      <c r="AZ48" s="61"/>
+      <c r="BA48" s="61"/>
+      <c r="BB48" s="61"/>
+      <c r="BC48" s="61"/>
+      <c r="BD48" s="61"/>
+      <c r="BE48" s="61"/>
+      <c r="BF48" s="61"/>
+      <c r="BG48" s="61"/>
     </row>
     <row r="49" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K49" s="31" t="s">
+      <c r="K49" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="31"/>
-      <c r="U49" s="31"/>
-      <c r="V49" s="31" t="s">
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="61"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="61"/>
+      <c r="S49" s="61"/>
+      <c r="T49" s="61"/>
+      <c r="U49" s="61"/>
+      <c r="V49" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="W49" s="31"/>
-      <c r="X49" s="31"/>
-      <c r="Y49" s="31"/>
-      <c r="Z49" s="31"/>
-      <c r="AA49" s="31"/>
-      <c r="AB49" s="31" t="s">
+      <c r="W49" s="61"/>
+      <c r="X49" s="61"/>
+      <c r="Y49" s="61"/>
+      <c r="Z49" s="61"/>
+      <c r="AA49" s="61"/>
+      <c r="AB49" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="AC49" s="31"/>
-      <c r="AD49" s="31"/>
-      <c r="AE49" s="31"/>
-      <c r="AF49" s="31"/>
-      <c r="AG49" s="31"/>
-      <c r="AH49" s="31"/>
-      <c r="AI49" s="31"/>
-      <c r="AJ49" s="31"/>
-      <c r="AK49" s="31"/>
-      <c r="AL49" s="31"/>
-      <c r="AM49" s="31"/>
-      <c r="AN49" s="31"/>
-      <c r="AO49" s="31"/>
-      <c r="AP49" s="31"/>
-      <c r="AQ49" s="31"/>
-      <c r="AR49" s="31"/>
-      <c r="AS49" s="31"/>
-      <c r="AT49" s="31"/>
-      <c r="AU49" s="31"/>
-      <c r="AV49" s="31"/>
-      <c r="AW49" s="31"/>
-      <c r="AX49" s="31"/>
-      <c r="AY49" s="31"/>
-      <c r="AZ49" s="31"/>
-      <c r="BA49" s="31"/>
-      <c r="BB49" s="31"/>
-      <c r="BC49" s="31"/>
-      <c r="BD49" s="31"/>
-      <c r="BE49" s="31"/>
-      <c r="BF49" s="31"/>
-      <c r="BG49" s="31"/>
+      <c r="AC49" s="61"/>
+      <c r="AD49" s="61"/>
+      <c r="AE49" s="61"/>
+      <c r="AF49" s="61"/>
+      <c r="AG49" s="61"/>
+      <c r="AH49" s="61"/>
+      <c r="AI49" s="61"/>
+      <c r="AJ49" s="61"/>
+      <c r="AK49" s="61"/>
+      <c r="AL49" s="61"/>
+      <c r="AM49" s="61"/>
+      <c r="AN49" s="61"/>
+      <c r="AO49" s="61"/>
+      <c r="AP49" s="61"/>
+      <c r="AQ49" s="61"/>
+      <c r="AR49" s="61"/>
+      <c r="AS49" s="61"/>
+      <c r="AT49" s="61"/>
+      <c r="AU49" s="61"/>
+      <c r="AV49" s="61"/>
+      <c r="AW49" s="61"/>
+      <c r="AX49" s="61"/>
+      <c r="AY49" s="61"/>
+      <c r="AZ49" s="61"/>
+      <c r="BA49" s="61"/>
+      <c r="BB49" s="61"/>
+      <c r="BC49" s="61"/>
+      <c r="BD49" s="61"/>
+      <c r="BE49" s="61"/>
+      <c r="BF49" s="61"/>
+      <c r="BG49" s="61"/>
     </row>
     <row r="50" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K50" s="31" t="s">
+      <c r="K50" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="31"/>
-      <c r="R50" s="31"/>
-      <c r="S50" s="31"/>
-      <c r="T50" s="31"/>
-      <c r="U50" s="31"/>
-      <c r="V50" s="31" t="s">
+      <c r="L50" s="61"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="61"/>
+      <c r="P50" s="61"/>
+      <c r="Q50" s="61"/>
+      <c r="R50" s="61"/>
+      <c r="S50" s="61"/>
+      <c r="T50" s="61"/>
+      <c r="U50" s="61"/>
+      <c r="V50" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="W50" s="31"/>
-      <c r="X50" s="31"/>
-      <c r="Y50" s="31"/>
-      <c r="Z50" s="31"/>
-      <c r="AA50" s="31"/>
-      <c r="AB50" s="31" t="s">
+      <c r="W50" s="61"/>
+      <c r="X50" s="61"/>
+      <c r="Y50" s="61"/>
+      <c r="Z50" s="61"/>
+      <c r="AA50" s="61"/>
+      <c r="AB50" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="AC50" s="31"/>
-      <c r="AD50" s="31"/>
-      <c r="AE50" s="31"/>
-      <c r="AF50" s="31"/>
-      <c r="AG50" s="31"/>
-      <c r="AH50" s="31"/>
-      <c r="AI50" s="31"/>
-      <c r="AJ50" s="31"/>
-      <c r="AK50" s="31"/>
-      <c r="AL50" s="31"/>
-      <c r="AM50" s="31"/>
-      <c r="AN50" s="31"/>
-      <c r="AO50" s="31"/>
-      <c r="AP50" s="31"/>
-      <c r="AQ50" s="31"/>
-      <c r="AR50" s="31"/>
-      <c r="AS50" s="31"/>
-      <c r="AT50" s="31"/>
-      <c r="AU50" s="31"/>
-      <c r="AV50" s="31"/>
-      <c r="AW50" s="31"/>
-      <c r="AX50" s="31"/>
-      <c r="AY50" s="31"/>
-      <c r="AZ50" s="31"/>
-      <c r="BA50" s="31"/>
-      <c r="BB50" s="31"/>
-      <c r="BC50" s="31"/>
-      <c r="BD50" s="31"/>
-      <c r="BE50" s="31"/>
-      <c r="BF50" s="31"/>
-      <c r="BG50" s="31"/>
+      <c r="AC50" s="61"/>
+      <c r="AD50" s="61"/>
+      <c r="AE50" s="61"/>
+      <c r="AF50" s="61"/>
+      <c r="AG50" s="61"/>
+      <c r="AH50" s="61"/>
+      <c r="AI50" s="61"/>
+      <c r="AJ50" s="61"/>
+      <c r="AK50" s="61"/>
+      <c r="AL50" s="61"/>
+      <c r="AM50" s="61"/>
+      <c r="AN50" s="61"/>
+      <c r="AO50" s="61"/>
+      <c r="AP50" s="61"/>
+      <c r="AQ50" s="61"/>
+      <c r="AR50" s="61"/>
+      <c r="AS50" s="61"/>
+      <c r="AT50" s="61"/>
+      <c r="AU50" s="61"/>
+      <c r="AV50" s="61"/>
+      <c r="AW50" s="61"/>
+      <c r="AX50" s="61"/>
+      <c r="AY50" s="61"/>
+      <c r="AZ50" s="61"/>
+      <c r="BA50" s="61"/>
+      <c r="BB50" s="61"/>
+      <c r="BC50" s="61"/>
+      <c r="BD50" s="61"/>
+      <c r="BE50" s="61"/>
+      <c r="BF50" s="61"/>
+      <c r="BG50" s="61"/>
     </row>
     <row r="51" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K51" s="31" t="s">
+      <c r="K51" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="31"/>
-      <c r="T51" s="31"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="31" t="s">
+      <c r="L51" s="61"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="61"/>
+      <c r="S51" s="61"/>
+      <c r="T51" s="61"/>
+      <c r="U51" s="61"/>
+      <c r="V51" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="W51" s="31"/>
-      <c r="X51" s="31"/>
-      <c r="Y51" s="31"/>
-      <c r="Z51" s="31"/>
-      <c r="AA51" s="31"/>
-      <c r="AB51" s="31" t="s">
+      <c r="W51" s="61"/>
+      <c r="X51" s="61"/>
+      <c r="Y51" s="61"/>
+      <c r="Z51" s="61"/>
+      <c r="AA51" s="61"/>
+      <c r="AB51" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="AC51" s="31"/>
-      <c r="AD51" s="31"/>
-      <c r="AE51" s="31"/>
-      <c r="AF51" s="31"/>
-      <c r="AG51" s="31"/>
-      <c r="AH51" s="31"/>
-      <c r="AI51" s="31"/>
-      <c r="AJ51" s="31"/>
-      <c r="AK51" s="31"/>
-      <c r="AL51" s="31"/>
-      <c r="AM51" s="31"/>
-      <c r="AN51" s="31"/>
-      <c r="AO51" s="31"/>
-      <c r="AP51" s="31"/>
-      <c r="AQ51" s="31"/>
-      <c r="AR51" s="31"/>
-      <c r="AS51" s="31"/>
-      <c r="AT51" s="31"/>
-      <c r="AU51" s="31"/>
-      <c r="AV51" s="31"/>
-      <c r="AW51" s="31"/>
-      <c r="AX51" s="31"/>
-      <c r="AY51" s="31"/>
-      <c r="AZ51" s="31"/>
-      <c r="BA51" s="31"/>
-      <c r="BB51" s="31"/>
-      <c r="BC51" s="31"/>
-      <c r="BD51" s="31"/>
-      <c r="BE51" s="31"/>
-      <c r="BF51" s="31"/>
-      <c r="BG51" s="31"/>
+      <c r="AC51" s="61"/>
+      <c r="AD51" s="61"/>
+      <c r="AE51" s="61"/>
+      <c r="AF51" s="61"/>
+      <c r="AG51" s="61"/>
+      <c r="AH51" s="61"/>
+      <c r="AI51" s="61"/>
+      <c r="AJ51" s="61"/>
+      <c r="AK51" s="61"/>
+      <c r="AL51" s="61"/>
+      <c r="AM51" s="61"/>
+      <c r="AN51" s="61"/>
+      <c r="AO51" s="61"/>
+      <c r="AP51" s="61"/>
+      <c r="AQ51" s="61"/>
+      <c r="AR51" s="61"/>
+      <c r="AS51" s="61"/>
+      <c r="AT51" s="61"/>
+      <c r="AU51" s="61"/>
+      <c r="AV51" s="61"/>
+      <c r="AW51" s="61"/>
+      <c r="AX51" s="61"/>
+      <c r="AY51" s="61"/>
+      <c r="AZ51" s="61"/>
+      <c r="BA51" s="61"/>
+      <c r="BB51" s="61"/>
+      <c r="BC51" s="61"/>
+      <c r="BD51" s="61"/>
+      <c r="BE51" s="61"/>
+      <c r="BF51" s="61"/>
+      <c r="BG51" s="61"/>
     </row>
     <row r="52" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K52" s="31" t="s">
+      <c r="K52" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="31"/>
-      <c r="U52" s="31"/>
-      <c r="V52" s="31" t="s">
+      <c r="L52" s="61"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="61"/>
+      <c r="P52" s="61"/>
+      <c r="Q52" s="61"/>
+      <c r="R52" s="61"/>
+      <c r="S52" s="61"/>
+      <c r="T52" s="61"/>
+      <c r="U52" s="61"/>
+      <c r="V52" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="W52" s="31"/>
-      <c r="X52" s="31"/>
-      <c r="Y52" s="31"/>
-      <c r="Z52" s="31"/>
-      <c r="AA52" s="31"/>
-      <c r="AB52" s="31" t="s">
+      <c r="W52" s="61"/>
+      <c r="X52" s="61"/>
+      <c r="Y52" s="61"/>
+      <c r="Z52" s="61"/>
+      <c r="AA52" s="61"/>
+      <c r="AB52" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="AC52" s="31"/>
-      <c r="AD52" s="31"/>
-      <c r="AE52" s="31"/>
-      <c r="AF52" s="31"/>
-      <c r="AG52" s="31"/>
-      <c r="AH52" s="31"/>
-      <c r="AI52" s="31"/>
-      <c r="AJ52" s="31"/>
-      <c r="AK52" s="31"/>
-      <c r="AL52" s="31"/>
-      <c r="AM52" s="31"/>
-      <c r="AN52" s="31"/>
-      <c r="AO52" s="31"/>
-      <c r="AP52" s="31"/>
-      <c r="AQ52" s="31"/>
-      <c r="AR52" s="31"/>
-      <c r="AS52" s="31"/>
-      <c r="AT52" s="31"/>
-      <c r="AU52" s="31"/>
-      <c r="AV52" s="31"/>
-      <c r="AW52" s="31"/>
-      <c r="AX52" s="31"/>
-      <c r="AY52" s="31"/>
-      <c r="AZ52" s="31"/>
-      <c r="BA52" s="31"/>
-      <c r="BB52" s="31"/>
-      <c r="BC52" s="31"/>
-      <c r="BD52" s="31"/>
-      <c r="BE52" s="31"/>
-      <c r="BF52" s="31"/>
-      <c r="BG52" s="31"/>
+      <c r="AC52" s="61"/>
+      <c r="AD52" s="61"/>
+      <c r="AE52" s="61"/>
+      <c r="AF52" s="61"/>
+      <c r="AG52" s="61"/>
+      <c r="AH52" s="61"/>
+      <c r="AI52" s="61"/>
+      <c r="AJ52" s="61"/>
+      <c r="AK52" s="61"/>
+      <c r="AL52" s="61"/>
+      <c r="AM52" s="61"/>
+      <c r="AN52" s="61"/>
+      <c r="AO52" s="61"/>
+      <c r="AP52" s="61"/>
+      <c r="AQ52" s="61"/>
+      <c r="AR52" s="61"/>
+      <c r="AS52" s="61"/>
+      <c r="AT52" s="61"/>
+      <c r="AU52" s="61"/>
+      <c r="AV52" s="61"/>
+      <c r="AW52" s="61"/>
+      <c r="AX52" s="61"/>
+      <c r="AY52" s="61"/>
+      <c r="AZ52" s="61"/>
+      <c r="BA52" s="61"/>
+      <c r="BB52" s="61"/>
+      <c r="BC52" s="61"/>
+      <c r="BD52" s="61"/>
+      <c r="BE52" s="61"/>
+      <c r="BF52" s="61"/>
+      <c r="BG52" s="61"/>
     </row>
     <row r="53" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K53" s="31" t="s">
+      <c r="K53" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="31"/>
-      <c r="T53" s="31"/>
-      <c r="U53" s="31"/>
-      <c r="V53" s="31" t="s">
+      <c r="L53" s="61"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="61"/>
+      <c r="R53" s="61"/>
+      <c r="S53" s="61"/>
+      <c r="T53" s="61"/>
+      <c r="U53" s="61"/>
+      <c r="V53" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="W53" s="31"/>
-      <c r="X53" s="31"/>
-      <c r="Y53" s="31"/>
-      <c r="Z53" s="31"/>
-      <c r="AA53" s="31"/>
-      <c r="AB53" s="31" t="s">
+      <c r="W53" s="61"/>
+      <c r="X53" s="61"/>
+      <c r="Y53" s="61"/>
+      <c r="Z53" s="61"/>
+      <c r="AA53" s="61"/>
+      <c r="AB53" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="AC53" s="31"/>
-      <c r="AD53" s="31"/>
-      <c r="AE53" s="31"/>
-      <c r="AF53" s="31"/>
-      <c r="AG53" s="31"/>
-      <c r="AH53" s="31"/>
-      <c r="AI53" s="31"/>
-      <c r="AJ53" s="31"/>
-      <c r="AK53" s="31"/>
-      <c r="AL53" s="31"/>
-      <c r="AM53" s="31"/>
-      <c r="AN53" s="31"/>
-      <c r="AO53" s="31"/>
-      <c r="AP53" s="31"/>
-      <c r="AQ53" s="31"/>
-      <c r="AR53" s="31"/>
-      <c r="AS53" s="31"/>
-      <c r="AT53" s="31"/>
-      <c r="AU53" s="31"/>
-      <c r="AV53" s="31"/>
-      <c r="AW53" s="31"/>
-      <c r="AX53" s="31"/>
-      <c r="AY53" s="31"/>
-      <c r="AZ53" s="31"/>
-      <c r="BA53" s="31"/>
-      <c r="BB53" s="31"/>
-      <c r="BC53" s="31"/>
-      <c r="BD53" s="31"/>
-      <c r="BE53" s="31"/>
-      <c r="BF53" s="31"/>
-      <c r="BG53" s="31"/>
+      <c r="AC53" s="61"/>
+      <c r="AD53" s="61"/>
+      <c r="AE53" s="61"/>
+      <c r="AF53" s="61"/>
+      <c r="AG53" s="61"/>
+      <c r="AH53" s="61"/>
+      <c r="AI53" s="61"/>
+      <c r="AJ53" s="61"/>
+      <c r="AK53" s="61"/>
+      <c r="AL53" s="61"/>
+      <c r="AM53" s="61"/>
+      <c r="AN53" s="61"/>
+      <c r="AO53" s="61"/>
+      <c r="AP53" s="61"/>
+      <c r="AQ53" s="61"/>
+      <c r="AR53" s="61"/>
+      <c r="AS53" s="61"/>
+      <c r="AT53" s="61"/>
+      <c r="AU53" s="61"/>
+      <c r="AV53" s="61"/>
+      <c r="AW53" s="61"/>
+      <c r="AX53" s="61"/>
+      <c r="AY53" s="61"/>
+      <c r="AZ53" s="61"/>
+      <c r="BA53" s="61"/>
+      <c r="BB53" s="61"/>
+      <c r="BC53" s="61"/>
+      <c r="BD53" s="61"/>
+      <c r="BE53" s="61"/>
+      <c r="BF53" s="61"/>
+      <c r="BG53" s="61"/>
     </row>
     <row r="54" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K54" s="31" t="s">
+      <c r="K54" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="31"/>
-      <c r="T54" s="31"/>
-      <c r="U54" s="31"/>
-      <c r="V54" s="31" t="s">
+      <c r="L54" s="61"/>
+      <c r="M54" s="61"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="61"/>
+      <c r="P54" s="61"/>
+      <c r="Q54" s="61"/>
+      <c r="R54" s="61"/>
+      <c r="S54" s="61"/>
+      <c r="T54" s="61"/>
+      <c r="U54" s="61"/>
+      <c r="V54" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="W54" s="31"/>
-      <c r="X54" s="31"/>
-      <c r="Y54" s="31"/>
-      <c r="Z54" s="31"/>
-      <c r="AA54" s="31"/>
-      <c r="AB54" s="31" t="s">
+      <c r="W54" s="61"/>
+      <c r="X54" s="61"/>
+      <c r="Y54" s="61"/>
+      <c r="Z54" s="61"/>
+      <c r="AA54" s="61"/>
+      <c r="AB54" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="AC54" s="31"/>
-      <c r="AD54" s="31"/>
-      <c r="AE54" s="31"/>
-      <c r="AF54" s="31"/>
-      <c r="AG54" s="31"/>
-      <c r="AH54" s="31"/>
-      <c r="AI54" s="31"/>
-      <c r="AJ54" s="31"/>
-      <c r="AK54" s="31"/>
-      <c r="AL54" s="31"/>
-      <c r="AM54" s="31"/>
-      <c r="AN54" s="31"/>
-      <c r="AO54" s="31"/>
-      <c r="AP54" s="31"/>
-      <c r="AQ54" s="31"/>
-      <c r="AR54" s="31"/>
-      <c r="AS54" s="31"/>
-      <c r="AT54" s="31"/>
-      <c r="AU54" s="31"/>
-      <c r="AV54" s="31"/>
-      <c r="AW54" s="31"/>
-      <c r="AX54" s="31"/>
-      <c r="AY54" s="31"/>
-      <c r="AZ54" s="31"/>
-      <c r="BA54" s="31"/>
-      <c r="BB54" s="31"/>
-      <c r="BC54" s="31"/>
-      <c r="BD54" s="31"/>
-      <c r="BE54" s="31"/>
-      <c r="BF54" s="31"/>
-      <c r="BG54" s="31"/>
+      <c r="AC54" s="61"/>
+      <c r="AD54" s="61"/>
+      <c r="AE54" s="61"/>
+      <c r="AF54" s="61"/>
+      <c r="AG54" s="61"/>
+      <c r="AH54" s="61"/>
+      <c r="AI54" s="61"/>
+      <c r="AJ54" s="61"/>
+      <c r="AK54" s="61"/>
+      <c r="AL54" s="61"/>
+      <c r="AM54" s="61"/>
+      <c r="AN54" s="61"/>
+      <c r="AO54" s="61"/>
+      <c r="AP54" s="61"/>
+      <c r="AQ54" s="61"/>
+      <c r="AR54" s="61"/>
+      <c r="AS54" s="61"/>
+      <c r="AT54" s="61"/>
+      <c r="AU54" s="61"/>
+      <c r="AV54" s="61"/>
+      <c r="AW54" s="61"/>
+      <c r="AX54" s="61"/>
+      <c r="AY54" s="61"/>
+      <c r="AZ54" s="61"/>
+      <c r="BA54" s="61"/>
+      <c r="BB54" s="61"/>
+      <c r="BC54" s="61"/>
+      <c r="BD54" s="61"/>
+      <c r="BE54" s="61"/>
+      <c r="BF54" s="61"/>
+      <c r="BG54" s="61"/>
     </row>
     <row r="55" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K55" s="31" t="s">
+      <c r="K55" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="31"/>
-      <c r="S55" s="31"/>
-      <c r="T55" s="31"/>
-      <c r="U55" s="31"/>
-      <c r="V55" s="31" t="s">
+      <c r="L55" s="61"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="61"/>
+      <c r="O55" s="61"/>
+      <c r="P55" s="61"/>
+      <c r="Q55" s="61"/>
+      <c r="R55" s="61"/>
+      <c r="S55" s="61"/>
+      <c r="T55" s="61"/>
+      <c r="U55" s="61"/>
+      <c r="V55" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="W55" s="31"/>
-      <c r="X55" s="31"/>
-      <c r="Y55" s="31"/>
-      <c r="Z55" s="31"/>
-      <c r="AA55" s="31"/>
-      <c r="AB55" s="31" t="s">
+      <c r="W55" s="61"/>
+      <c r="X55" s="61"/>
+      <c r="Y55" s="61"/>
+      <c r="Z55" s="61"/>
+      <c r="AA55" s="61"/>
+      <c r="AB55" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AC55" s="31"/>
-      <c r="AD55" s="31"/>
-      <c r="AE55" s="31"/>
-      <c r="AF55" s="31"/>
-      <c r="AG55" s="31"/>
-      <c r="AH55" s="31"/>
-      <c r="AI55" s="31"/>
-      <c r="AJ55" s="31"/>
-      <c r="AK55" s="31"/>
-      <c r="AL55" s="31"/>
-      <c r="AM55" s="31"/>
-      <c r="AN55" s="31"/>
-      <c r="AO55" s="31"/>
-      <c r="AP55" s="31"/>
-      <c r="AQ55" s="31"/>
-      <c r="AR55" s="31"/>
-      <c r="AS55" s="31"/>
-      <c r="AT55" s="31"/>
-      <c r="AU55" s="31"/>
-      <c r="AV55" s="31"/>
-      <c r="AW55" s="31"/>
-      <c r="AX55" s="31"/>
-      <c r="AY55" s="31"/>
-      <c r="AZ55" s="31"/>
-      <c r="BA55" s="31"/>
-      <c r="BB55" s="31"/>
-      <c r="BC55" s="31"/>
-      <c r="BD55" s="31"/>
-      <c r="BE55" s="31"/>
-      <c r="BF55" s="31"/>
-      <c r="BG55" s="31"/>
+      <c r="AC55" s="61"/>
+      <c r="AD55" s="61"/>
+      <c r="AE55" s="61"/>
+      <c r="AF55" s="61"/>
+      <c r="AG55" s="61"/>
+      <c r="AH55" s="61"/>
+      <c r="AI55" s="61"/>
+      <c r="AJ55" s="61"/>
+      <c r="AK55" s="61"/>
+      <c r="AL55" s="61"/>
+      <c r="AM55" s="61"/>
+      <c r="AN55" s="61"/>
+      <c r="AO55" s="61"/>
+      <c r="AP55" s="61"/>
+      <c r="AQ55" s="61"/>
+      <c r="AR55" s="61"/>
+      <c r="AS55" s="61"/>
+      <c r="AT55" s="61"/>
+      <c r="AU55" s="61"/>
+      <c r="AV55" s="61"/>
+      <c r="AW55" s="61"/>
+      <c r="AX55" s="61"/>
+      <c r="AY55" s="61"/>
+      <c r="AZ55" s="61"/>
+      <c r="BA55" s="61"/>
+      <c r="BB55" s="61"/>
+      <c r="BC55" s="61"/>
+      <c r="BD55" s="61"/>
+      <c r="BE55" s="61"/>
+      <c r="BF55" s="61"/>
+      <c r="BG55" s="61"/>
     </row>
     <row r="56" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K56" s="31" t="s">
+      <c r="K56" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="31"/>
-      <c r="V56" s="31" t="s">
+      <c r="L56" s="61"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="61"/>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="61"/>
+      <c r="R56" s="61"/>
+      <c r="S56" s="61"/>
+      <c r="T56" s="61"/>
+      <c r="U56" s="61"/>
+      <c r="V56" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="W56" s="31"/>
-      <c r="X56" s="31"/>
-      <c r="Y56" s="31"/>
-      <c r="Z56" s="31"/>
-      <c r="AA56" s="31"/>
-      <c r="AB56" s="31" t="s">
+      <c r="W56" s="61"/>
+      <c r="X56" s="61"/>
+      <c r="Y56" s="61"/>
+      <c r="Z56" s="61"/>
+      <c r="AA56" s="61"/>
+      <c r="AB56" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="AC56" s="31"/>
-      <c r="AD56" s="31"/>
-      <c r="AE56" s="31"/>
-      <c r="AF56" s="31"/>
-      <c r="AG56" s="31"/>
-      <c r="AH56" s="31"/>
-      <c r="AI56" s="31"/>
-      <c r="AJ56" s="31"/>
-      <c r="AK56" s="31"/>
-      <c r="AL56" s="31"/>
-      <c r="AM56" s="31"/>
-      <c r="AN56" s="31"/>
-      <c r="AO56" s="31"/>
-      <c r="AP56" s="31"/>
-      <c r="AQ56" s="31"/>
-      <c r="AR56" s="31"/>
-      <c r="AS56" s="31"/>
-      <c r="AT56" s="31"/>
-      <c r="AU56" s="31"/>
-      <c r="AV56" s="31"/>
-      <c r="AW56" s="31"/>
-      <c r="AX56" s="31"/>
-      <c r="AY56" s="31"/>
-      <c r="AZ56" s="31"/>
-      <c r="BA56" s="31"/>
-      <c r="BB56" s="31"/>
-      <c r="BC56" s="31"/>
-      <c r="BD56" s="31"/>
-      <c r="BE56" s="31"/>
-      <c r="BF56" s="31"/>
-      <c r="BG56" s="31"/>
+      <c r="AC56" s="61"/>
+      <c r="AD56" s="61"/>
+      <c r="AE56" s="61"/>
+      <c r="AF56" s="61"/>
+      <c r="AG56" s="61"/>
+      <c r="AH56" s="61"/>
+      <c r="AI56" s="61"/>
+      <c r="AJ56" s="61"/>
+      <c r="AK56" s="61"/>
+      <c r="AL56" s="61"/>
+      <c r="AM56" s="61"/>
+      <c r="AN56" s="61"/>
+      <c r="AO56" s="61"/>
+      <c r="AP56" s="61"/>
+      <c r="AQ56" s="61"/>
+      <c r="AR56" s="61"/>
+      <c r="AS56" s="61"/>
+      <c r="AT56" s="61"/>
+      <c r="AU56" s="61"/>
+      <c r="AV56" s="61"/>
+      <c r="AW56" s="61"/>
+      <c r="AX56" s="61"/>
+      <c r="AY56" s="61"/>
+      <c r="AZ56" s="61"/>
+      <c r="BA56" s="61"/>
+      <c r="BB56" s="61"/>
+      <c r="BC56" s="61"/>
+      <c r="BD56" s="61"/>
+      <c r="BE56" s="61"/>
+      <c r="BF56" s="61"/>
+      <c r="BG56" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="K44:U44"/>
-    <mergeCell ref="AB44:BG44"/>
-    <mergeCell ref="K45:U45"/>
-    <mergeCell ref="AB45:BG45"/>
-    <mergeCell ref="K46:U46"/>
-    <mergeCell ref="AB46:BG46"/>
-    <mergeCell ref="K47:U47"/>
-    <mergeCell ref="AB47:BG47"/>
-    <mergeCell ref="K48:U48"/>
-    <mergeCell ref="AB48:BG48"/>
-    <mergeCell ref="K49:U49"/>
-    <mergeCell ref="AB49:BG49"/>
-    <mergeCell ref="K50:U50"/>
-    <mergeCell ref="AB50:BG50"/>
-    <mergeCell ref="K51:U51"/>
-    <mergeCell ref="AB51:BG51"/>
-    <mergeCell ref="V49:AA49"/>
-    <mergeCell ref="V50:AA50"/>
-    <mergeCell ref="V51:AA51"/>
-    <mergeCell ref="K52:U52"/>
-    <mergeCell ref="AB52:BG52"/>
-    <mergeCell ref="K53:U53"/>
-    <mergeCell ref="AB53:BG53"/>
-    <mergeCell ref="V52:AA52"/>
-    <mergeCell ref="V53:AA53"/>
-    <mergeCell ref="V44:AA44"/>
-    <mergeCell ref="V45:AA45"/>
-    <mergeCell ref="V46:AA46"/>
-    <mergeCell ref="V47:AA47"/>
-    <mergeCell ref="V48:AA48"/>
     <mergeCell ref="V54:AA54"/>
     <mergeCell ref="V55:AA55"/>
     <mergeCell ref="V56:AA56"/>
@@ -12497,6 +12325,36 @@
     <mergeCell ref="K55:U55"/>
     <mergeCell ref="AB55:BG55"/>
     <mergeCell ref="K56:U56"/>
+    <mergeCell ref="K52:U52"/>
+    <mergeCell ref="AB52:BG52"/>
+    <mergeCell ref="K53:U53"/>
+    <mergeCell ref="AB53:BG53"/>
+    <mergeCell ref="V52:AA52"/>
+    <mergeCell ref="V53:AA53"/>
+    <mergeCell ref="K50:U50"/>
+    <mergeCell ref="AB50:BG50"/>
+    <mergeCell ref="K51:U51"/>
+    <mergeCell ref="AB51:BG51"/>
+    <mergeCell ref="V49:AA49"/>
+    <mergeCell ref="V50:AA50"/>
+    <mergeCell ref="V51:AA51"/>
+    <mergeCell ref="K47:U47"/>
+    <mergeCell ref="AB47:BG47"/>
+    <mergeCell ref="K48:U48"/>
+    <mergeCell ref="AB48:BG48"/>
+    <mergeCell ref="K49:U49"/>
+    <mergeCell ref="AB49:BG49"/>
+    <mergeCell ref="V47:AA47"/>
+    <mergeCell ref="V48:AA48"/>
+    <mergeCell ref="K44:U44"/>
+    <mergeCell ref="AB44:BG44"/>
+    <mergeCell ref="K45:U45"/>
+    <mergeCell ref="AB45:BG45"/>
+    <mergeCell ref="K46:U46"/>
+    <mergeCell ref="AB46:BG46"/>
+    <mergeCell ref="V44:AA44"/>
+    <mergeCell ref="V45:AA45"/>
+    <mergeCell ref="V46:AA46"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13535,520 +13393,535 @@
       <c r="BG44" s="60"/>
     </row>
     <row r="45" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K45" s="31" t="s">
+      <c r="K45" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="31"/>
-      <c r="V45" s="31" t="s">
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="61"/>
+      <c r="S45" s="61"/>
+      <c r="T45" s="61"/>
+      <c r="U45" s="61"/>
+      <c r="V45" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="W45" s="31"/>
-      <c r="X45" s="31"/>
-      <c r="Y45" s="31"/>
-      <c r="Z45" s="31"/>
-      <c r="AA45" s="31"/>
-      <c r="AB45" s="31" t="s">
+      <c r="W45" s="61"/>
+      <c r="X45" s="61"/>
+      <c r="Y45" s="61"/>
+      <c r="Z45" s="61"/>
+      <c r="AA45" s="61"/>
+      <c r="AB45" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="AC45" s="31"/>
-      <c r="AD45" s="31"/>
-      <c r="AE45" s="31"/>
-      <c r="AF45" s="31"/>
-      <c r="AG45" s="31"/>
-      <c r="AH45" s="31"/>
-      <c r="AI45" s="31"/>
-      <c r="AJ45" s="31"/>
-      <c r="AK45" s="31"/>
-      <c r="AL45" s="31"/>
-      <c r="AM45" s="31"/>
-      <c r="AN45" s="31"/>
-      <c r="AO45" s="31"/>
-      <c r="AP45" s="31"/>
-      <c r="AQ45" s="31"/>
-      <c r="AR45" s="31"/>
-      <c r="AS45" s="31"/>
-      <c r="AT45" s="31"/>
-      <c r="AU45" s="31"/>
-      <c r="AV45" s="31"/>
-      <c r="AW45" s="31"/>
-      <c r="AX45" s="31"/>
-      <c r="AY45" s="31"/>
-      <c r="AZ45" s="31"/>
-      <c r="BA45" s="31"/>
-      <c r="BB45" s="31"/>
-      <c r="BC45" s="31"/>
-      <c r="BD45" s="31"/>
-      <c r="BE45" s="31"/>
-      <c r="BF45" s="31"/>
-      <c r="BG45" s="31"/>
+      <c r="AC45" s="61"/>
+      <c r="AD45" s="61"/>
+      <c r="AE45" s="61"/>
+      <c r="AF45" s="61"/>
+      <c r="AG45" s="61"/>
+      <c r="AH45" s="61"/>
+      <c r="AI45" s="61"/>
+      <c r="AJ45" s="61"/>
+      <c r="AK45" s="61"/>
+      <c r="AL45" s="61"/>
+      <c r="AM45" s="61"/>
+      <c r="AN45" s="61"/>
+      <c r="AO45" s="61"/>
+      <c r="AP45" s="61"/>
+      <c r="AQ45" s="61"/>
+      <c r="AR45" s="61"/>
+      <c r="AS45" s="61"/>
+      <c r="AT45" s="61"/>
+      <c r="AU45" s="61"/>
+      <c r="AV45" s="61"/>
+      <c r="AW45" s="61"/>
+      <c r="AX45" s="61"/>
+      <c r="AY45" s="61"/>
+      <c r="AZ45" s="61"/>
+      <c r="BA45" s="61"/>
+      <c r="BB45" s="61"/>
+      <c r="BC45" s="61"/>
+      <c r="BD45" s="61"/>
+      <c r="BE45" s="61"/>
+      <c r="BF45" s="61"/>
+      <c r="BG45" s="61"/>
     </row>
     <row r="46" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K46" s="31" t="s">
+      <c r="K46" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="31"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="31"/>
-      <c r="V46" s="31" t="s">
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="61"/>
+      <c r="S46" s="61"/>
+      <c r="T46" s="61"/>
+      <c r="U46" s="61"/>
+      <c r="V46" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="W46" s="31"/>
-      <c r="X46" s="31"/>
-      <c r="Y46" s="31"/>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="31"/>
-      <c r="AB46" s="31" t="s">
+      <c r="W46" s="61"/>
+      <c r="X46" s="61"/>
+      <c r="Y46" s="61"/>
+      <c r="Z46" s="61"/>
+      <c r="AA46" s="61"/>
+      <c r="AB46" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="AC46" s="31"/>
-      <c r="AD46" s="31"/>
-      <c r="AE46" s="31"/>
-      <c r="AF46" s="31"/>
-      <c r="AG46" s="31"/>
-      <c r="AH46" s="31"/>
-      <c r="AI46" s="31"/>
-      <c r="AJ46" s="31"/>
-      <c r="AK46" s="31"/>
-      <c r="AL46" s="31"/>
-      <c r="AM46" s="31"/>
-      <c r="AN46" s="31"/>
-      <c r="AO46" s="31"/>
-      <c r="AP46" s="31"/>
-      <c r="AQ46" s="31"/>
-      <c r="AR46" s="31"/>
-      <c r="AS46" s="31"/>
-      <c r="AT46" s="31"/>
-      <c r="AU46" s="31"/>
-      <c r="AV46" s="31"/>
-      <c r="AW46" s="31"/>
-      <c r="AX46" s="31"/>
-      <c r="AY46" s="31"/>
-      <c r="AZ46" s="31"/>
-      <c r="BA46" s="31"/>
-      <c r="BB46" s="31"/>
-      <c r="BC46" s="31"/>
-      <c r="BD46" s="31"/>
-      <c r="BE46" s="31"/>
-      <c r="BF46" s="31"/>
-      <c r="BG46" s="31"/>
+      <c r="AC46" s="61"/>
+      <c r="AD46" s="61"/>
+      <c r="AE46" s="61"/>
+      <c r="AF46" s="61"/>
+      <c r="AG46" s="61"/>
+      <c r="AH46" s="61"/>
+      <c r="AI46" s="61"/>
+      <c r="AJ46" s="61"/>
+      <c r="AK46" s="61"/>
+      <c r="AL46" s="61"/>
+      <c r="AM46" s="61"/>
+      <c r="AN46" s="61"/>
+      <c r="AO46" s="61"/>
+      <c r="AP46" s="61"/>
+      <c r="AQ46" s="61"/>
+      <c r="AR46" s="61"/>
+      <c r="AS46" s="61"/>
+      <c r="AT46" s="61"/>
+      <c r="AU46" s="61"/>
+      <c r="AV46" s="61"/>
+      <c r="AW46" s="61"/>
+      <c r="AX46" s="61"/>
+      <c r="AY46" s="61"/>
+      <c r="AZ46" s="61"/>
+      <c r="BA46" s="61"/>
+      <c r="BB46" s="61"/>
+      <c r="BC46" s="61"/>
+      <c r="BD46" s="61"/>
+      <c r="BE46" s="61"/>
+      <c r="BF46" s="61"/>
+      <c r="BG46" s="61"/>
     </row>
     <row r="47" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K47" s="31" t="s">
+      <c r="K47" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="31"/>
-      <c r="V47" s="31" t="s">
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="61"/>
+      <c r="R47" s="61"/>
+      <c r="S47" s="61"/>
+      <c r="T47" s="61"/>
+      <c r="U47" s="61"/>
+      <c r="V47" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="W47" s="31"/>
-      <c r="X47" s="31"/>
-      <c r="Y47" s="31"/>
-      <c r="Z47" s="31"/>
-      <c r="AA47" s="31"/>
-      <c r="AB47" s="31" t="s">
+      <c r="W47" s="61"/>
+      <c r="X47" s="61"/>
+      <c r="Y47" s="61"/>
+      <c r="Z47" s="61"/>
+      <c r="AA47" s="61"/>
+      <c r="AB47" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="AC47" s="31"/>
-      <c r="AD47" s="31"/>
-      <c r="AE47" s="31"/>
-      <c r="AF47" s="31"/>
-      <c r="AG47" s="31"/>
-      <c r="AH47" s="31"/>
-      <c r="AI47" s="31"/>
-      <c r="AJ47" s="31"/>
-      <c r="AK47" s="31"/>
-      <c r="AL47" s="31"/>
-      <c r="AM47" s="31"/>
-      <c r="AN47" s="31"/>
-      <c r="AO47" s="31"/>
-      <c r="AP47" s="31"/>
-      <c r="AQ47" s="31"/>
-      <c r="AR47" s="31"/>
-      <c r="AS47" s="31"/>
-      <c r="AT47" s="31"/>
-      <c r="AU47" s="31"/>
-      <c r="AV47" s="31"/>
-      <c r="AW47" s="31"/>
-      <c r="AX47" s="31"/>
-      <c r="AY47" s="31"/>
-      <c r="AZ47" s="31"/>
-      <c r="BA47" s="31"/>
-      <c r="BB47" s="31"/>
-      <c r="BC47" s="31"/>
-      <c r="BD47" s="31"/>
-      <c r="BE47" s="31"/>
-      <c r="BF47" s="31"/>
-      <c r="BG47" s="31"/>
+      <c r="AC47" s="61"/>
+      <c r="AD47" s="61"/>
+      <c r="AE47" s="61"/>
+      <c r="AF47" s="61"/>
+      <c r="AG47" s="61"/>
+      <c r="AH47" s="61"/>
+      <c r="AI47" s="61"/>
+      <c r="AJ47" s="61"/>
+      <c r="AK47" s="61"/>
+      <c r="AL47" s="61"/>
+      <c r="AM47" s="61"/>
+      <c r="AN47" s="61"/>
+      <c r="AO47" s="61"/>
+      <c r="AP47" s="61"/>
+      <c r="AQ47" s="61"/>
+      <c r="AR47" s="61"/>
+      <c r="AS47" s="61"/>
+      <c r="AT47" s="61"/>
+      <c r="AU47" s="61"/>
+      <c r="AV47" s="61"/>
+      <c r="AW47" s="61"/>
+      <c r="AX47" s="61"/>
+      <c r="AY47" s="61"/>
+      <c r="AZ47" s="61"/>
+      <c r="BA47" s="61"/>
+      <c r="BB47" s="61"/>
+      <c r="BC47" s="61"/>
+      <c r="BD47" s="61"/>
+      <c r="BE47" s="61"/>
+      <c r="BF47" s="61"/>
+      <c r="BG47" s="61"/>
     </row>
     <row r="48" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K48" s="31" t="s">
+      <c r="K48" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="31"/>
-      <c r="T48" s="31"/>
-      <c r="U48" s="31"/>
-      <c r="V48" s="31" t="s">
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="61"/>
+      <c r="T48" s="61"/>
+      <c r="U48" s="61"/>
+      <c r="V48" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="W48" s="31"/>
-      <c r="X48" s="31"/>
-      <c r="Y48" s="31"/>
-      <c r="Z48" s="31"/>
-      <c r="AA48" s="31"/>
-      <c r="AB48" s="31" t="s">
+      <c r="W48" s="61"/>
+      <c r="X48" s="61"/>
+      <c r="Y48" s="61"/>
+      <c r="Z48" s="61"/>
+      <c r="AA48" s="61"/>
+      <c r="AB48" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="AC48" s="31"/>
-      <c r="AD48" s="31"/>
-      <c r="AE48" s="31"/>
-      <c r="AF48" s="31"/>
-      <c r="AG48" s="31"/>
-      <c r="AH48" s="31"/>
-      <c r="AI48" s="31"/>
-      <c r="AJ48" s="31"/>
-      <c r="AK48" s="31"/>
-      <c r="AL48" s="31"/>
-      <c r="AM48" s="31"/>
-      <c r="AN48" s="31"/>
-      <c r="AO48" s="31"/>
-      <c r="AP48" s="31"/>
-      <c r="AQ48" s="31"/>
-      <c r="AR48" s="31"/>
-      <c r="AS48" s="31"/>
-      <c r="AT48" s="31"/>
-      <c r="AU48" s="31"/>
-      <c r="AV48" s="31"/>
-      <c r="AW48" s="31"/>
-      <c r="AX48" s="31"/>
-      <c r="AY48" s="31"/>
-      <c r="AZ48" s="31"/>
-      <c r="BA48" s="31"/>
-      <c r="BB48" s="31"/>
-      <c r="BC48" s="31"/>
-      <c r="BD48" s="31"/>
-      <c r="BE48" s="31"/>
-      <c r="BF48" s="31"/>
-      <c r="BG48" s="31"/>
+      <c r="AC48" s="61"/>
+      <c r="AD48" s="61"/>
+      <c r="AE48" s="61"/>
+      <c r="AF48" s="61"/>
+      <c r="AG48" s="61"/>
+      <c r="AH48" s="61"/>
+      <c r="AI48" s="61"/>
+      <c r="AJ48" s="61"/>
+      <c r="AK48" s="61"/>
+      <c r="AL48" s="61"/>
+      <c r="AM48" s="61"/>
+      <c r="AN48" s="61"/>
+      <c r="AO48" s="61"/>
+      <c r="AP48" s="61"/>
+      <c r="AQ48" s="61"/>
+      <c r="AR48" s="61"/>
+      <c r="AS48" s="61"/>
+      <c r="AT48" s="61"/>
+      <c r="AU48" s="61"/>
+      <c r="AV48" s="61"/>
+      <c r="AW48" s="61"/>
+      <c r="AX48" s="61"/>
+      <c r="AY48" s="61"/>
+      <c r="AZ48" s="61"/>
+      <c r="BA48" s="61"/>
+      <c r="BB48" s="61"/>
+      <c r="BC48" s="61"/>
+      <c r="BD48" s="61"/>
+      <c r="BE48" s="61"/>
+      <c r="BF48" s="61"/>
+      <c r="BG48" s="61"/>
     </row>
     <row r="49" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K49" s="31" t="s">
+      <c r="K49" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="31"/>
-      <c r="U49" s="31"/>
-      <c r="V49" s="31" t="s">
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="61"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="61"/>
+      <c r="S49" s="61"/>
+      <c r="T49" s="61"/>
+      <c r="U49" s="61"/>
+      <c r="V49" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="W49" s="31"/>
-      <c r="X49" s="31"/>
-      <c r="Y49" s="31"/>
-      <c r="Z49" s="31"/>
-      <c r="AA49" s="31"/>
-      <c r="AB49" s="31" t="s">
+      <c r="W49" s="61"/>
+      <c r="X49" s="61"/>
+      <c r="Y49" s="61"/>
+      <c r="Z49" s="61"/>
+      <c r="AA49" s="61"/>
+      <c r="AB49" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="AC49" s="31"/>
-      <c r="AD49" s="31"/>
-      <c r="AE49" s="31"/>
-      <c r="AF49" s="31"/>
-      <c r="AG49" s="31"/>
-      <c r="AH49" s="31"/>
-      <c r="AI49" s="31"/>
-      <c r="AJ49" s="31"/>
-      <c r="AK49" s="31"/>
-      <c r="AL49" s="31"/>
-      <c r="AM49" s="31"/>
-      <c r="AN49" s="31"/>
-      <c r="AO49" s="31"/>
-      <c r="AP49" s="31"/>
-      <c r="AQ49" s="31"/>
-      <c r="AR49" s="31"/>
-      <c r="AS49" s="31"/>
-      <c r="AT49" s="31"/>
-      <c r="AU49" s="31"/>
-      <c r="AV49" s="31"/>
-      <c r="AW49" s="31"/>
-      <c r="AX49" s="31"/>
-      <c r="AY49" s="31"/>
-      <c r="AZ49" s="31"/>
-      <c r="BA49" s="31"/>
-      <c r="BB49" s="31"/>
-      <c r="BC49" s="31"/>
-      <c r="BD49" s="31"/>
-      <c r="BE49" s="31"/>
-      <c r="BF49" s="31"/>
-      <c r="BG49" s="31"/>
+      <c r="AC49" s="61"/>
+      <c r="AD49" s="61"/>
+      <c r="AE49" s="61"/>
+      <c r="AF49" s="61"/>
+      <c r="AG49" s="61"/>
+      <c r="AH49" s="61"/>
+      <c r="AI49" s="61"/>
+      <c r="AJ49" s="61"/>
+      <c r="AK49" s="61"/>
+      <c r="AL49" s="61"/>
+      <c r="AM49" s="61"/>
+      <c r="AN49" s="61"/>
+      <c r="AO49" s="61"/>
+      <c r="AP49" s="61"/>
+      <c r="AQ49" s="61"/>
+      <c r="AR49" s="61"/>
+      <c r="AS49" s="61"/>
+      <c r="AT49" s="61"/>
+      <c r="AU49" s="61"/>
+      <c r="AV49" s="61"/>
+      <c r="AW49" s="61"/>
+      <c r="AX49" s="61"/>
+      <c r="AY49" s="61"/>
+      <c r="AZ49" s="61"/>
+      <c r="BA49" s="61"/>
+      <c r="BB49" s="61"/>
+      <c r="BC49" s="61"/>
+      <c r="BD49" s="61"/>
+      <c r="BE49" s="61"/>
+      <c r="BF49" s="61"/>
+      <c r="BG49" s="61"/>
     </row>
     <row r="50" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K50" s="31" t="s">
+      <c r="K50" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="31"/>
-      <c r="R50" s="31"/>
-      <c r="S50" s="31"/>
-      <c r="T50" s="31"/>
-      <c r="U50" s="31"/>
-      <c r="V50" s="31" t="s">
+      <c r="L50" s="61"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="61"/>
+      <c r="P50" s="61"/>
+      <c r="Q50" s="61"/>
+      <c r="R50" s="61"/>
+      <c r="S50" s="61"/>
+      <c r="T50" s="61"/>
+      <c r="U50" s="61"/>
+      <c r="V50" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="W50" s="31"/>
-      <c r="X50" s="31"/>
-      <c r="Y50" s="31"/>
-      <c r="Z50" s="31"/>
-      <c r="AA50" s="31"/>
-      <c r="AB50" s="31" t="s">
+      <c r="W50" s="61"/>
+      <c r="X50" s="61"/>
+      <c r="Y50" s="61"/>
+      <c r="Z50" s="61"/>
+      <c r="AA50" s="61"/>
+      <c r="AB50" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="AC50" s="31"/>
-      <c r="AD50" s="31"/>
-      <c r="AE50" s="31"/>
-      <c r="AF50" s="31"/>
-      <c r="AG50" s="31"/>
-      <c r="AH50" s="31"/>
-      <c r="AI50" s="31"/>
-      <c r="AJ50" s="31"/>
-      <c r="AK50" s="31"/>
-      <c r="AL50" s="31"/>
-      <c r="AM50" s="31"/>
-      <c r="AN50" s="31"/>
-      <c r="AO50" s="31"/>
-      <c r="AP50" s="31"/>
-      <c r="AQ50" s="31"/>
-      <c r="AR50" s="31"/>
-      <c r="AS50" s="31"/>
-      <c r="AT50" s="31"/>
-      <c r="AU50" s="31"/>
-      <c r="AV50" s="31"/>
-      <c r="AW50" s="31"/>
-      <c r="AX50" s="31"/>
-      <c r="AY50" s="31"/>
-      <c r="AZ50" s="31"/>
-      <c r="BA50" s="31"/>
-      <c r="BB50" s="31"/>
-      <c r="BC50" s="31"/>
-      <c r="BD50" s="31"/>
-      <c r="BE50" s="31"/>
-      <c r="BF50" s="31"/>
-      <c r="BG50" s="31"/>
+      <c r="AC50" s="61"/>
+      <c r="AD50" s="61"/>
+      <c r="AE50" s="61"/>
+      <c r="AF50" s="61"/>
+      <c r="AG50" s="61"/>
+      <c r="AH50" s="61"/>
+      <c r="AI50" s="61"/>
+      <c r="AJ50" s="61"/>
+      <c r="AK50" s="61"/>
+      <c r="AL50" s="61"/>
+      <c r="AM50" s="61"/>
+      <c r="AN50" s="61"/>
+      <c r="AO50" s="61"/>
+      <c r="AP50" s="61"/>
+      <c r="AQ50" s="61"/>
+      <c r="AR50" s="61"/>
+      <c r="AS50" s="61"/>
+      <c r="AT50" s="61"/>
+      <c r="AU50" s="61"/>
+      <c r="AV50" s="61"/>
+      <c r="AW50" s="61"/>
+      <c r="AX50" s="61"/>
+      <c r="AY50" s="61"/>
+      <c r="AZ50" s="61"/>
+      <c r="BA50" s="61"/>
+      <c r="BB50" s="61"/>
+      <c r="BC50" s="61"/>
+      <c r="BD50" s="61"/>
+      <c r="BE50" s="61"/>
+      <c r="BF50" s="61"/>
+      <c r="BG50" s="61"/>
     </row>
     <row r="51" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K51" s="31" t="s">
+      <c r="K51" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="31"/>
-      <c r="T51" s="31"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="31" t="s">
+      <c r="L51" s="61"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="61"/>
+      <c r="S51" s="61"/>
+      <c r="T51" s="61"/>
+      <c r="U51" s="61"/>
+      <c r="V51" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="W51" s="31"/>
-      <c r="X51" s="31"/>
-      <c r="Y51" s="31"/>
-      <c r="Z51" s="31"/>
-      <c r="AA51" s="31"/>
-      <c r="AB51" s="31" t="s">
+      <c r="W51" s="61"/>
+      <c r="X51" s="61"/>
+      <c r="Y51" s="61"/>
+      <c r="Z51" s="61"/>
+      <c r="AA51" s="61"/>
+      <c r="AB51" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="AC51" s="31"/>
-      <c r="AD51" s="31"/>
-      <c r="AE51" s="31"/>
-      <c r="AF51" s="31"/>
-      <c r="AG51" s="31"/>
-      <c r="AH51" s="31"/>
-      <c r="AI51" s="31"/>
-      <c r="AJ51" s="31"/>
-      <c r="AK51" s="31"/>
-      <c r="AL51" s="31"/>
-      <c r="AM51" s="31"/>
-      <c r="AN51" s="31"/>
-      <c r="AO51" s="31"/>
-      <c r="AP51" s="31"/>
-      <c r="AQ51" s="31"/>
-      <c r="AR51" s="31"/>
-      <c r="AS51" s="31"/>
-      <c r="AT51" s="31"/>
-      <c r="AU51" s="31"/>
-      <c r="AV51" s="31"/>
-      <c r="AW51" s="31"/>
-      <c r="AX51" s="31"/>
-      <c r="AY51" s="31"/>
-      <c r="AZ51" s="31"/>
-      <c r="BA51" s="31"/>
-      <c r="BB51" s="31"/>
-      <c r="BC51" s="31"/>
-      <c r="BD51" s="31"/>
-      <c r="BE51" s="31"/>
-      <c r="BF51" s="31"/>
-      <c r="BG51" s="31"/>
+      <c r="AC51" s="61"/>
+      <c r="AD51" s="61"/>
+      <c r="AE51" s="61"/>
+      <c r="AF51" s="61"/>
+      <c r="AG51" s="61"/>
+      <c r="AH51" s="61"/>
+      <c r="AI51" s="61"/>
+      <c r="AJ51" s="61"/>
+      <c r="AK51" s="61"/>
+      <c r="AL51" s="61"/>
+      <c r="AM51" s="61"/>
+      <c r="AN51" s="61"/>
+      <c r="AO51" s="61"/>
+      <c r="AP51" s="61"/>
+      <c r="AQ51" s="61"/>
+      <c r="AR51" s="61"/>
+      <c r="AS51" s="61"/>
+      <c r="AT51" s="61"/>
+      <c r="AU51" s="61"/>
+      <c r="AV51" s="61"/>
+      <c r="AW51" s="61"/>
+      <c r="AX51" s="61"/>
+      <c r="AY51" s="61"/>
+      <c r="AZ51" s="61"/>
+      <c r="BA51" s="61"/>
+      <c r="BB51" s="61"/>
+      <c r="BC51" s="61"/>
+      <c r="BD51" s="61"/>
+      <c r="BE51" s="61"/>
+      <c r="BF51" s="61"/>
+      <c r="BG51" s="61"/>
     </row>
     <row r="52" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K52" s="31" t="s">
+      <c r="K52" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="31"/>
-      <c r="U52" s="31"/>
-      <c r="V52" s="31" t="s">
+      <c r="L52" s="61"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="61"/>
+      <c r="P52" s="61"/>
+      <c r="Q52" s="61"/>
+      <c r="R52" s="61"/>
+      <c r="S52" s="61"/>
+      <c r="T52" s="61"/>
+      <c r="U52" s="61"/>
+      <c r="V52" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="W52" s="31"/>
-      <c r="X52" s="31"/>
-      <c r="Y52" s="31"/>
-      <c r="Z52" s="31"/>
-      <c r="AA52" s="31"/>
-      <c r="AB52" s="31" t="s">
+      <c r="W52" s="61"/>
+      <c r="X52" s="61"/>
+      <c r="Y52" s="61"/>
+      <c r="Z52" s="61"/>
+      <c r="AA52" s="61"/>
+      <c r="AB52" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AC52" s="31"/>
-      <c r="AD52" s="31"/>
-      <c r="AE52" s="31"/>
-      <c r="AF52" s="31"/>
-      <c r="AG52" s="31"/>
-      <c r="AH52" s="31"/>
-      <c r="AI52" s="31"/>
-      <c r="AJ52" s="31"/>
-      <c r="AK52" s="31"/>
-      <c r="AL52" s="31"/>
-      <c r="AM52" s="31"/>
-      <c r="AN52" s="31"/>
-      <c r="AO52" s="31"/>
-      <c r="AP52" s="31"/>
-      <c r="AQ52" s="31"/>
-      <c r="AR52" s="31"/>
-      <c r="AS52" s="31"/>
-      <c r="AT52" s="31"/>
-      <c r="AU52" s="31"/>
-      <c r="AV52" s="31"/>
-      <c r="AW52" s="31"/>
-      <c r="AX52" s="31"/>
-      <c r="AY52" s="31"/>
-      <c r="AZ52" s="31"/>
-      <c r="BA52" s="31"/>
-      <c r="BB52" s="31"/>
-      <c r="BC52" s="31"/>
-      <c r="BD52" s="31"/>
-      <c r="BE52" s="31"/>
-      <c r="BF52" s="31"/>
-      <c r="BG52" s="31"/>
+      <c r="AC52" s="61"/>
+      <c r="AD52" s="61"/>
+      <c r="AE52" s="61"/>
+      <c r="AF52" s="61"/>
+      <c r="AG52" s="61"/>
+      <c r="AH52" s="61"/>
+      <c r="AI52" s="61"/>
+      <c r="AJ52" s="61"/>
+      <c r="AK52" s="61"/>
+      <c r="AL52" s="61"/>
+      <c r="AM52" s="61"/>
+      <c r="AN52" s="61"/>
+      <c r="AO52" s="61"/>
+      <c r="AP52" s="61"/>
+      <c r="AQ52" s="61"/>
+      <c r="AR52" s="61"/>
+      <c r="AS52" s="61"/>
+      <c r="AT52" s="61"/>
+      <c r="AU52" s="61"/>
+      <c r="AV52" s="61"/>
+      <c r="AW52" s="61"/>
+      <c r="AX52" s="61"/>
+      <c r="AY52" s="61"/>
+      <c r="AZ52" s="61"/>
+      <c r="BA52" s="61"/>
+      <c r="BB52" s="61"/>
+      <c r="BC52" s="61"/>
+      <c r="BD52" s="61"/>
+      <c r="BE52" s="61"/>
+      <c r="BF52" s="61"/>
+      <c r="BG52" s="61"/>
     </row>
     <row r="53" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K53" s="31" t="s">
+      <c r="K53" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="31"/>
-      <c r="T53" s="31"/>
-      <c r="U53" s="31"/>
-      <c r="V53" s="31" t="s">
+      <c r="L53" s="61"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="61"/>
+      <c r="R53" s="61"/>
+      <c r="S53" s="61"/>
+      <c r="T53" s="61"/>
+      <c r="U53" s="61"/>
+      <c r="V53" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="W53" s="31"/>
-      <c r="X53" s="31"/>
-      <c r="Y53" s="31"/>
-      <c r="Z53" s="31"/>
-      <c r="AA53" s="31"/>
-      <c r="AB53" s="31" t="s">
+      <c r="W53" s="61"/>
+      <c r="X53" s="61"/>
+      <c r="Y53" s="61"/>
+      <c r="Z53" s="61"/>
+      <c r="AA53" s="61"/>
+      <c r="AB53" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="AC53" s="31"/>
-      <c r="AD53" s="31"/>
-      <c r="AE53" s="31"/>
-      <c r="AF53" s="31"/>
-      <c r="AG53" s="31"/>
-      <c r="AH53" s="31"/>
-      <c r="AI53" s="31"/>
-      <c r="AJ53" s="31"/>
-      <c r="AK53" s="31"/>
-      <c r="AL53" s="31"/>
-      <c r="AM53" s="31"/>
-      <c r="AN53" s="31"/>
-      <c r="AO53" s="31"/>
-      <c r="AP53" s="31"/>
-      <c r="AQ53" s="31"/>
-      <c r="AR53" s="31"/>
-      <c r="AS53" s="31"/>
-      <c r="AT53" s="31"/>
-      <c r="AU53" s="31"/>
-      <c r="AV53" s="31"/>
-      <c r="AW53" s="31"/>
-      <c r="AX53" s="31"/>
-      <c r="AY53" s="31"/>
-      <c r="AZ53" s="31"/>
-      <c r="BA53" s="31"/>
-      <c r="BB53" s="31"/>
-      <c r="BC53" s="31"/>
-      <c r="BD53" s="31"/>
-      <c r="BE53" s="31"/>
-      <c r="BF53" s="31"/>
-      <c r="BG53" s="31"/>
+      <c r="AC53" s="61"/>
+      <c r="AD53" s="61"/>
+      <c r="AE53" s="61"/>
+      <c r="AF53" s="61"/>
+      <c r="AG53" s="61"/>
+      <c r="AH53" s="61"/>
+      <c r="AI53" s="61"/>
+      <c r="AJ53" s="61"/>
+      <c r="AK53" s="61"/>
+      <c r="AL53" s="61"/>
+      <c r="AM53" s="61"/>
+      <c r="AN53" s="61"/>
+      <c r="AO53" s="61"/>
+      <c r="AP53" s="61"/>
+      <c r="AQ53" s="61"/>
+      <c r="AR53" s="61"/>
+      <c r="AS53" s="61"/>
+      <c r="AT53" s="61"/>
+      <c r="AU53" s="61"/>
+      <c r="AV53" s="61"/>
+      <c r="AW53" s="61"/>
+      <c r="AX53" s="61"/>
+      <c r="AY53" s="61"/>
+      <c r="AZ53" s="61"/>
+      <c r="BA53" s="61"/>
+      <c r="BB53" s="61"/>
+      <c r="BC53" s="61"/>
+      <c r="BD53" s="61"/>
+      <c r="BE53" s="61"/>
+      <c r="BF53" s="61"/>
+      <c r="BG53" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="V49:AA49"/>
+    <mergeCell ref="AB49:BG49"/>
+    <mergeCell ref="K50:U50"/>
+    <mergeCell ref="K49:U49"/>
+    <mergeCell ref="K53:U53"/>
+    <mergeCell ref="V53:AA53"/>
+    <mergeCell ref="AB53:BG53"/>
+    <mergeCell ref="V50:AA50"/>
+    <mergeCell ref="AB50:BG50"/>
+    <mergeCell ref="V51:AA51"/>
+    <mergeCell ref="AB51:BG51"/>
+    <mergeCell ref="K52:U52"/>
+    <mergeCell ref="V52:AA52"/>
+    <mergeCell ref="AB52:BG52"/>
+    <mergeCell ref="K51:U51"/>
     <mergeCell ref="K47:U47"/>
     <mergeCell ref="K48:U48"/>
     <mergeCell ref="V47:AA47"/>
@@ -14064,21 +13937,6 @@
     <mergeCell ref="AB46:BG46"/>
     <mergeCell ref="V48:AA48"/>
     <mergeCell ref="AB48:BG48"/>
-    <mergeCell ref="V49:AA49"/>
-    <mergeCell ref="AB49:BG49"/>
-    <mergeCell ref="K50:U50"/>
-    <mergeCell ref="K49:U49"/>
-    <mergeCell ref="K53:U53"/>
-    <mergeCell ref="V53:AA53"/>
-    <mergeCell ref="AB53:BG53"/>
-    <mergeCell ref="V50:AA50"/>
-    <mergeCell ref="AB50:BG50"/>
-    <mergeCell ref="V51:AA51"/>
-    <mergeCell ref="AB51:BG51"/>
-    <mergeCell ref="K52:U52"/>
-    <mergeCell ref="V52:AA52"/>
-    <mergeCell ref="AB52:BG52"/>
-    <mergeCell ref="K51:U51"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14956,118 +14814,118 @@
       <c r="BG41" s="60"/>
     </row>
     <row r="42" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K42" s="31" t="s">
+      <c r="K42" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="31"/>
-      <c r="U42" s="31"/>
-      <c r="V42" s="31" t="s">
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="61"/>
+      <c r="S42" s="61"/>
+      <c r="T42" s="61"/>
+      <c r="U42" s="61"/>
+      <c r="V42" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="W42" s="31"/>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="31" t="s">
+      <c r="W42" s="61"/>
+      <c r="X42" s="61"/>
+      <c r="Y42" s="61"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="61"/>
+      <c r="AB42" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="AC42" s="31"/>
-      <c r="AD42" s="31"/>
-      <c r="AE42" s="31"/>
-      <c r="AF42" s="31"/>
-      <c r="AG42" s="31"/>
-      <c r="AH42" s="31"/>
-      <c r="AI42" s="31"/>
-      <c r="AJ42" s="31"/>
-      <c r="AK42" s="31"/>
-      <c r="AL42" s="31"/>
-      <c r="AM42" s="31"/>
-      <c r="AN42" s="31"/>
-      <c r="AO42" s="31"/>
-      <c r="AP42" s="31"/>
-      <c r="AQ42" s="31"/>
-      <c r="AR42" s="31"/>
-      <c r="AS42" s="31"/>
-      <c r="AT42" s="31"/>
-      <c r="AU42" s="31"/>
-      <c r="AV42" s="31"/>
-      <c r="AW42" s="31"/>
-      <c r="AX42" s="31"/>
-      <c r="AY42" s="31"/>
-      <c r="AZ42" s="31"/>
-      <c r="BA42" s="31"/>
-      <c r="BB42" s="31"/>
-      <c r="BC42" s="31"/>
-      <c r="BD42" s="31"/>
-      <c r="BE42" s="31"/>
-      <c r="BF42" s="31"/>
-      <c r="BG42" s="31"/>
+      <c r="AC42" s="61"/>
+      <c r="AD42" s="61"/>
+      <c r="AE42" s="61"/>
+      <c r="AF42" s="61"/>
+      <c r="AG42" s="61"/>
+      <c r="AH42" s="61"/>
+      <c r="AI42" s="61"/>
+      <c r="AJ42" s="61"/>
+      <c r="AK42" s="61"/>
+      <c r="AL42" s="61"/>
+      <c r="AM42" s="61"/>
+      <c r="AN42" s="61"/>
+      <c r="AO42" s="61"/>
+      <c r="AP42" s="61"/>
+      <c r="AQ42" s="61"/>
+      <c r="AR42" s="61"/>
+      <c r="AS42" s="61"/>
+      <c r="AT42" s="61"/>
+      <c r="AU42" s="61"/>
+      <c r="AV42" s="61"/>
+      <c r="AW42" s="61"/>
+      <c r="AX42" s="61"/>
+      <c r="AY42" s="61"/>
+      <c r="AZ42" s="61"/>
+      <c r="BA42" s="61"/>
+      <c r="BB42" s="61"/>
+      <c r="BC42" s="61"/>
+      <c r="BD42" s="61"/>
+      <c r="BE42" s="61"/>
+      <c r="BF42" s="61"/>
+      <c r="BG42" s="61"/>
     </row>
     <row r="43" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K43" s="31" t="s">
+      <c r="K43" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31" t="s">
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="61"/>
+      <c r="R43" s="61"/>
+      <c r="S43" s="61"/>
+      <c r="T43" s="61"/>
+      <c r="U43" s="61"/>
+      <c r="V43" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="W43" s="31"/>
-      <c r="X43" s="31"/>
-      <c r="Y43" s="31"/>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="31" t="s">
+      <c r="W43" s="61"/>
+      <c r="X43" s="61"/>
+      <c r="Y43" s="61"/>
+      <c r="Z43" s="61"/>
+      <c r="AA43" s="61"/>
+      <c r="AB43" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="AC43" s="31"/>
-      <c r="AD43" s="31"/>
-      <c r="AE43" s="31"/>
-      <c r="AF43" s="31"/>
-      <c r="AG43" s="31"/>
-      <c r="AH43" s="31"/>
-      <c r="AI43" s="31"/>
-      <c r="AJ43" s="31"/>
-      <c r="AK43" s="31"/>
-      <c r="AL43" s="31"/>
-      <c r="AM43" s="31"/>
-      <c r="AN43" s="31"/>
-      <c r="AO43" s="31"/>
-      <c r="AP43" s="31"/>
-      <c r="AQ43" s="31"/>
-      <c r="AR43" s="31"/>
-      <c r="AS43" s="31"/>
-      <c r="AT43" s="31"/>
-      <c r="AU43" s="31"/>
-      <c r="AV43" s="31"/>
-      <c r="AW43" s="31"/>
-      <c r="AX43" s="31"/>
-      <c r="AY43" s="31"/>
-      <c r="AZ43" s="31"/>
-      <c r="BA43" s="31"/>
-      <c r="BB43" s="31"/>
-      <c r="BC43" s="31"/>
-      <c r="BD43" s="31"/>
-      <c r="BE43" s="31"/>
-      <c r="BF43" s="31"/>
-      <c r="BG43" s="31"/>
+      <c r="AC43" s="61"/>
+      <c r="AD43" s="61"/>
+      <c r="AE43" s="61"/>
+      <c r="AF43" s="61"/>
+      <c r="AG43" s="61"/>
+      <c r="AH43" s="61"/>
+      <c r="AI43" s="61"/>
+      <c r="AJ43" s="61"/>
+      <c r="AK43" s="61"/>
+      <c r="AL43" s="61"/>
+      <c r="AM43" s="61"/>
+      <c r="AN43" s="61"/>
+      <c r="AO43" s="61"/>
+      <c r="AP43" s="61"/>
+      <c r="AQ43" s="61"/>
+      <c r="AR43" s="61"/>
+      <c r="AS43" s="61"/>
+      <c r="AT43" s="61"/>
+      <c r="AU43" s="61"/>
+      <c r="AV43" s="61"/>
+      <c r="AW43" s="61"/>
+      <c r="AX43" s="61"/>
+      <c r="AY43" s="61"/>
+      <c r="AZ43" s="61"/>
+      <c r="BA43" s="61"/>
+      <c r="BB43" s="61"/>
+      <c r="BC43" s="61"/>
+      <c r="BD43" s="61"/>
+      <c r="BE43" s="61"/>
+      <c r="BF43" s="61"/>
+      <c r="BG43" s="61"/>
     </row>
     <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
@@ -15098,7 +14956,7 @@
   <dimension ref="B2:BG55"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AZ19" sqref="AZ19"/>
+      <selection activeCell="N11" sqref="N11:U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -15425,87 +15283,87 @@
     </row>
     <row r="21" spans="11:59" x14ac:dyDescent="0.4">
       <c r="K21" s="6"/>
-      <c r="L21" s="64" t="s">
+      <c r="L21" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="M21" s="65"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="64" t="s">
+      <c r="M21" s="66"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="64" t="s">
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="65"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="64" t="s">
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="67"/>
+      <c r="AD21" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="AE21" s="65"/>
-      <c r="AF21" s="65"/>
-      <c r="AG21" s="65"/>
-      <c r="AH21" s="65"/>
-      <c r="AI21" s="65"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="64" t="s">
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="67"/>
+      <c r="AK21" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="AL21" s="65"/>
-      <c r="AM21" s="65"/>
-      <c r="AN21" s="65"/>
-      <c r="AO21" s="65"/>
-      <c r="AP21" s="65"/>
-      <c r="AQ21" s="65"/>
-      <c r="AR21" s="65"/>
-      <c r="AS21" s="66"/>
+      <c r="AL21" s="66"/>
+      <c r="AM21" s="66"/>
+      <c r="AN21" s="66"/>
+      <c r="AO21" s="66"/>
+      <c r="AP21" s="66"/>
+      <c r="AQ21" s="66"/>
+      <c r="AR21" s="66"/>
+      <c r="AS21" s="67"/>
       <c r="AU21" s="18"/>
     </row>
     <row r="22" spans="11:59" x14ac:dyDescent="0.4">
       <c r="K22" s="6"/>
-      <c r="L22" s="67">
+      <c r="L22" s="68">
         <v>1</v>
       </c>
-      <c r="M22" s="68"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="70" t="s">
+      <c r="M22" s="69"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="70" t="s">
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="72"/>
-      <c r="AD22" s="70" t="s">
+      <c r="X22" s="72"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="72"/>
+      <c r="AC22" s="73"/>
+      <c r="AD22" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="AE22" s="71"/>
-      <c r="AF22" s="71"/>
-      <c r="AG22" s="71"/>
-      <c r="AH22" s="71"/>
-      <c r="AI22" s="71"/>
-      <c r="AJ22" s="72"/>
+      <c r="AE22" s="72"/>
+      <c r="AF22" s="72"/>
+      <c r="AG22" s="72"/>
+      <c r="AH22" s="72"/>
+      <c r="AI22" s="72"/>
+      <c r="AJ22" s="73"/>
       <c r="AK22" s="19"/>
       <c r="AL22" s="20"/>
       <c r="AM22" s="20" t="s">
@@ -15523,39 +15381,39 @@
     </row>
     <row r="23" spans="11:59" x14ac:dyDescent="0.4">
       <c r="K23" s="6"/>
-      <c r="L23" s="67">
+      <c r="L23" s="68">
         <v>2</v>
       </c>
-      <c r="M23" s="68"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="70" t="s">
+      <c r="M23" s="69"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="70" t="s">
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="71"/>
-      <c r="AB23" s="71"/>
-      <c r="AC23" s="72"/>
-      <c r="AD23" s="70" t="s">
+      <c r="X23" s="72"/>
+      <c r="Y23" s="72"/>
+      <c r="Z23" s="72"/>
+      <c r="AA23" s="72"/>
+      <c r="AB23" s="72"/>
+      <c r="AC23" s="73"/>
+      <c r="AD23" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="AE23" s="71"/>
-      <c r="AF23" s="71"/>
-      <c r="AG23" s="71"/>
-      <c r="AH23" s="71"/>
-      <c r="AI23" s="71"/>
-      <c r="AJ23" s="72"/>
+      <c r="AE23" s="72"/>
+      <c r="AF23" s="72"/>
+      <c r="AG23" s="72"/>
+      <c r="AH23" s="72"/>
+      <c r="AI23" s="72"/>
+      <c r="AJ23" s="73"/>
       <c r="AK23" s="19"/>
       <c r="AL23" s="20"/>
       <c r="AM23" s="20" t="s">
@@ -15573,39 +15431,39 @@
     </row>
     <row r="24" spans="11:59" x14ac:dyDescent="0.4">
       <c r="K24" s="6"/>
-      <c r="L24" s="67">
+      <c r="L24" s="68">
         <v>3</v>
       </c>
-      <c r="M24" s="68"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="70" t="s">
+      <c r="M24" s="69"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="70" t="s">
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="73"/>
+      <c r="W24" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="71"/>
-      <c r="Z24" s="71"/>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="71"/>
-      <c r="AC24" s="72"/>
-      <c r="AD24" s="70" t="s">
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="72"/>
+      <c r="AC24" s="73"/>
+      <c r="AD24" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="AE24" s="71"/>
-      <c r="AF24" s="71"/>
-      <c r="AG24" s="71"/>
-      <c r="AH24" s="71"/>
-      <c r="AI24" s="71"/>
-      <c r="AJ24" s="72"/>
+      <c r="AE24" s="72"/>
+      <c r="AF24" s="72"/>
+      <c r="AG24" s="72"/>
+      <c r="AH24" s="72"/>
+      <c r="AI24" s="72"/>
+      <c r="AJ24" s="73"/>
       <c r="AK24" s="19"/>
       <c r="AL24" s="20"/>
       <c r="AM24" s="20" t="s">
@@ -15627,12 +15485,12 @@
     </row>
     <row r="26" spans="11:59" x14ac:dyDescent="0.4">
       <c r="K26" s="6"/>
-      <c r="AO26" s="64" t="s">
+      <c r="AO26" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="AP26" s="65"/>
-      <c r="AQ26" s="65"/>
-      <c r="AR26" s="66"/>
+      <c r="AP26" s="66"/>
+      <c r="AQ26" s="66"/>
+      <c r="AR26" s="67"/>
       <c r="AU26" s="18"/>
     </row>
     <row r="27" spans="11:59" x14ac:dyDescent="0.4">
@@ -15737,403 +15595,403 @@
       <c r="BG31" s="60"/>
     </row>
     <row r="32" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K32" s="31" t="s">
+      <c r="K32" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31" t="s">
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="61"/>
+      <c r="U32" s="61"/>
+      <c r="V32" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="31" t="s">
+      <c r="W32" s="61"/>
+      <c r="X32" s="61"/>
+      <c r="Y32" s="61"/>
+      <c r="Z32" s="61"/>
+      <c r="AA32" s="61"/>
+      <c r="AB32" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="AC32" s="31"/>
-      <c r="AD32" s="31"/>
-      <c r="AE32" s="31"/>
-      <c r="AF32" s="31"/>
-      <c r="AG32" s="31"/>
-      <c r="AH32" s="31"/>
-      <c r="AI32" s="31"/>
-      <c r="AJ32" s="31"/>
-      <c r="AK32" s="31"/>
-      <c r="AL32" s="31"/>
-      <c r="AM32" s="31"/>
-      <c r="AN32" s="31"/>
-      <c r="AO32" s="31"/>
-      <c r="AP32" s="31"/>
-      <c r="AQ32" s="31"/>
-      <c r="AR32" s="31"/>
-      <c r="AS32" s="31"/>
-      <c r="AT32" s="31"/>
-      <c r="AU32" s="31"/>
-      <c r="AV32" s="31"/>
-      <c r="AW32" s="31"/>
-      <c r="AX32" s="31"/>
-      <c r="AY32" s="31"/>
-      <c r="AZ32" s="31"/>
-      <c r="BA32" s="31"/>
-      <c r="BB32" s="31"/>
-      <c r="BC32" s="31"/>
-      <c r="BD32" s="31"/>
-      <c r="BE32" s="31"/>
-      <c r="BF32" s="31"/>
-      <c r="BG32" s="31"/>
+      <c r="AC32" s="61"/>
+      <c r="AD32" s="61"/>
+      <c r="AE32" s="61"/>
+      <c r="AF32" s="61"/>
+      <c r="AG32" s="61"/>
+      <c r="AH32" s="61"/>
+      <c r="AI32" s="61"/>
+      <c r="AJ32" s="61"/>
+      <c r="AK32" s="61"/>
+      <c r="AL32" s="61"/>
+      <c r="AM32" s="61"/>
+      <c r="AN32" s="61"/>
+      <c r="AO32" s="61"/>
+      <c r="AP32" s="61"/>
+      <c r="AQ32" s="61"/>
+      <c r="AR32" s="61"/>
+      <c r="AS32" s="61"/>
+      <c r="AT32" s="61"/>
+      <c r="AU32" s="61"/>
+      <c r="AV32" s="61"/>
+      <c r="AW32" s="61"/>
+      <c r="AX32" s="61"/>
+      <c r="AY32" s="61"/>
+      <c r="AZ32" s="61"/>
+      <c r="BA32" s="61"/>
+      <c r="BB32" s="61"/>
+      <c r="BC32" s="61"/>
+      <c r="BD32" s="61"/>
+      <c r="BE32" s="61"/>
+      <c r="BF32" s="61"/>
+      <c r="BG32" s="61"/>
     </row>
     <row r="33" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K33" s="31" t="s">
+      <c r="K33" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31" t="s">
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="61"/>
+      <c r="V33" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="31" t="s">
+      <c r="W33" s="61"/>
+      <c r="X33" s="61"/>
+      <c r="Y33" s="61"/>
+      <c r="Z33" s="61"/>
+      <c r="AA33" s="61"/>
+      <c r="AB33" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="AC33" s="31"/>
-      <c r="AD33" s="31"/>
-      <c r="AE33" s="31"/>
-      <c r="AF33" s="31"/>
-      <c r="AG33" s="31"/>
-      <c r="AH33" s="31"/>
-      <c r="AI33" s="31"/>
-      <c r="AJ33" s="31"/>
-      <c r="AK33" s="31"/>
-      <c r="AL33" s="31"/>
-      <c r="AM33" s="31"/>
-      <c r="AN33" s="31"/>
-      <c r="AO33" s="31"/>
-      <c r="AP33" s="31"/>
-      <c r="AQ33" s="31"/>
-      <c r="AR33" s="31"/>
-      <c r="AS33" s="31"/>
-      <c r="AT33" s="31"/>
-      <c r="AU33" s="31"/>
-      <c r="AV33" s="31"/>
-      <c r="AW33" s="31"/>
-      <c r="AX33" s="31"/>
-      <c r="AY33" s="31"/>
-      <c r="AZ33" s="31"/>
-      <c r="BA33" s="31"/>
-      <c r="BB33" s="31"/>
-      <c r="BC33" s="31"/>
-      <c r="BD33" s="31"/>
-      <c r="BE33" s="31"/>
-      <c r="BF33" s="31"/>
-      <c r="BG33" s="31"/>
+      <c r="AC33" s="61"/>
+      <c r="AD33" s="61"/>
+      <c r="AE33" s="61"/>
+      <c r="AF33" s="61"/>
+      <c r="AG33" s="61"/>
+      <c r="AH33" s="61"/>
+      <c r="AI33" s="61"/>
+      <c r="AJ33" s="61"/>
+      <c r="AK33" s="61"/>
+      <c r="AL33" s="61"/>
+      <c r="AM33" s="61"/>
+      <c r="AN33" s="61"/>
+      <c r="AO33" s="61"/>
+      <c r="AP33" s="61"/>
+      <c r="AQ33" s="61"/>
+      <c r="AR33" s="61"/>
+      <c r="AS33" s="61"/>
+      <c r="AT33" s="61"/>
+      <c r="AU33" s="61"/>
+      <c r="AV33" s="61"/>
+      <c r="AW33" s="61"/>
+      <c r="AX33" s="61"/>
+      <c r="AY33" s="61"/>
+      <c r="AZ33" s="61"/>
+      <c r="BA33" s="61"/>
+      <c r="BB33" s="61"/>
+      <c r="BC33" s="61"/>
+      <c r="BD33" s="61"/>
+      <c r="BE33" s="61"/>
+      <c r="BF33" s="61"/>
+      <c r="BG33" s="61"/>
     </row>
     <row r="34" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K34" s="31" t="s">
+      <c r="K34" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31" t="s">
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="61"/>
+      <c r="V34" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
-      <c r="AB34" s="31" t="s">
+      <c r="W34" s="61"/>
+      <c r="X34" s="61"/>
+      <c r="Y34" s="61"/>
+      <c r="Z34" s="61"/>
+      <c r="AA34" s="61"/>
+      <c r="AB34" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="AC34" s="31"/>
-      <c r="AD34" s="31"/>
-      <c r="AE34" s="31"/>
-      <c r="AF34" s="31"/>
-      <c r="AG34" s="31"/>
-      <c r="AH34" s="31"/>
-      <c r="AI34" s="31"/>
-      <c r="AJ34" s="31"/>
-      <c r="AK34" s="31"/>
-      <c r="AL34" s="31"/>
-      <c r="AM34" s="31"/>
-      <c r="AN34" s="31"/>
-      <c r="AO34" s="31"/>
-      <c r="AP34" s="31"/>
-      <c r="AQ34" s="31"/>
-      <c r="AR34" s="31"/>
-      <c r="AS34" s="31"/>
-      <c r="AT34" s="31"/>
-      <c r="AU34" s="31"/>
-      <c r="AV34" s="31"/>
-      <c r="AW34" s="31"/>
-      <c r="AX34" s="31"/>
-      <c r="AY34" s="31"/>
-      <c r="AZ34" s="31"/>
-      <c r="BA34" s="31"/>
-      <c r="BB34" s="31"/>
-      <c r="BC34" s="31"/>
-      <c r="BD34" s="31"/>
-      <c r="BE34" s="31"/>
-      <c r="BF34" s="31"/>
-      <c r="BG34" s="31"/>
+      <c r="AC34" s="61"/>
+      <c r="AD34" s="61"/>
+      <c r="AE34" s="61"/>
+      <c r="AF34" s="61"/>
+      <c r="AG34" s="61"/>
+      <c r="AH34" s="61"/>
+      <c r="AI34" s="61"/>
+      <c r="AJ34" s="61"/>
+      <c r="AK34" s="61"/>
+      <c r="AL34" s="61"/>
+      <c r="AM34" s="61"/>
+      <c r="AN34" s="61"/>
+      <c r="AO34" s="61"/>
+      <c r="AP34" s="61"/>
+      <c r="AQ34" s="61"/>
+      <c r="AR34" s="61"/>
+      <c r="AS34" s="61"/>
+      <c r="AT34" s="61"/>
+      <c r="AU34" s="61"/>
+      <c r="AV34" s="61"/>
+      <c r="AW34" s="61"/>
+      <c r="AX34" s="61"/>
+      <c r="AY34" s="61"/>
+      <c r="AZ34" s="61"/>
+      <c r="BA34" s="61"/>
+      <c r="BB34" s="61"/>
+      <c r="BC34" s="61"/>
+      <c r="BD34" s="61"/>
+      <c r="BE34" s="61"/>
+      <c r="BF34" s="61"/>
+      <c r="BG34" s="61"/>
     </row>
     <row r="35" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K35" s="31" t="s">
+      <c r="K35" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31" t="s">
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="61"/>
+      <c r="U35" s="61"/>
+      <c r="V35" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31" t="s">
+      <c r="W35" s="61"/>
+      <c r="X35" s="61"/>
+      <c r="Y35" s="61"/>
+      <c r="Z35" s="61"/>
+      <c r="AA35" s="61"/>
+      <c r="AB35" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="31"/>
-      <c r="AH35" s="31"/>
-      <c r="AI35" s="31"/>
-      <c r="AJ35" s="31"/>
-      <c r="AK35" s="31"/>
-      <c r="AL35" s="31"/>
-      <c r="AM35" s="31"/>
-      <c r="AN35" s="31"/>
-      <c r="AO35" s="31"/>
-      <c r="AP35" s="31"/>
-      <c r="AQ35" s="31"/>
-      <c r="AR35" s="31"/>
-      <c r="AS35" s="31"/>
-      <c r="AT35" s="31"/>
-      <c r="AU35" s="31"/>
-      <c r="AV35" s="31"/>
-      <c r="AW35" s="31"/>
-      <c r="AX35" s="31"/>
-      <c r="AY35" s="31"/>
-      <c r="AZ35" s="31"/>
-      <c r="BA35" s="31"/>
-      <c r="BB35" s="31"/>
-      <c r="BC35" s="31"/>
-      <c r="BD35" s="31"/>
-      <c r="BE35" s="31"/>
-      <c r="BF35" s="31"/>
-      <c r="BG35" s="31"/>
+      <c r="AC35" s="61"/>
+      <c r="AD35" s="61"/>
+      <c r="AE35" s="61"/>
+      <c r="AF35" s="61"/>
+      <c r="AG35" s="61"/>
+      <c r="AH35" s="61"/>
+      <c r="AI35" s="61"/>
+      <c r="AJ35" s="61"/>
+      <c r="AK35" s="61"/>
+      <c r="AL35" s="61"/>
+      <c r="AM35" s="61"/>
+      <c r="AN35" s="61"/>
+      <c r="AO35" s="61"/>
+      <c r="AP35" s="61"/>
+      <c r="AQ35" s="61"/>
+      <c r="AR35" s="61"/>
+      <c r="AS35" s="61"/>
+      <c r="AT35" s="61"/>
+      <c r="AU35" s="61"/>
+      <c r="AV35" s="61"/>
+      <c r="AW35" s="61"/>
+      <c r="AX35" s="61"/>
+      <c r="AY35" s="61"/>
+      <c r="AZ35" s="61"/>
+      <c r="BA35" s="61"/>
+      <c r="BB35" s="61"/>
+      <c r="BC35" s="61"/>
+      <c r="BD35" s="61"/>
+      <c r="BE35" s="61"/>
+      <c r="BF35" s="61"/>
+      <c r="BG35" s="61"/>
     </row>
     <row r="36" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K36" s="31" t="s">
+      <c r="K36" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31" t="s">
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31" t="s">
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="61"/>
+      <c r="Z36" s="61"/>
+      <c r="AA36" s="61"/>
+      <c r="AB36" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="31"/>
-      <c r="AG36" s="31"/>
-      <c r="AH36" s="31"/>
-      <c r="AI36" s="31"/>
-      <c r="AJ36" s="31"/>
-      <c r="AK36" s="31"/>
-      <c r="AL36" s="31"/>
-      <c r="AM36" s="31"/>
-      <c r="AN36" s="31"/>
-      <c r="AO36" s="31"/>
-      <c r="AP36" s="31"/>
-      <c r="AQ36" s="31"/>
-      <c r="AR36" s="31"/>
-      <c r="AS36" s="31"/>
-      <c r="AT36" s="31"/>
-      <c r="AU36" s="31"/>
-      <c r="AV36" s="31"/>
-      <c r="AW36" s="31"/>
-      <c r="AX36" s="31"/>
-      <c r="AY36" s="31"/>
-      <c r="AZ36" s="31"/>
-      <c r="BA36" s="31"/>
-      <c r="BB36" s="31"/>
-      <c r="BC36" s="31"/>
-      <c r="BD36" s="31"/>
-      <c r="BE36" s="31"/>
-      <c r="BF36" s="31"/>
-      <c r="BG36" s="31"/>
+      <c r="AC36" s="61"/>
+      <c r="AD36" s="61"/>
+      <c r="AE36" s="61"/>
+      <c r="AF36" s="61"/>
+      <c r="AG36" s="61"/>
+      <c r="AH36" s="61"/>
+      <c r="AI36" s="61"/>
+      <c r="AJ36" s="61"/>
+      <c r="AK36" s="61"/>
+      <c r="AL36" s="61"/>
+      <c r="AM36" s="61"/>
+      <c r="AN36" s="61"/>
+      <c r="AO36" s="61"/>
+      <c r="AP36" s="61"/>
+      <c r="AQ36" s="61"/>
+      <c r="AR36" s="61"/>
+      <c r="AS36" s="61"/>
+      <c r="AT36" s="61"/>
+      <c r="AU36" s="61"/>
+      <c r="AV36" s="61"/>
+      <c r="AW36" s="61"/>
+      <c r="AX36" s="61"/>
+      <c r="AY36" s="61"/>
+      <c r="AZ36" s="61"/>
+      <c r="BA36" s="61"/>
+      <c r="BB36" s="61"/>
+      <c r="BC36" s="61"/>
+      <c r="BD36" s="61"/>
+      <c r="BE36" s="61"/>
+      <c r="BF36" s="61"/>
+      <c r="BG36" s="61"/>
     </row>
     <row r="37" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K37" s="31" t="s">
+      <c r="K37" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31" t="s">
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="31"/>
-      <c r="AB37" s="31" t="s">
+      <c r="W37" s="61"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="61"/>
+      <c r="Z37" s="61"/>
+      <c r="AA37" s="61"/>
+      <c r="AB37" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="AC37" s="31"/>
-      <c r="AD37" s="31"/>
-      <c r="AE37" s="31"/>
-      <c r="AF37" s="31"/>
-      <c r="AG37" s="31"/>
-      <c r="AH37" s="31"/>
-      <c r="AI37" s="31"/>
-      <c r="AJ37" s="31"/>
-      <c r="AK37" s="31"/>
-      <c r="AL37" s="31"/>
-      <c r="AM37" s="31"/>
-      <c r="AN37" s="31"/>
-      <c r="AO37" s="31"/>
-      <c r="AP37" s="31"/>
-      <c r="AQ37" s="31"/>
-      <c r="AR37" s="31"/>
-      <c r="AS37" s="31"/>
-      <c r="AT37" s="31"/>
-      <c r="AU37" s="31"/>
-      <c r="AV37" s="31"/>
-      <c r="AW37" s="31"/>
-      <c r="AX37" s="31"/>
-      <c r="AY37" s="31"/>
-      <c r="AZ37" s="31"/>
-      <c r="BA37" s="31"/>
-      <c r="BB37" s="31"/>
-      <c r="BC37" s="31"/>
-      <c r="BD37" s="31"/>
-      <c r="BE37" s="31"/>
-      <c r="BF37" s="31"/>
-      <c r="BG37" s="31"/>
+      <c r="AC37" s="61"/>
+      <c r="AD37" s="61"/>
+      <c r="AE37" s="61"/>
+      <c r="AF37" s="61"/>
+      <c r="AG37" s="61"/>
+      <c r="AH37" s="61"/>
+      <c r="AI37" s="61"/>
+      <c r="AJ37" s="61"/>
+      <c r="AK37" s="61"/>
+      <c r="AL37" s="61"/>
+      <c r="AM37" s="61"/>
+      <c r="AN37" s="61"/>
+      <c r="AO37" s="61"/>
+      <c r="AP37" s="61"/>
+      <c r="AQ37" s="61"/>
+      <c r="AR37" s="61"/>
+      <c r="AS37" s="61"/>
+      <c r="AT37" s="61"/>
+      <c r="AU37" s="61"/>
+      <c r="AV37" s="61"/>
+      <c r="AW37" s="61"/>
+      <c r="AX37" s="61"/>
+      <c r="AY37" s="61"/>
+      <c r="AZ37" s="61"/>
+      <c r="BA37" s="61"/>
+      <c r="BB37" s="61"/>
+      <c r="BC37" s="61"/>
+      <c r="BD37" s="61"/>
+      <c r="BE37" s="61"/>
+      <c r="BF37" s="61"/>
+      <c r="BG37" s="61"/>
     </row>
     <row r="38" spans="11:59" x14ac:dyDescent="0.4">
-      <c r="K38" s="31" t="s">
+      <c r="K38" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31" t="s">
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="61"/>
+      <c r="U38" s="61"/>
+      <c r="V38" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31" t="s">
+      <c r="W38" s="61"/>
+      <c r="X38" s="61"/>
+      <c r="Y38" s="61"/>
+      <c r="Z38" s="61"/>
+      <c r="AA38" s="61"/>
+      <c r="AB38" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="AC38" s="31"/>
-      <c r="AD38" s="31"/>
-      <c r="AE38" s="31"/>
-      <c r="AF38" s="31"/>
-      <c r="AG38" s="31"/>
-      <c r="AH38" s="31"/>
-      <c r="AI38" s="31"/>
-      <c r="AJ38" s="31"/>
-      <c r="AK38" s="31"/>
-      <c r="AL38" s="31"/>
-      <c r="AM38" s="31"/>
-      <c r="AN38" s="31"/>
-      <c r="AO38" s="31"/>
-      <c r="AP38" s="31"/>
-      <c r="AQ38" s="31"/>
-      <c r="AR38" s="31"/>
-      <c r="AS38" s="31"/>
-      <c r="AT38" s="31"/>
-      <c r="AU38" s="31"/>
-      <c r="AV38" s="31"/>
-      <c r="AW38" s="31"/>
-      <c r="AX38" s="31"/>
-      <c r="AY38" s="31"/>
-      <c r="AZ38" s="31"/>
-      <c r="BA38" s="31"/>
-      <c r="BB38" s="31"/>
-      <c r="BC38" s="31"/>
-      <c r="BD38" s="31"/>
-      <c r="BE38" s="31"/>
-      <c r="BF38" s="31"/>
-      <c r="BG38" s="31"/>
+      <c r="AC38" s="61"/>
+      <c r="AD38" s="61"/>
+      <c r="AE38" s="61"/>
+      <c r="AF38" s="61"/>
+      <c r="AG38" s="61"/>
+      <c r="AH38" s="61"/>
+      <c r="AI38" s="61"/>
+      <c r="AJ38" s="61"/>
+      <c r="AK38" s="61"/>
+      <c r="AL38" s="61"/>
+      <c r="AM38" s="61"/>
+      <c r="AN38" s="61"/>
+      <c r="AO38" s="61"/>
+      <c r="AP38" s="61"/>
+      <c r="AQ38" s="61"/>
+      <c r="AR38" s="61"/>
+      <c r="AS38" s="61"/>
+      <c r="AT38" s="61"/>
+      <c r="AU38" s="61"/>
+      <c r="AV38" s="61"/>
+      <c r="AW38" s="61"/>
+      <c r="AX38" s="61"/>
+      <c r="AY38" s="61"/>
+      <c r="AZ38" s="61"/>
+      <c r="BA38" s="61"/>
+      <c r="BB38" s="61"/>
+      <c r="BC38" s="61"/>
+      <c r="BD38" s="61"/>
+      <c r="BE38" s="61"/>
+      <c r="BF38" s="61"/>
+      <c r="BG38" s="61"/>
     </row>
     <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
@@ -16144,6 +16002,32 @@
     <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="K38:U38"/>
+    <mergeCell ref="V38:AA38"/>
+    <mergeCell ref="AB38:BG38"/>
+    <mergeCell ref="K36:U36"/>
+    <mergeCell ref="V36:AA36"/>
+    <mergeCell ref="AB36:BG36"/>
+    <mergeCell ref="K37:U37"/>
+    <mergeCell ref="V37:AA37"/>
+    <mergeCell ref="AB37:BG37"/>
+    <mergeCell ref="K34:U34"/>
+    <mergeCell ref="V34:AA34"/>
+    <mergeCell ref="AB34:BG34"/>
+    <mergeCell ref="K35:U35"/>
+    <mergeCell ref="V35:AA35"/>
+    <mergeCell ref="AB35:BG35"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:V24"/>
+    <mergeCell ref="W24:AC24"/>
+    <mergeCell ref="AD24:AJ24"/>
+    <mergeCell ref="AO26:AR26"/>
+    <mergeCell ref="W22:AC22"/>
+    <mergeCell ref="AD22:AJ22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:V23"/>
+    <mergeCell ref="W23:AC23"/>
+    <mergeCell ref="AD23:AJ23"/>
     <mergeCell ref="K33:U33"/>
     <mergeCell ref="V33:AA33"/>
     <mergeCell ref="AB33:BG33"/>
@@ -16160,32 +16044,6 @@
     <mergeCell ref="K32:U32"/>
     <mergeCell ref="V32:AA32"/>
     <mergeCell ref="AB32:BG32"/>
-    <mergeCell ref="W22:AC22"/>
-    <mergeCell ref="AD22:AJ22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="O23:V23"/>
-    <mergeCell ref="W23:AC23"/>
-    <mergeCell ref="AD23:AJ23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:V24"/>
-    <mergeCell ref="W24:AC24"/>
-    <mergeCell ref="AD24:AJ24"/>
-    <mergeCell ref="AO26:AR26"/>
-    <mergeCell ref="K34:U34"/>
-    <mergeCell ref="V34:AA34"/>
-    <mergeCell ref="AB34:BG34"/>
-    <mergeCell ref="K35:U35"/>
-    <mergeCell ref="V35:AA35"/>
-    <mergeCell ref="AB35:BG35"/>
-    <mergeCell ref="K38:U38"/>
-    <mergeCell ref="V38:AA38"/>
-    <mergeCell ref="AB38:BG38"/>
-    <mergeCell ref="K36:U36"/>
-    <mergeCell ref="V36:AA36"/>
-    <mergeCell ref="AB36:BG36"/>
-    <mergeCell ref="K37:U37"/>
-    <mergeCell ref="V37:AA37"/>
-    <mergeCell ref="AB37:BG37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
